--- a/data/hotels_by_city/Dallas/Dallas_shard_98.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_98.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="606">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="678">
   <si>
     <t>STR#</t>
   </si>
@@ -147,6 +147,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jean C</t>
+  </si>
+  <si>
     <t>06/06/2018</t>
   </si>
   <si>
@@ -177,6 +180,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>Angie  B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r529278697-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -201,6 +207,9 @@
     <t>I have stayed at many Choice hotels and before now, I've had nothing to really complain about. Understanding that not all hotels are new with elaborate furnishings, I do expect them to be clean, neat, and without rodents. It's very difficult for me to write this review because I don't like reporting negative things, but this one is a must! I ended up at this hotel only because it was last minute and everywhere else was booked. When we opened the door to the room, it had a stuffy smell but that was okay. The night went by okay and the next morning, we got dressed and left to enjoy our day. About 9:15pm we'd gotten food and were back at the hotel. After laying my bag down I looked on the couch and noticed what looked like a 'rat' turd on my significant other's clothing bag. My S.O. then started moving the couch around and actually saw a 'rat' run down further in the couch. I was horrified!! I jumped in the bed in tears. This was horrible and I was petrified! He went down to speak to the receptionist about it, Heather I believe, and she was not sympathetic at all. She said they'd never had a report of such rodents before. I let her know there were several other droppings on the bench in the room as well. The nasty little thing had been all over our...I have stayed at many Choice hotels and before now, I've had nothing to really complain about. Understanding that not all hotels are new with elaborate furnishings, I do expect them to be clean, neat, and without rodents. It's very difficult for me to write this review because I don't like reporting negative things, but this one is a must! I ended up at this hotel only because it was last minute and everywhere else was booked. When we opened the door to the room, it had a stuffy smell but that was okay. The night went by okay and the next morning, we got dressed and left to enjoy our day. About 9:15pm we'd gotten food and were back at the hotel. After laying my bag down I looked on the couch and noticed what looked like a 'rat' turd on my significant other's clothing bag. My S.O. then started moving the couch around and actually saw a 'rat' run down further in the couch. I was horrified!! I jumped in the bed in tears. This was horrible and I was petrified! He went down to speak to the receptionist about it, Heather I believe, and she was not sympathetic at all. She said they'd never had a report of such rodents before. I let her know there were several other droppings on the bench in the room as well. The nasty little thing had been all over our things. She talked to her manager Chet Patel, and they eventually gave us another room upstairs and took $40 off our $102 a night stay, which was only after I further complained about not being comfortable being there. We stayed because there was no availability elsewhere. She was back on shift when we checked out the next morning and her attitude was not apologetic at all. The manager never contacted us and no one has since made apologies. Please DO NOT stay in this hotel if at all possible. The 'rat' was a small one so there were probably more in the building. I do feel this is an isolated event because these hotels are usually very nice and clean. This is a true story. Buyer beware. This hotel is NOT one you want to stay in.More</t>
   </si>
   <si>
+    <t>moteladvice</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r502326405-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -219,6 +228,9 @@
     <t>July 2017</t>
   </si>
   <si>
+    <t>Hungry2Travel</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r498819458-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -237,6 +249,9 @@
     <t>Room #319 June 30-July 4 stay. A/C was not on when we checked in. After turning it on, we noticed that the carpet under it was wet- making the sitting area of the room virtually unusable. We would have requested a different room, but being a holiday weekend, they were fully booked. During our stay, the WiFi was spotty- and extremely slow. (But I did notice one of the front desk clerks laying across her arm enjoying the internet.) The toilet had a large crack in it &amp; was 'mended' with caulk and  a broken tile had been 'reassembled' with spackle. On the day before our departure, my husband and puppy were stranded in a hot elevator for 30 minutes. When they were finally freed, we were told that the only elevator in the building would not be fixed until the day after we left. So that meant we were on the 3rd floor &amp; had to carry our luggage down the stairs. We are 60+ yrs old and have some physical difficulties- (arthritic knees, back issues). No offer was made by the disinterested front desk attendant to render any assistance, and an effort was made by the attendant to not make eye contact This hotel is in a state of disrepair. Even though the housekeeping staff kept everything very clean &amp; the location is great, we will not stay again &amp; will have a difficult time considering any Comfort...Room #319 June 30-July 4 stay. A/C was not on when we checked in. After turning it on, we noticed that the carpet under it was wet- making the sitting area of the room virtually unusable. We would have requested a different room, but being a holiday weekend, they were fully booked. During our stay, the WiFi was spotty- and extremely slow. (But I did notice one of the front desk clerks laying across her arm enjoying the internet.) The toilet had a large crack in it &amp; was 'mended' with caulk and  a broken tile had been 'reassembled' with spackle. On the day before our departure, my husband and puppy were stranded in a hot elevator for 30 minutes. When they were finally freed, we were told that the only elevator in the building would not be fixed until the day after we left. So that meant we were on the 3rd floor &amp; had to carry our luggage down the stairs. We are 60+ yrs old and have some physical difficulties- (arthritic knees, back issues). No offer was made by the disinterested front desk attendant to render any assistance, and an effort was made by the attendant to not make eye contact This hotel is in a state of disrepair. Even though the housekeeping staff kept everything very clean &amp; the location is great, we will not stay again &amp; will have a difficult time considering any Comfort Suites in the future.More</t>
   </si>
   <si>
+    <t>Terry S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r494316447-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -255,6 +270,9 @@
     <t>The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it...The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it too had been coated, but rust was underneath it and causing it to bubble up and many rust spots showed.  Underneath the "handicap" grab bar - where the round cover plates are on the wall - looked like black mold was here too.  The door frame coming into the bathroom, right next to the tub was rusting pretty bad and very visible, like all the other defects in and around the tub.  On the wall outside the bathroom (typically the bathroom door when fully open covers it) was a pretty good sized patch in the wall that was poorly repaired.  The patch was very visible (I have pictures of all of it to prove how bad it was).I have stayed in several Comfort Suites before, so the reason I chose this hotel; along with it being close to a weekend class I was attending close by.  All my previous experiences at Comfort Suites have bee really good and nothing like this run down place.  Obviously management does not care or the are not willing to have repairs done by professionals and the cleaning person should know when they see black mold or something very like it and report to management.  That room should not be allowed to be used by a guest until those issues mentioned above have been fully resolved - as mold of any type puts people who stay...More</t>
   </si>
   <si>
+    <t>mustangsuzie64</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r492337561-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -276,6 +294,9 @@
     <t>I chose this hotel because it was close to the freeway accesses I needed to attend family wedding events in the Rowlett area. It is a busy hotel and the no vacancy sign was up the three days I stayed. It's clean enough, the breakfast was alright but nothing special. My biggest concern was lack of security. I exited the lobby several times and never saw anyone at the front desk. I even rang the bell once when I needed something and no one ever came. In addition, the door locking mechanism on my room 319 did not function well. When leaving the room, I had to give the handle an extra tug to make sure the lock worked. Upon returning to my Ron last night, the lock was not engaged and anyone could have entered the room. I assume that housekeeping did not make sure the door was locked. I did report this when I checked out. I most likely will not stay at this hotel again having no reason to. I don't consider it on par with the nicer Holiday Inn Expresses.More</t>
   </si>
   <si>
+    <t>stebbie3029</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r492255895-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -288,6 +309,9 @@
     <t>My family stayed here for a high school graduation event.  I was really impressed with the room/ suite.  They also had HOT breakfast. It was also very convenient to where we needed to be.  I would recommend this hotel!</t>
   </si>
   <si>
+    <t>Keegan S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r472202847-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -306,6 +330,9 @@
     <t>April 2017</t>
   </si>
   <si>
+    <t>Julie G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r448086854-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -324,6 +351,9 @@
     <t>December 2016</t>
   </si>
   <si>
+    <t>Kathy G</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r431993812-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>I called earlier in the day of our scheduled arrival to advise that we would be arriving late.  Once we arrived at the property, we were very pleased with the parking area and appearance of the property.  The desk clerk wasn't very outgoing, but she was efficient and fast getting us checked in.  I did have to call the desk to get bedding for the sofa bed, but it was brought to us promptly.  Our room was clean and comfortable.  The only negatives about our experience were stains on the  where luggage rack and areas in the bathroom where repairs had been made and the coloring did not match.  We will be staying at this property again.  The complimentary breakfast was tasty enough and the lady was constantly working, refilling and cleaning the area.More</t>
   </si>
   <si>
+    <t>Bonnie123476</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r430410009-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -375,6 +408,9 @@
     <t>This hotel used to be good. The ceiling in the bathroom had as water stain- like it had leaked from above. The staff did not clean our room and we wanted it cleaned. Not only that. The wet towels were not picked up from the bathroom floor and we did not get new ones. I do NOT recommend this hotel bless they get a new manager. As we left we mentioned it to the manager and all he said was that he was sorry. Another guest was complaining that they did not get clean towels either.More</t>
   </si>
   <si>
+    <t>Richbutnot</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r425653472-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>We stayed here two nights over the weekend. We came in from Arkansas so this cut our drive and was convenient enough for us. We went into Dallas on Saturday afternoon to see Rent which was 30 minutes away. Good location if you don't need to go into Dallas or only want to make a single trip like we did. Hotel was clean, quiet and comfortable. Breakfast was the usual fare with plenty of room to eat. Wifi was very slow. Would stay here again.More</t>
   </si>
   <si>
+    <t>Amy Jo B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r419814269-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -429,6 +468,9 @@
     <t>When I travel to Rowlett, I always stay at this hotel. I have stayed here about 30 times in last year. The rooms have always been great in comfortable beds and cleanliness however during this recent trip, the television did not work, the remote backing holding the batteries was missing, the ice machine did not work, printing from room did not work as advertised and the WiFi was not reliable. Since I am traveling for business, I really rely and depend on these Amneties. I really hope that management reads this review and considers ensuring all business Amneties are working all the time and 100% reliable. More</t>
   </si>
   <si>
+    <t>Tammy S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r413314371-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -454,6 +496,9 @@
   </si>
   <si>
     <t>Clerk was able to get us on the ground floor as we were having to leave at 4a.m. Hotel was quite and clean. Yes a little wear and tear but CLEAN which I will take anyday. Not to far from Bass Pro Shop for a nice few hours of shopping and dining.More</t>
+  </si>
+  <si>
+    <t>Gina2090</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r391351811-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -491,6 +536,9 @@
 The receptionist proceeded to ask which country my mother was from and when questioned about the different rates on our bills, we checked in the same day as my aunt....Please do not waste your money by coming here.We stayed here for a week while visiting family. We would have booked into another hotel but we rarely spent time in the room and only came to sleep.We were allocated a ground floor room overlooking the car park.  The room was a good size, fairly clean but poorly lit. The bath tub was not pleasant -mould on the tap, dirty tub with a dirty shower mat which had been clearly used.  Breakfast is not intercontinental just some scrambled eggs, a few baked goods and sugary cereals.  Water provided at the breakfast was warm. I only had a sip of the water and it was enough to put me off the food for the whole trip.The morning of the checkout we woke up to find that the hotel bill had been slid under the door, I have never experienced this before. The rates are far too expensive for a hotel of this standard. For an extra ten dollars a night you could stay a a far much better hotel. We intended to pay with a different card and my mother went to the reception to ask why they had effected a payment from the card without us checking out. The receptionist proceeded to ask which country my mother was from and when questioned about the different rates on our bills, we checked in the same day as my aunt. She looked over to another guest who was sitting in the lobby and asked him 'is this not how we do it in America' and then she turned to my mother and said 'Well this is how we do it in America'.  She was moving around the whole time.My mother then asked what the bill had to do with which country she is from or the one the hotel is operating from.  The receptionist said she had nothing to do with the bill, refused to give her name and told my mother to contact the manager on Wednesday. We were flying out of Texas that same day so we asked for the contact office details. My uncle came to our room  a few minutes later with a copy of the paperwork from the checking in night which had someone else's bill printed on the back with their full name and room number. The person is still a guest at this hotel!More</t>
   </si>
   <si>
+    <t>navywife1994</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r390217431-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -515,6 +563,9 @@
     <t>It was nice to have friendly staff greet us when we arrived after a long days drive. Room was clean and big enough for our family. Moved from CA and will have visiting family stay here when they come over  More</t>
   </si>
   <si>
+    <t>Msbuni</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r385658773-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -542,6 +593,9 @@
     <t>The room we were in had a beautiful lake view, but there was a lot of road noise.  When we got ready to go to sleep, however, we just turned on our white noise machine and slept soundly.  The room was clean, comfortable, and the wifi was adequate for both of us to be on our computers at the same time.  We had booked multiple nights because we were in the area for the funeral of a family member.  However, when we got to the family member's home, we were asked to stay there during our visit.  We decided to stay that night at the hotel and try to cancel the rest of the reservation.  They were very gracious about canceling the remainder of the reservation and refunding our money.More</t>
   </si>
   <si>
+    <t>Crescendo01</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r356882493-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -569,6 +623,9 @@
     <t>Very pleasantly surprised at the high quality stay for such a reasonable price. The appearance and feel of the facility, particularly the bedding, was very comfortable and comparable to a higher end hotel. The pet friendly accommodations saved me a lot of money and hassle as well. Thank you!More</t>
   </si>
   <si>
+    <t>Peter P</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r352691008-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -596,6 +653,9 @@
     <t>Very convenient, just off the Interstate. Rooms are clean, comfortable, decent WYFI and breakfast was adequate. I arrived way too early, but the friendly girl on reception got me booked in.Would recommend this place and will certainly book again next time my travels take me to Rowlett.More</t>
   </si>
   <si>
+    <t>JRCZAR</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r348182296-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -620,6 +680,9 @@
     <t>WE were in Rowlett for my son's hospital stay and all the folks at this motel were very helpful and the hotel is very clean  with a great breakfast.  This is the place to stay in the Rowlett area.  The best value and rooms for your money.More</t>
   </si>
   <si>
+    <t>Joanna S</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r345424457-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -644,6 +707,9 @@
     <t>We will not stay here again,  we had stayed here 4 times in the past, but this time we were very disappointed!  I know the breakfast comes with the price of the room, but to have 4 out of 5 mornings the same bacon and eggs is a bit much,  we also found a bug in our room and when I asked for compensation, he acted offended!  The room was clean, but....More</t>
   </si>
   <si>
+    <t>momof2dfw</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r338699163-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -674,6 +740,9 @@
     <t>Two weeks ago today an EF-5 tornado came thru Garland and Rowlett.  Over 1100 homes were totally destroyed and hundreds more deemed uninhabitable.  Residents had to find somewhere to stay and many chose to stay at this location due to the close proximity of their home.  Our community has been awesome and stepped in to help everyone that has been displaced.  One thing that has been a great help is meals for these families.  Volunteers make and deliver meals to the local hotels where they are staying.  However, this hotel has turned them away and told them they can not deliver these meals to the displaced families staying there.  Various relief groups have been visiting local hotels to help these families but this one has been rude to them and turning them away.  We can not recommend this hotel for anyone!!!!!   Not with the way they have treated the people and families that have been displaced and lost everything.More</t>
   </si>
   <si>
+    <t>Sharon B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r327058910-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -722,6 +791,9 @@
     <t>We were moved to two different rooms until finally settled into a decent room. All rooms have a very strong odor and gross. It was too late to look for another hotel. The gal in the front desk is nice, but I wouldn't recommend this hotel to anyone. Online pictures are very deceiving!More</t>
   </si>
   <si>
+    <t>Nancy B</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r316862895-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -749,6 +821,9 @@
     <t>We really enjoyed our stay in this Comfort Suites on the shore of Lake Ron Hubbard.  Liz checked us in and out, and was very friendly and helpful with directions to nearby park areas with lake access.   We picked this hotel because it was right on our route (we did not want to go all the way into Dallas) and had good ratings; we thought it was good value for the money.More</t>
   </si>
   <si>
+    <t>LtColRiley</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r310279872-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -776,6 +851,9 @@
     <t>We wanted to stay as close as possible to Lake Ray Hubbard and needed a pet friendly hotel.  There are only 2 options:  Comfort Suites on the Rowlett side and La Quinta on the Rockwall side.  We actually spent a few nights at each, and while La Quinta is 5 minutes closer to more dining and shopping options (in Rockwall), the Comfort Suites was the nicer and quieter hotel.  My wife, son and I all have the edge to this hotel. Good location. Great stay!More</t>
   </si>
   <si>
+    <t>Garry H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r307346894-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -794,6 +872,9 @@
     <t>Yes, you can barely see the lake from the hotel, but that wasn't a problem. Staying a long weekend at the lake, this was a great location. Close to a lot of things to do. The room was fine. Soft beds and cold a/c. The breakfast was the usual free CS. Don't be picky, it's free. All the staff was friendly and helpful. We had one problem with the room. The fridge didn't work. When I told them, it was changed out within 30 minutes. A good stay and we will be back!More</t>
   </si>
   <si>
+    <t>denad55</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r297672460-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -821,6 +902,9 @@
     <t>I stayed here due to it being close to where I was going the hotel lobby is extremely nice. Checked into the room couldn't get the door open the handle would only work one way. The floor below the ac was falling through. Other than those issues the hotel was okay it did have laundry facilities and the staff was extremely friendly and helpful.More</t>
   </si>
   <si>
+    <t>FDuphrane D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r290532336-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -848,6 +932,9 @@
     <t>I believe it is only fair to say that i have never stayed at this hotel.  I made a reservation sight unseen based on its location.  They claim they were situated overlooking the lake. This could not have been further from the truth.  The hotel is situated along Interstate 30 which is alongside the lake.  The hotel itself is facing away from the lake with only one of its sides  facing I-30 and the lake is on the opposite side of I-30.  Still the price for a room was in the low 80s which deserved a look.  As we drove in we noticed a large amount of trash along leading to the hotel and the parking itself strew with trash and a large amount of cigarette butts on the parking areas nearest to the hotel.  This trash appeared old meaning the cleaning crew is not being managed properly.  We went inside but no clerk was at the front the front desk to greet us.  After several minutes we rang the service bell and a clerk immediately appeared. We arrived just after 12 pm so rooms were not ready.  We decided to come back later but before leaving we used their lobby restrooms and found them filthy, wastepaper baskets were full tissue and tissue was strewn about the floor.  This is unacceptable and made us wonder if this is the type of care that was being given to the rooms themselves...I believe it is only fair to say that i have never stayed at this hotel.  I made a reservation sight unseen based on its location.  They claim they were situated overlooking the lake. This could not have been further from the truth.  The hotel is situated along Interstate 30 which is alongside the lake.  The hotel itself is facing away from the lake with only one of its sides  facing I-30 and the lake is on the opposite side of I-30.  Still the price for a room was in the low 80s which deserved a look.  As we drove in we noticed a large amount of trash along leading to the hotel and the parking itself strew with trash and a large amount of cigarette butts on the parking areas nearest to the hotel.  This trash appeared old meaning the cleaning crew is not being managed properly.  We went inside but no clerk was at the front the front desk to greet us.  After several minutes we rang the service bell and a clerk immediately appeared. We arrived just after 12 pm so rooms were not ready.  We decided to come back later but before leaving we used their lobby restrooms and found them filthy, wastepaper baskets were full tissue and tissue was strewn about the floor.  This is unacceptable and made us wonder if this is the type of care that was being given to the rooms themselves and to the linen.  We decided not to take a chance and cancel our reservations.  We hope this serves a message to the management.More</t>
   </si>
   <si>
+    <t>Dasibeth</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r285913800-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -872,6 +959,9 @@
     <t>We had a one night stay after a long trip and were on the way home.  The room was clean, comfortable and spacious.  Good breakfast with scrambled eggs, bacon, muffins--no jelly or jam.  Easy access to the Interstate.More</t>
   </si>
   <si>
+    <t>tribojet</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r266623717-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -896,6 +986,9 @@
     <t>We have stayed several times here and it was ok. However this weekend was a different story. The Saturday morning breakfast was a disaster. At 8:30 they were out of everything. We were told it was a new person in the breakfast room so we accepted that explanation. Our room didn't lock .We discovered that as we were leaving. Unless you were inside the room you couldn't lock it. Also the elevator smelled like dogs. Sorry but we won't be back.More</t>
   </si>
   <si>
+    <t>Speer2014</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r265364265-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -923,6 +1016,9 @@
     <t>We took a group of students and the hotel computer system crashed but Amber and Samantha did a great job getting everyone checked in! They handled our large group with ease and friendliness. Amber spent time reviewing and answering any question I had. Rooms were comfortable, clean, nicely decorated and you can't beat the view of the lake!! Would stay here again. More</t>
   </si>
   <si>
+    <t>pjlanier1946</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r261701991-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -950,6 +1046,9 @@
     <t>Recent stay at this hotel because of snow and ice resulted in a very good experience. We arrived and were very happy with the suite. It was a large clean room. Due to the weather, we ate at a Dickey's adjacent to the hotel. That is another review. The breakfast area was large and very nice. The selection was adequate. I would stay at this hotel again.More</t>
   </si>
   <si>
+    <t>popeye60</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r244091829-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -975,6 +1074,9 @@
   </si>
   <si>
     <t>Great location just outside of Dallas. Staff were very friendly and helpful. Spacious room, clean, bright, bedding was really comfortable. WiFi is available. Breakfast had a good assortment of pastries as well as some hot items.While there we had a storm come through Dallas and knocked down trees and cut off power. When we came back to the hotel, staff were waiting for guests to escort to our rooms using flashlights. They were really helpful. Power did come back on just after midnight. Great staff.More</t>
+  </si>
+  <si>
+    <t>timandantoinette</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r228591710-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -1018,6 +1120,9 @@
 The next morning I Was greeted by a rather large but I'm sure harmless spider sitting on my luggage. I am terrified of...I was blown away by the beauty of Lake Ray Hubbard and this hotel!The hotel is located in a wonderfully convenient and safe area.The staff was very kind and accommodating.The room was great, the bed was soft and the tv was a large flat screen tv with crystal clear picture.The only issue I had with this property was the presence of spiders and bugs.My first run in with this was when I got into bed. I grabbed a pillow and as I did there was a very large beetle clinging to the back of the pillow. I screamed like a little girl and tossed the pillow to the other side of the bed. The bug did not move. It turned out to be dead. It had at some point in the day or week prior chosen the back of my pillow as it's final resting place. This was concerning to me because I began to think that my bed and room had not been checked or the sheets changed for some time.I told the front desk clerk what I had saw and she told me the hotel was booked solid so she couldn't move me but that the next day there should be availability if I would like to switch rooms.The next morning I Was greeted by a rather large but I'm sure harmless spider sitting on my luggage. I am terrified of spiders. I would rather have been greeted by 20 more of those beetles than even one spider! I managed to catch the spider in a coffee cup and I threw it outside.The front desk clerk called and offered to switch my room for me but at this point I was scared as to what I might find or rather what might find me in another room. At least with this room I had done a thorough search for any more visible insects or spiders and knew what was in my room. I decided not to gamble and stayed with my original room.To be fair the hotel is located on a lake and where there is water there will always be insects and spiders. I just hope that this was a random occurrence and not a routine situation.The Manager (maybe property owner too) apologized and took $5 off each night of my stay which was a nice gesture but it did teach me to always check the bed and room pretty well before going to sleep!More</t>
   </si>
   <si>
+    <t>DaveG873</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r204307698-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1045,6 +1150,9 @@
     <t>This is a very nice Comfort Suites at a good price.  Room was comfortable and breakfast typical for roadway hotels.  Room was very bright due to all night service station area next to hotel.  Get a room on East side of hotel, not West.  When we checked in, clerk asked if we wanted wake up call and entered it into computer.  No wake up call came and we overslept making us late in leaving, which required rushing for later appointment.More</t>
   </si>
   <si>
+    <t>Roberta H</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r197724489-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1177,9 @@
     <t>My husband made reservations over the phone and requested they use some of our points to compensate for the room. He was assured on the phone yes that would be no problem. The stay was fine, at check out, they charged our card. WHAT GOOD ARE POINTSMore</t>
   </si>
   <si>
+    <t>TravelinCalifornia</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r188668435-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1096,6 +1207,9 @@
     <t>This is the second time we have stayed at the Comfort Suites.   Check in ran into a snag with the printer, but the gentleman was very efficient with getting us set up in a room.  Selection at the breakfast bar, was fruit, cereals, eggs, ham, yogurt, bagels, muffins, etc.  Rooms were nice and clean.   A  sofa and desk all provided us opportunities to eat and work some place other than by sitting on the beds.  OUTLETS!!!!! In this day and age with the vast amount of technology that my family travels with, it  is ALWAYs a plus to have places to plug in devices without having to unplug the clock and a lamp. THANK YOU!!!!!  The location is perfect.  You are within walking distance to Church's Chicken and Dickey's Barbecue Pit.More</t>
   </si>
   <si>
+    <t>bruinsooner</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r177538573-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1121,6 +1235,9 @@
   </si>
   <si>
     <t>We stayed here on 2 nights; going to and coming back from soutgeast Texas.  Reservations were made in advance; paid in the $60 range for a king suite.  Excellent value. The front desk people were outstanding; people-persons, for sure. The room was quiet; no road noise; it sits on I-30 in east Dallas suburb.  Our room, on both nights, faced the lake. Bed was very comfortable.  All equipment worked fine-TV, iron, hair dryer.  Breakfast was OK.  Hotel was neat and clean; nicely landscaped outside; parking was plentiful and well lit.  There are 3 floors and an elevator is available.More</t>
+  </si>
+  <si>
+    <t>Simon V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r172117775-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -1158,6 +1275,9 @@
 Housekeeping was daily, although one maid decided to empty the contents of what...Please don't assume that because I have nothing good to say that I am simply whining. I travel a great deal on business and can honestly say that I have never stayed in a worse place.We arrived late at night and found the receptionist completely disinterested and it was almost like we were disturbing her from whatever she is doing on her computer (a task that apparently has taken her entire shift as every time we see her she is doing exactly the same). the other reception staff were more welcoming and friendly however. the same member of staff, when told of a laundry machine taking quarters and not providing a service, barely raised an eyebrow, let alone offer an apology or refund.Our rooms, although spacious were not of a good standard of repair. unpainted filler, cigarette burns in duvets, holes in curtains and what we found completely unacceptable was the presence of mould spores in the AC units and the unit in my room ejected water into the air when running.The most worrying aspect was the plastic bag tied to cover the smoke / fire detector in my room. when this point was raised, it was met with a blasé response and the previous occupant was blamed for bagging it off. this is a MAJOR safety issue and deserved a more concerned response.Housekeeping was daily, although one maid decided to empty the contents of what appeared to be the vacuum cleaner into my toilet and didn't even attempt to flush it.As an aside (and this is nothing to do with the hotel), the I-30 is a dangerous road. It is not safe to walk along or attempt to walk back from any local services. Driving is essential as taxis are highly unreliable. The town of Rockwall (3 miles east) has numerous hotels, much better amenities and is incredibly picturesque.More</t>
   </si>
   <si>
+    <t>Brad-Sandy</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r172088494-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1173,6 +1293,9 @@
     <t>Planned to stay in Rockwall but was told there were no rooms; they called around and got us in without much fuss.  Room was spacious, linens were clean; a little wear beginning to show on fixtures and furniture, but the bed was very good and firm.  Grounds needed policing, as litter and cigarette butts were all over.  Breakfast was quite nice, with sausage the first day and bacon the next - good little variety.  Breakfast area was terribly noisy, but management can't do much about rude guests.  Staff was friendly.  Did have to ask twice to have housekeeping straighten the room on the second day, but they did a good job.  Would stay again, definitely.More</t>
   </si>
   <si>
+    <t>Lee M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r170688080-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1197,6 +1320,9 @@
     <t>The hotel was clean and the staff was friendly and courteous .  The hotel provided breakfast and it was filling. It was a last minute decision to attend a family member's birthday party.The hotel was close and gave a discount to us as a group.More</t>
   </si>
   <si>
+    <t>ndgarza12</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r170520038-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1215,6 +1341,9 @@
     <t>I arrived really late and the receptionist was super nice. I was really tired but the room was the perfect haven to get some rest. Breakfast in the morning was also a delight!! It was a plus that this hotel was pet friendly. I would definitely stay again or recommend it to anyone!More</t>
   </si>
   <si>
+    <t>Tallgrass05</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r159344822-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1236,6 +1365,9 @@
     <t>I've stayed here several times when visiting family in the area, and stayed most recently for two nights in April 2013. The location is convenient to I-30, with the downside being there is usually constant traffic noise from the highway. Renovations continue. The good--big spacious bathrooms, very firm and comfortable king beds, decent price.The bad--highway noise, bed pillows are way too soft and provide no support.More</t>
   </si>
   <si>
+    <t>alison_c1304</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r154591512-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1257,6 +1389,9 @@
     <t>Be warned this hotel is being renovated.  I wish it had been noted on the website.  We would have selected a different hotel.  The fresh paint smell was very over whelming.  We ended up sleeping with the window open trying to get some fresh air in the room.  I will say that the painter/carpenters were very pleasant and respectful of our hours.  They worked a little later in the evening and didn't start on our floor until probably after 8.  They are making a lot of changes and updates.  I hope carpet replacement is on the list.  All that being said, the staff was very friendly and breakfast was hot a plentiful even at 8:30.  We will definitely consider this hotel in the future.More</t>
   </si>
   <si>
+    <t>Tighedog</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r153679744-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1275,6 +1410,9 @@
     <t>One of the best in the Choice Hotel chain. This one is currently being renovated but even with that the staff outperforms many others.  Truly a gem, thanks to the management staff for helping out to overcome some obstacles created by the renovation.  We will be back. More</t>
   </si>
   <si>
+    <t>Teebelle M</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r152056449-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1296,6 +1434,9 @@
     <t>Throughout our stay the personnel were very courteous and eager to please, always wearing smiles.  Everyone is neatly dressed and well pressed, showing pride in their appearance and in their jobs.  Our room was very clean and smelled wonderful.  The breakfast area was very clean and hot foods were plentiful, such a great assortment to choose from. We were in the area searching for a new home.  One was found and we required assistance to complete our purchase which they eagerly provided: high-speed internet access, printing and faxing services, even an envelope to mail executed documents.  We are platinum elite members of Comfort Suites and find this is definitely one of their fine locations.  Although we stay at Comfort Suites often, this is our first review.  Many thanks to the staff for an excellent job.More</t>
   </si>
   <si>
+    <t>reneein2art</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r150089147-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1353,6 +1494,9 @@
     <t>We stayed for the week while visiting family close by. The hotel was clean and has a caring staff.  A couple of times we pointed out small maintenance concerns, the one the could respond to right away was taken care of, however the other one will take some scheduling.  The room was comfortable, right down to having pillows a stomach sleeper can be comfortable with.  The room was spacious and worked well for us while traveling with our 2 small dogs.  Did I mention this is a pet friendly hotel?  The breakfast is your standard continental affair, nothing outstanding.  They have an outdoor pool, however with our winter stay and having colder weather we did not use it, it is well kept but a little noisy since it's exposure is right to the highway.  With all that said we plan to be back in the area, and with many hotels to choose from, we will stay here again.More</t>
   </si>
   <si>
+    <t>posey2000</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r139982911-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1380,6 +1524,9 @@
     <t>Spent the weekend at this wonderful lake front hotel with my girlfriend, the whole staff was more than pleasant and helpful, the room was very clean, the bed and pillows nice and comfortable. My first time staying in Rowlett but its won't be my last. Chet the front desk manager was great, and provided me with an excellent lake front view. Really enjoyed the visit to this town and near by Garland and Rockwall. Come and enjoy a great weekend get away at a reasonable price.More</t>
   </si>
   <si>
+    <t>Abbigale E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133879625-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1398,6 +1545,9 @@
     <t>This hotel was SO dirty. I had my 7 month old daughter and my dog with me. Stains on carpet in entry as well as hallways and room. My first room, the couch cushions were on the floor and the bed was folded out. Found out it was broken. Moved to second room, pulled the comforter back to find yellow, brown and red stains all over the sheets. Asked to have a third room that was actually clean and I was given a room that smelled like an ashtray. I asked for a refund. The lady at the front desk, Jazmin, was very nice and helped me very much throughout this horrible process. We stay at comfort suites because they are always clean. I think we will stay at Hilton's from now on. More</t>
   </si>
   <si>
+    <t>travelcurrent</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133514438-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1425,6 +1575,9 @@
     <t>Not a fancy hotel but it is a decent place to stay if you just need somewhere to sleep. I have stayed here a few different times. The bed is comfortable and room is clean. The furniture and bathroom in the room are beginning to look a little worn (broken tile and a sad looking sleeper sofa). The hotel is right off I30 and Lake Ray Hubbard which makes this hotel very convenient.More</t>
   </si>
   <si>
+    <t>Jule J</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133359436-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1446,6 +1599,9 @@
     <t>We were visiting family, and this hotel is close to our family.  Have stayed here several times.  Good rate.  Spoke with manager about the INCENSE smell in the elevator, and the gentlemen smoking the HOOKA by the pool.  He, of course cannot control his guests.More</t>
   </si>
   <si>
+    <t>jhth1234</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r131708290-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1488,6 +1644,9 @@
     <t>While visiting family in Texas, we stayed a night at Comfort Suites (since their guest room was being renovated).This hotel is average by all standards - from the room to the cleanliness to the breakfast buffet. It's right down the street from our family, which is why we selected it. The good news is I was able to get a room for $64 through the Priceline.com "Name your own price" feature. Otherwise a room was advertised on Comfort Suites' site at $80 a night. There certainly aren't any frills, but it's a fine place to stay for a night. Will we stay there again if we need a hotel in Rowlett? Sure!More</t>
   </si>
   <si>
+    <t>ESFord2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r119919904-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1509,6 +1668,9 @@
     <t>The hotel is in the process of being upgraded, bathrooms mainly from what I can tell. My wife would come back, which says alot. If it were at all unacceptable, she would not return. The rooms were comfortable. We had a view of the lake from our room. The staff was friendly both times we have stayed there. Will definately be staying there in the future.More</t>
   </si>
   <si>
+    <t>LMill2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r119232346-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1530,6 +1692,9 @@
     <t>HORRIBLE EXPERIENCE! The pictures on the website (above) are so nice ... wish I would have experienced "that" hotel. We stayed here for a few days while in town - upon arrival (about 11pm) we noticed that the side doors were unlocked ... that’s ok during the day but at 11pm on a Saturday night just off the highway?? Trash and food littered the hallways .... told the desk clerk the following morning about the filth and 24 hours later all of the debris was still in the hallways. Our room was missing the tv remote and seemed to have barely been cleaned before checking in. We put a sign on the door to please clean the room on day 2 - this never happen. In fact we asked the front desk to please have the room cleaned while we would be gone for the day - were assured this would be done ... upon returning to the room five hours later the room was still dirty. We travel a lot (family all around the country) and I have never – ever – experience a hotel so terrible. If you can stay somewhere else then we STRONGLY advise you do so. We have stayed at the LaQuinta in Rockwall several times and always had a very positive experience. I regret not having stayed there this past trip. Live and learn …..More</t>
   </si>
   <si>
+    <t>Hiker-Traveler-Skier</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r115444624-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1551,6 +1716,9 @@
     <t>The Hotel is located on 8701 E Interstate I-30 in Rowlett, Texas. As such it is easy to find/locate. However, being next to the highway made this stay noisy with traffic. The room was comforatable and the AC worked great (very hot and humid outside). The staff was friendly and helpful (provided information &amp; location of places to eat and visit). We were on the 2nd floor where the ice maker was not working (had to go to the 1st floor for this). Needed to use the hotel computer (separate room for quests). Computer was very slow and had some kind of virus rendering it useless. Advised the front desk. They stated they would look into this - but was not operational by the time we left (3 nights). Did not use the pool - so no comment on this. Not may services (shopping or dining) near the hotel. You need to go into the town of Rowlett for this, which is 10 minutes travel from the hotel. Would stay here again if no other choices are available.More</t>
   </si>
   <si>
+    <t>texaswillie</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r83206506-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1572,6 +1740,9 @@
     <t>This Comfort Suites is beginning to reflect its age. The lobby and dining areas were clean when we entered the hotel The hotel desk clerk had difficulty with the computer during the check in. She remarkd this happens quite often. The parking lot could have used some "litter pickup".The room was large---contray to their ads, this is not a suite but rather a large room. The decorations are dated and need to be updated. The old TV set (tube type) had apparently been dropped and the entire top left of the case was broken. The TV however sitll worked. The picture was not all that great mainly due to the age of the TV. The airconditioning worked great. There was some mold around the bath tub and this is just due to poor cleaning. The wallpaper and borders are in bad need of updating. The carpet was fairly clean as was the bathroom floor. There are ample towels and washclothes , however a "cutsy" little remainer that their towels are an often sought items and were for sale. I would not want to pay $15.00 for a well worn towel.We had to leave the next morning before breakfast so we can't comment on the breakfast. We received our bill for the stay and there was added $1.00 for the room safe. At no time were we advised there was a room safe and there would be a charge for it....This Comfort Suites is beginning to reflect its age. The lobby and dining areas were clean when we entered the hotel The hotel desk clerk had difficulty with the computer during the check in. She remarkd this happens quite often. The parking lot could have used some "litter pickup".The room was large---contray to their ads, this is not a suite but rather a large room. The decorations are dated and need to be updated. The old TV set (tube type) had apparently been dropped and the entire top left of the case was broken. The TV however sitll worked. The picture was not all that great mainly due to the age of the TV. The airconditioning worked great. There was some mold around the bath tub and this is just due to poor cleaning. The wallpaper and borders are in bad need of updating. The carpet was fairly clean as was the bathroom floor. There are ample towels and washclothes , however a "cutsy" little remainer that their towels are an often sought items and were for sale. I would not want to pay $15.00 for a well worn towel.We had to leave the next morning before breakfast so we can't comment on the breakfast. We received our bill for the stay and there was added $1.00 for the room safe. At no time were we advised there was a room safe and there would be a charge for it. We had no use for the safe on this stay. Just another one of those annoying extra charges that we should have checked pout at the time we checked in.More</t>
   </si>
   <si>
+    <t>miquant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r49862080-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1590,6 +1761,9 @@
     <t>November 2009</t>
   </si>
   <si>
+    <t>IAMplanthugger</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r24284721-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1608,6 +1782,9 @@
     <t>January 2009</t>
   </si>
   <si>
+    <t>ldygant</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r18849337-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1629,6 +1806,9 @@
     <t>Ok I must admit,,, I was a little upset because I had booked three nights and had a confirmation but when I arrived they only had me down for one. I was there for a wedding and supposedly there was another wedding (other than the one I was attending) that was scheduled therefore the rooms were booked. When I explained to the manager my issue, they researched it and confirmed that I did infact book three nights and for my inconvinence they were able to salvage an additional night for me and even included it for free!!!! The hotel staff were extremely nice and helpful. I was always met with a smile when I went to either the front desk or the dining area. The breakfast was more than sufficent each morning we were there and the bed was clean and comfortable. The attendants were helpful in making sure we were provided with clean linen and towels.  The only complaint is that I still didnt get my third night but they did all they could to rectify the situation. I would stay again.More</t>
   </si>
   <si>
+    <t>NashGal</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r16722200-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1647,6 +1827,9 @@
     <t>May 2008</t>
   </si>
   <si>
+    <t>roadwarrior130</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r8111025-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1668,6 +1851,9 @@
     <t>We stayed here during the July 4 holiday, and had a wonderful time. As soon as we got to our room on the 2nd floor, we knew we had made a great choice - it was huge, and had a beautiful view of the lake. Breakfast included scrambled eggs, ham, blueberry muffins and gourmet coffee - delicious! The kids enjoyed swimming in the outdoor pool when it got real hot in the afternoon.One of the highlights of our stay was a spectacular fireworks show launched right over the lake, which we could watch from the window of our hotel room. The staff was very nice and friendly, and they helped me with printing some documents on my computer. The only negative thing was that the ice machine on our floor was not working, so I had to go to another floor to get ice. We will definitely stay here again.More</t>
   </si>
   <si>
+    <t>wearytraveler07</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r8072079-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1683,6 +1869,9 @@
     <t>This is a horribly maintained facility. Old, limp, dingy and torn towels, ripped bed skirt, sheets that look like they've been slept in already. Other areas of the hotel are dirty and unkempt. Carpets in halls dirty and torn, chairs in breakfast area stained and dirty. Management should feel ashamed, as the actual furnishings in the rooms are more than adequate and this could actually be an excellent accommodation if they replaced towels, bed linens, bedspreads ... and did some very serious house-cleaning!!! Never again for us, NEVER!  In fact, we booked for two nights and stayed only one ... one too many!</t>
   </si>
   <si>
+    <t>Shell71Friendswood</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r7868339-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1704,6 +1893,9 @@
     <t>Checked in on a Thursday for a family graduation (3 rooms of family) - 6 kids excited about swimming - well...told "pool broken - gate latch not up to code will be fixed Friday" - Friday my sister told "pump problem" - so we figured they were lying - they finally admitted "pool just not cleaned for season" - Saturday morning - my Dad saw a pool guy cleaning pool - A HOTEL GUEST PAID TO HAVE IT CLEANED so her grandkids could swim...the pool guy said - "this hotel will not pay for pool to be cleaned or even mow their lawn" - we can tell...also - our lock on room broken whole weekend - had to have manager come open with a coat hangar and string everytime we entered the room ("no other room to give us")...owner really needs to keep up with maintaining this hotel...so many guests were screaming at manager...and don't advertise a pool - if you don't keep up with it - and it is solid green!   New Hilton coming soon to this lake...that is where we will be next time!  Be warned!More</t>
   </si>
   <si>
+    <t>trixie11</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r6552716-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1722,6 +1914,9 @@
     <t>December 2006</t>
   </si>
   <si>
+    <t>AUTUMNSUN</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r5602122-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1743,6 +1938,9 @@
     <t>I picked this hotel because it was a good midway point to stop at on our trip. Also it was easy to get in and out of versus going into busy Dallas for the night. First off it was clean! Rare now a days in hotels. It seems to be family owned and run . This might explain why everyone was so friendly and the place well run. They were on top of things. The room was big and nicely decorated. Everything looked new. The beds felt like they had an eggcrate mattress top. I slept fine. I payed and extra $10.00 dollars a night for a room with a jacuzzi tub in the bathroom. MY kids enjoyed it. LOL! It was very loud though. I was worried it was going to wake up the whole hotel. We arrived at 9:30 at night and my kids wanted to go swimming. By the time we got down to the pool it was 10:00 and thats when it closes. They were nice enough to leave it open so my children could swim for 30 minutes. (quietly of course) The breakfast in the morning had your tipical continental fare but also included scrambled eggs, hotdogs and waffles. Yes I said hot dogs. I dont know if they ran out of sausage or what but they had hotdogs cooked and sliced up in a warmer. The eggs looked yucky as well. The highlite was...I picked this hotel because it was a good midway point to stop at on our trip. Also it was easy to get in and out of versus going into busy Dallas for the night. First off it was clean! Rare now a days in hotels. It seems to be family owned and run . This might explain why everyone was so friendly and the place well run. They were on top of things. The room was big and nicely decorated. Everything looked new. The beds felt like they had an eggcrate mattress top. I slept fine. I payed and extra $10.00 dollars a night for a room with a jacuzzi tub in the bathroom. MY kids enjoyed it. LOL! It was very loud though. I was worried it was going to wake up the whole hotel. We arrived at 9:30 at night and my kids wanted to go swimming. By the time we got down to the pool it was 10:00 and thats when it closes. They were nice enough to leave it open so my children could swim for 30 minutes. (quietly of course) The breakfast in the morning had your tipical continental fare but also included scrambled eggs, hotdogs and waffles. Yes I said hot dogs. I dont know if they ran out of sausage or what but they had hotdogs cooked and sliced up in a warmer. The eggs looked yucky as well. The highlite was the belgian waffles. They had a waffle maker and pre-measured cups with batter and you made them fresh your-self. It was good! I was happy with my choice of hotels and would gladly stay here again!More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r3426019-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1761,6 +1959,9 @@
     <t>April 2005</t>
   </si>
   <si>
+    <t>zina</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r2999280-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1779,6 +1980,9 @@
     <t>We stayed here for one night and thoroghly enjoyed our room.  We stayed here New Year's Eve and took advantage of all the amenities.  We had  king bed with sleeper sofa, jacuzzi tub, cont breakfast and found the room to be great.  There was plenty of room to move around.  The bathroom was large and the jacuzzi was great.  The room had a ceiling fan above the bed which was quiet and moved that Texas air around.  The breakfast was quite nice...standard continental fare plus a waffle making station-it was yummy.  The manager on duty was pretty much taking care of everything and seemed to do a great job at it.  We would stay here again-nice location, comfy beds and roomy rooms.More</t>
   </si>
   <si>
+    <t>Henryetta F</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r579097800-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1797,6 +2001,9 @@
     <t>May 2018</t>
   </si>
   <si>
+    <t>Summer D</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r549620400-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1815,6 +2022,9 @@
     <t>December 2017</t>
   </si>
   <si>
+    <t>373janiez</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r543819159-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1833,6 +2043,9 @@
     <t>November 2017</t>
   </si>
   <si>
+    <t>Sage2724</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541647396-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1846,6 +2059,9 @@
   </si>
   <si>
     <t>We stayed here for 6 nights. There is great free parking. It is easily accessible . The staff were so helpful and friendly. Our room was immaculately clean, bed comfortable , linen fresh . The washing machine and dryer are great. Breakfast was simple and very tasty. Some  reviews have not been good but our experience was very good .</t>
+  </si>
+  <si>
+    <t>Gladwin G</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541028215-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -2366,43 +2582,47 @@
       <c r="A2" t="n">
         <v>41069</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>15820</v>
+      </c>
+      <c r="C2" t="s">
+        <v>43</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="G2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="J2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="M2" t="n">
         <v>5</v>
       </c>
       <c r="N2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="O2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -2420,50 +2640,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41069</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>125508</v>
+      </c>
+      <c r="C3" t="s">
+        <v>54</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="G3" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="J3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="L3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2477,50 +2701,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41069</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>125509</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="G4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O4" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2534,50 +2762,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41069</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>125510</v>
+      </c>
+      <c r="C5" t="s">
+        <v>70</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="G5" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="O5" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P5" t="n">
         <v>2</v>
@@ -2597,41 +2829,45 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41069</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>12584</v>
+      </c>
+      <c r="C6" t="s">
+        <v>77</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="G6" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>74</v>
+        <v>79</v>
       </c>
       <c r="J6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="K6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="L6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
@@ -2650,50 +2886,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41069</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>125511</v>
+      </c>
+      <c r="C7" t="s">
+        <v>84</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I7" t="s">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="J7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="K7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="L7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="M7" t="n">
         <v>3</v>
       </c>
       <c r="N7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2707,50 +2947,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41069</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>125512</v>
+      </c>
+      <c r="C8" t="s">
+        <v>92</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
-        <v>86</v>
+        <v>93</v>
       </c>
       <c r="G8" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
         <v>87</v>
       </c>
-      <c r="J8" t="s">
-        <v>81</v>
-      </c>
       <c r="K8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="L8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
       </c>
       <c r="N8" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -2764,50 +3008,54 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41069</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>125513</v>
+      </c>
+      <c r="C9" t="s">
+        <v>97</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="G9" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>91</v>
+        <v>99</v>
       </c>
       <c r="J9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="K9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="L9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="M9" t="n">
         <v>5</v>
       </c>
       <c r="N9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="O9" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2821,50 +3069,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41069</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>42697</v>
+      </c>
+      <c r="C10" t="s">
+        <v>104</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>96</v>
+        <v>105</v>
       </c>
       <c r="G10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>97</v>
+        <v>106</v>
       </c>
       <c r="J10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="K10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="L10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="M10" t="n">
         <v>4</v>
       </c>
       <c r="N10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="O10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -2884,50 +3136,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41069</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>5914</v>
+      </c>
+      <c r="C11" t="s">
+        <v>111</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>112</v>
       </c>
       <c r="G11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>103</v>
+        <v>113</v>
       </c>
       <c r="J11" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="K11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="L11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="M11" t="n">
         <v>4</v>
       </c>
       <c r="N11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P11" t="s"/>
       <c r="Q11" t="n">
@@ -2943,56 +3199,60 @@
         <v>0</v>
       </c>
       <c r="W11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="X11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="Y11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41069</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>125514</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>2</v>
       </c>
       <c r="N12" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O12" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P12" t="n">
         <v>2</v>
@@ -3008,56 +3268,60 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="X12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="Y12" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41069</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>125515</v>
+      </c>
+      <c r="C13" t="s">
+        <v>130</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="G13" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>120</v>
+        <v>132</v>
       </c>
       <c r="J13" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="K13" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="L13" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="M13" t="n">
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="O13" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P13" t="s"/>
       <c r="Q13" t="n">
@@ -3075,56 +3339,60 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="X13" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="Y13" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41069</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>125516</v>
+      </c>
+      <c r="C14" t="s">
+        <v>139</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J14" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K14" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L14" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="O14" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3136,56 +3404,60 @@
         <v>0</v>
       </c>
       <c r="W14" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="X14" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="Y14" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41069</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>2524</v>
+      </c>
+      <c r="C15" t="s">
+        <v>150</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>137</v>
+        <v>151</v>
       </c>
       <c r="G15" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="J15" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="K15" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="L15" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="M15" t="n">
         <v>4</v>
       </c>
       <c r="N15" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="O15" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3197,56 +3469,60 @@
         <v>0</v>
       </c>
       <c r="W15" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="X15" t="s">
-        <v>144</v>
+        <v>158</v>
       </c>
       <c r="Y15" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41069</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>125517</v>
+      </c>
+      <c r="C16" t="s">
+        <v>160</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="G16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="J16" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="K16" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="L16" t="s">
-        <v>150</v>
+        <v>165</v>
       </c>
       <c r="M16" t="n">
         <v>1</v>
       </c>
       <c r="N16" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P16" t="s"/>
       <c r="Q16" t="s"/>
@@ -3258,56 +3534,60 @@
         <v>0</v>
       </c>
       <c r="W16" t="s">
-        <v>152</v>
+        <v>167</v>
       </c>
       <c r="X16" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41069</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>125518</v>
+      </c>
+      <c r="C17" t="s">
+        <v>170</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
       <c r="G17" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>172</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>151</v>
+        <v>166</v>
       </c>
       <c r="O17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P17" t="s"/>
       <c r="Q17" t="s"/>
@@ -3319,56 +3599,60 @@
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="X17" t="s">
-        <v>161</v>
+        <v>177</v>
       </c>
       <c r="Y17" t="s">
-        <v>162</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41069</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>125519</v>
+      </c>
+      <c r="C18" t="s">
+        <v>179</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>163</v>
+        <v>180</v>
       </c>
       <c r="G18" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>164</v>
+        <v>181</v>
       </c>
       <c r="J18" t="s">
-        <v>165</v>
+        <v>182</v>
       </c>
       <c r="K18" t="s">
-        <v>166</v>
+        <v>183</v>
       </c>
       <c r="L18" t="s">
-        <v>167</v>
+        <v>184</v>
       </c>
       <c r="M18" t="n">
         <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>168</v>
+        <v>185</v>
       </c>
       <c r="O18" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -3386,56 +3670,60 @@
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>169</v>
+        <v>186</v>
       </c>
       <c r="X18" t="s">
-        <v>170</v>
+        <v>187</v>
       </c>
       <c r="Y18" t="s">
-        <v>171</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41069</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>125520</v>
+      </c>
+      <c r="C19" t="s">
+        <v>189</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>172</v>
+        <v>190</v>
       </c>
       <c r="G19" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>173</v>
+        <v>191</v>
       </c>
       <c r="J19" t="s">
-        <v>174</v>
+        <v>192</v>
       </c>
       <c r="K19" t="s">
-        <v>175</v>
+        <v>193</v>
       </c>
       <c r="L19" t="s">
-        <v>176</v>
+        <v>194</v>
       </c>
       <c r="M19" t="n">
         <v>5</v>
       </c>
       <c r="N19" t="s">
-        <v>177</v>
+        <v>195</v>
       </c>
       <c r="O19" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
@@ -3453,56 +3741,60 @@
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>178</v>
+        <v>196</v>
       </c>
       <c r="X19" t="s">
-        <v>179</v>
+        <v>197</v>
       </c>
       <c r="Y19" t="s">
-        <v>180</v>
+        <v>198</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41069</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>2984</v>
+      </c>
+      <c r="C20" t="s">
+        <v>199</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>181</v>
+        <v>200</v>
       </c>
       <c r="G20" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>182</v>
+        <v>201</v>
       </c>
       <c r="J20" t="s">
-        <v>183</v>
+        <v>202</v>
       </c>
       <c r="K20" t="s">
-        <v>184</v>
+        <v>203</v>
       </c>
       <c r="L20" t="s">
-        <v>185</v>
+        <v>204</v>
       </c>
       <c r="M20" t="n">
         <v>4</v>
       </c>
       <c r="N20" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O20" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -3520,56 +3812,60 @@
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>187</v>
+        <v>206</v>
       </c>
       <c r="X20" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="Y20" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41069</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>125521</v>
+      </c>
+      <c r="C21" t="s">
+        <v>209</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>190</v>
+        <v>210</v>
       </c>
       <c r="G21" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="J21" t="s">
-        <v>192</v>
+        <v>212</v>
       </c>
       <c r="K21" t="s">
-        <v>193</v>
+        <v>213</v>
       </c>
       <c r="L21" t="s">
-        <v>194</v>
+        <v>214</v>
       </c>
       <c r="M21" t="n">
         <v>5</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
@@ -3585,56 +3881,60 @@
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>195</v>
+        <v>215</v>
       </c>
       <c r="X21" t="s">
-        <v>196</v>
+        <v>216</v>
       </c>
       <c r="Y21" t="s">
-        <v>197</v>
+        <v>217</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41069</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>125522</v>
+      </c>
+      <c r="C22" t="s">
+        <v>218</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>198</v>
+        <v>219</v>
       </c>
       <c r="G22" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>199</v>
+        <v>220</v>
       </c>
       <c r="J22" t="s">
-        <v>200</v>
+        <v>221</v>
       </c>
       <c r="K22" t="s">
-        <v>201</v>
+        <v>222</v>
       </c>
       <c r="L22" t="s">
-        <v>202</v>
+        <v>223</v>
       </c>
       <c r="M22" t="n">
         <v>3</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>205</v>
       </c>
       <c r="O22" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3652,56 +3952,60 @@
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>203</v>
+        <v>224</v>
       </c>
       <c r="X22" t="s">
-        <v>204</v>
+        <v>225</v>
       </c>
       <c r="Y22" t="s">
-        <v>205</v>
+        <v>226</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41069</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>125523</v>
+      </c>
+      <c r="C23" t="s">
+        <v>227</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>206</v>
+        <v>228</v>
       </c>
       <c r="G23" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>207</v>
+        <v>229</v>
       </c>
       <c r="J23" t="s">
-        <v>208</v>
+        <v>230</v>
       </c>
       <c r="K23" t="s">
-        <v>209</v>
+        <v>231</v>
       </c>
       <c r="L23" t="s">
-        <v>210</v>
+        <v>232</v>
       </c>
       <c r="M23" t="n">
         <v>1</v>
       </c>
       <c r="N23" t="s">
-        <v>211</v>
+        <v>233</v>
       </c>
       <c r="O23" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="P23" t="s"/>
       <c r="Q23" t="n">
@@ -3719,56 +4023,60 @@
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>213</v>
+        <v>235</v>
       </c>
       <c r="X23" t="s">
-        <v>214</v>
+        <v>236</v>
       </c>
       <c r="Y23" t="s">
-        <v>215</v>
+        <v>237</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41069</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>17281</v>
+      </c>
+      <c r="C24" t="s">
+        <v>238</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>216</v>
+        <v>239</v>
       </c>
       <c r="G24" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>217</v>
+        <v>240</v>
       </c>
       <c r="J24" t="s">
-        <v>218</v>
+        <v>241</v>
       </c>
       <c r="K24" t="s">
-        <v>219</v>
+        <v>242</v>
       </c>
       <c r="L24" t="s">
-        <v>220</v>
+        <v>243</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O24" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P24" t="n">
         <v>4</v>
@@ -3786,13 +4094,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="X24" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Y24" t="s">
-        <v>224</v>
+        <v>247</v>
       </c>
     </row>
     <row r="25">
@@ -3805,37 +4113,37 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>225</v>
+        <v>248</v>
       </c>
       <c r="G25" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>226</v>
+        <v>249</v>
       </c>
       <c r="J25" t="s">
-        <v>227</v>
+        <v>250</v>
       </c>
       <c r="K25" t="s">
-        <v>228</v>
+        <v>251</v>
       </c>
       <c r="L25" t="s">
-        <v>229</v>
+        <v>252</v>
       </c>
       <c r="M25" t="n">
         <v>2</v>
       </c>
       <c r="N25" t="s">
-        <v>230</v>
+        <v>253</v>
       </c>
       <c r="O25" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P25" t="s"/>
       <c r="Q25" t="s"/>
@@ -3847,56 +4155,60 @@
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>222</v>
+        <v>245</v>
       </c>
       <c r="X25" t="s">
-        <v>223</v>
+        <v>246</v>
       </c>
       <c r="Y25" t="s">
-        <v>231</v>
+        <v>254</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41069</v>
       </c>
-      <c r="B26" t="s"/>
-      <c r="C26" t="s"/>
+      <c r="B26" t="n">
+        <v>3101</v>
+      </c>
+      <c r="C26" t="s">
+        <v>255</v>
+      </c>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>232</v>
+        <v>256</v>
       </c>
       <c r="G26" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H26" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>233</v>
+        <v>257</v>
       </c>
       <c r="J26" t="s">
-        <v>234</v>
+        <v>258</v>
       </c>
       <c r="K26" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="L26" t="s">
-        <v>236</v>
+        <v>260</v>
       </c>
       <c r="M26" t="n">
         <v>5</v>
       </c>
       <c r="N26" t="s">
-        <v>237</v>
+        <v>261</v>
       </c>
       <c r="O26" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P26" t="s"/>
       <c r="Q26" t="n">
@@ -3914,56 +4226,60 @@
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>238</v>
+        <v>262</v>
       </c>
       <c r="X26" t="s">
-        <v>239</v>
+        <v>263</v>
       </c>
       <c r="Y26" t="s">
-        <v>240</v>
+        <v>264</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41069</v>
       </c>
-      <c r="B27" t="s"/>
-      <c r="C27" t="s"/>
+      <c r="B27" t="n">
+        <v>125524</v>
+      </c>
+      <c r="C27" t="s">
+        <v>265</v>
+      </c>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>241</v>
+        <v>266</v>
       </c>
       <c r="G27" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H27" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>242</v>
+        <v>267</v>
       </c>
       <c r="J27" t="s">
-        <v>243</v>
+        <v>268</v>
       </c>
       <c r="K27" t="s">
-        <v>244</v>
+        <v>269</v>
       </c>
       <c r="L27" t="s">
-        <v>245</v>
+        <v>270</v>
       </c>
       <c r="M27" t="n">
         <v>4</v>
       </c>
       <c r="N27" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O27" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
@@ -3975,56 +4291,60 @@
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X27" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y27" t="s">
-        <v>249</v>
+        <v>274</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41069</v>
       </c>
-      <c r="B28" t="s"/>
-      <c r="C28" t="s"/>
+      <c r="B28" t="n">
+        <v>111626</v>
+      </c>
+      <c r="C28" t="s">
+        <v>275</v>
+      </c>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>250</v>
+        <v>276</v>
       </c>
       <c r="G28" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H28" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>251</v>
+        <v>277</v>
       </c>
       <c r="J28" t="s">
-        <v>252</v>
+        <v>278</v>
       </c>
       <c r="K28" t="s">
-        <v>253</v>
+        <v>279</v>
       </c>
       <c r="L28" t="s">
-        <v>254</v>
+        <v>280</v>
       </c>
       <c r="M28" t="n">
         <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O28" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
@@ -4042,56 +4362,60 @@
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>247</v>
+        <v>272</v>
       </c>
       <c r="X28" t="s">
-        <v>248</v>
+        <v>273</v>
       </c>
       <c r="Y28" t="s">
-        <v>255</v>
+        <v>281</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41069</v>
       </c>
-      <c r="B29" t="s"/>
-      <c r="C29" t="s"/>
+      <c r="B29" t="n">
+        <v>125525</v>
+      </c>
+      <c r="C29" t="s">
+        <v>282</v>
+      </c>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>256</v>
+        <v>283</v>
       </c>
       <c r="G29" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H29" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>257</v>
+        <v>284</v>
       </c>
       <c r="J29" t="s">
-        <v>258</v>
+        <v>285</v>
       </c>
       <c r="K29" t="s">
-        <v>259</v>
+        <v>286</v>
       </c>
       <c r="L29" t="s">
-        <v>260</v>
+        <v>287</v>
       </c>
       <c r="M29" t="n">
         <v>3</v>
       </c>
       <c r="N29" t="s">
-        <v>221</v>
+        <v>244</v>
       </c>
       <c r="O29" t="s">
-        <v>261</v>
+        <v>288</v>
       </c>
       <c r="P29" t="s"/>
       <c r="Q29" t="s"/>
@@ -4103,56 +4427,60 @@
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>262</v>
+        <v>289</v>
       </c>
       <c r="X29" t="s">
-        <v>263</v>
+        <v>290</v>
       </c>
       <c r="Y29" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41069</v>
       </c>
-      <c r="B30" t="s"/>
-      <c r="C30" t="s"/>
+      <c r="B30" t="n">
+        <v>125526</v>
+      </c>
+      <c r="C30" t="s">
+        <v>292</v>
+      </c>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>265</v>
+        <v>293</v>
       </c>
       <c r="G30" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H30" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>266</v>
+        <v>294</v>
       </c>
       <c r="J30" t="s">
-        <v>267</v>
+        <v>295</v>
       </c>
       <c r="K30" t="s">
-        <v>268</v>
+        <v>296</v>
       </c>
       <c r="L30" t="s">
-        <v>269</v>
+        <v>297</v>
       </c>
       <c r="M30" t="n">
         <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>270</v>
+        <v>298</v>
       </c>
       <c r="O30" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
@@ -4168,56 +4496,60 @@
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>271</v>
+        <v>299</v>
       </c>
       <c r="X30" t="s">
-        <v>272</v>
+        <v>300</v>
       </c>
       <c r="Y30" t="s">
-        <v>273</v>
+        <v>301</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41069</v>
       </c>
-      <c r="B31" t="s"/>
-      <c r="C31" t="s"/>
+      <c r="B31" t="n">
+        <v>125527</v>
+      </c>
+      <c r="C31" t="s">
+        <v>302</v>
+      </c>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>274</v>
+        <v>303</v>
       </c>
       <c r="G31" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H31" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>275</v>
+        <v>304</v>
       </c>
       <c r="J31" t="s">
-        <v>276</v>
+        <v>305</v>
       </c>
       <c r="K31" t="s">
-        <v>277</v>
+        <v>306</v>
       </c>
       <c r="L31" t="s">
-        <v>278</v>
+        <v>307</v>
       </c>
       <c r="M31" t="n">
         <v>4</v>
       </c>
       <c r="N31" t="s">
-        <v>246</v>
+        <v>271</v>
       </c>
       <c r="O31" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P31" t="n">
         <v>4</v>
@@ -4235,47 +4567,51 @@
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>279</v>
+        <v>308</v>
       </c>
       <c r="X31" t="s">
-        <v>280</v>
+        <v>309</v>
       </c>
       <c r="Y31" t="s">
-        <v>281</v>
+        <v>310</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41069</v>
       </c>
-      <c r="B32" t="s"/>
-      <c r="C32" t="s"/>
+      <c r="B32" t="n">
+        <v>125528</v>
+      </c>
+      <c r="C32" t="s">
+        <v>311</v>
+      </c>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>282</v>
+        <v>312</v>
       </c>
       <c r="G32" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H32" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>283</v>
+        <v>313</v>
       </c>
       <c r="J32" t="s">
-        <v>284</v>
+        <v>314</v>
       </c>
       <c r="K32" t="s">
-        <v>285</v>
+        <v>315</v>
       </c>
       <c r="L32" t="s">
-        <v>286</v>
+        <v>316</v>
       </c>
       <c r="M32" t="n">
         <v>1</v>
@@ -4292,56 +4628,60 @@
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>287</v>
+        <v>317</v>
       </c>
       <c r="X32" t="s">
-        <v>288</v>
+        <v>318</v>
       </c>
       <c r="Y32" t="s">
-        <v>289</v>
+        <v>319</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41069</v>
       </c>
-      <c r="B33" t="s"/>
-      <c r="C33" t="s"/>
+      <c r="B33" t="n">
+        <v>125529</v>
+      </c>
+      <c r="C33" t="s">
+        <v>320</v>
+      </c>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>290</v>
+        <v>321</v>
       </c>
       <c r="G33" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H33" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I33" t="s">
-        <v>291</v>
+        <v>322</v>
       </c>
       <c r="J33" t="s">
-        <v>292</v>
+        <v>323</v>
       </c>
       <c r="K33" t="s">
-        <v>293</v>
+        <v>324</v>
       </c>
       <c r="L33" t="s">
-        <v>294</v>
+        <v>325</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>295</v>
+        <v>326</v>
       </c>
       <c r="O33" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4353,56 +4693,60 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>296</v>
+        <v>327</v>
       </c>
       <c r="X33" t="s">
-        <v>297</v>
+        <v>328</v>
       </c>
       <c r="Y33" t="s">
-        <v>298</v>
+        <v>329</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41069</v>
       </c>
-      <c r="B34" t="s"/>
-      <c r="C34" t="s"/>
+      <c r="B34" t="n">
+        <v>125530</v>
+      </c>
+      <c r="C34" t="s">
+        <v>330</v>
+      </c>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>299</v>
+        <v>331</v>
       </c>
       <c r="G34" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>300</v>
+        <v>332</v>
       </c>
       <c r="J34" t="s">
-        <v>301</v>
+        <v>333</v>
       </c>
       <c r="K34" t="s">
-        <v>302</v>
+        <v>334</v>
       </c>
       <c r="L34" t="s">
-        <v>303</v>
+        <v>335</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>304</v>
+        <v>336</v>
       </c>
       <c r="O34" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
@@ -4418,56 +4762,60 @@
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>305</v>
+        <v>337</v>
       </c>
       <c r="X34" t="s">
-        <v>306</v>
+        <v>338</v>
       </c>
       <c r="Y34" t="s">
-        <v>307</v>
+        <v>339</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41069</v>
       </c>
-      <c r="B35" t="s"/>
-      <c r="C35" t="s"/>
+      <c r="B35" t="n">
+        <v>125531</v>
+      </c>
+      <c r="C35" t="s">
+        <v>340</v>
+      </c>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>308</v>
+        <v>341</v>
       </c>
       <c r="G35" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H35" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>309</v>
+        <v>342</v>
       </c>
       <c r="J35" t="s">
-        <v>310</v>
+        <v>343</v>
       </c>
       <c r="K35" t="s">
-        <v>311</v>
+        <v>344</v>
       </c>
       <c r="L35" t="s">
-        <v>312</v>
+        <v>345</v>
       </c>
       <c r="M35" t="n">
         <v>4</v>
       </c>
       <c r="N35" t="s">
-        <v>313</v>
+        <v>346</v>
       </c>
       <c r="O35" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="n">
@@ -4483,56 +4831,60 @@
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>314</v>
+        <v>347</v>
       </c>
       <c r="X35" t="s">
-        <v>315</v>
+        <v>348</v>
       </c>
       <c r="Y35" t="s">
-        <v>316</v>
+        <v>349</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41069</v>
       </c>
-      <c r="B36" t="s"/>
-      <c r="C36" t="s"/>
+      <c r="B36" t="n">
+        <v>125532</v>
+      </c>
+      <c r="C36" t="s">
+        <v>350</v>
+      </c>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>317</v>
+        <v>351</v>
       </c>
       <c r="G36" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H36" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>318</v>
+        <v>352</v>
       </c>
       <c r="J36" t="s">
-        <v>319</v>
+        <v>353</v>
       </c>
       <c r="K36" t="s">
-        <v>320</v>
+        <v>354</v>
       </c>
       <c r="L36" t="s">
-        <v>321</v>
+        <v>355</v>
       </c>
       <c r="M36" t="n">
         <v>3</v>
       </c>
       <c r="N36" t="s">
-        <v>322</v>
+        <v>356</v>
       </c>
       <c r="O36" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
@@ -4544,56 +4896,60 @@
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>323</v>
+        <v>357</v>
       </c>
       <c r="X36" t="s">
-        <v>324</v>
+        <v>358</v>
       </c>
       <c r="Y36" t="s">
-        <v>325</v>
+        <v>359</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41069</v>
       </c>
-      <c r="B37" t="s"/>
-      <c r="C37" t="s"/>
+      <c r="B37" t="n">
+        <v>125533</v>
+      </c>
+      <c r="C37" t="s">
+        <v>360</v>
+      </c>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F37" t="s">
-        <v>326</v>
+        <v>361</v>
       </c>
       <c r="G37" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H37" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>327</v>
+        <v>362</v>
       </c>
       <c r="J37" t="s">
-        <v>328</v>
+        <v>363</v>
       </c>
       <c r="K37" t="s">
-        <v>329</v>
+        <v>364</v>
       </c>
       <c r="L37" t="s">
-        <v>330</v>
+        <v>365</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>331</v>
+        <v>366</v>
       </c>
       <c r="O37" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4615,47 +4971,51 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>332</v>
+        <v>367</v>
       </c>
       <c r="X37" t="s">
-        <v>333</v>
+        <v>368</v>
       </c>
       <c r="Y37" t="s">
-        <v>334</v>
+        <v>369</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41069</v>
       </c>
-      <c r="B38" t="s"/>
-      <c r="C38" t="s"/>
+      <c r="B38" t="n">
+        <v>18188</v>
+      </c>
+      <c r="C38" t="s">
+        <v>370</v>
+      </c>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F38" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="G38" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H38" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I38" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="J38" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="K38" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="L38" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -4672,56 +5032,60 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="X38" t="s">
-        <v>341</v>
+        <v>377</v>
       </c>
       <c r="Y38" t="s">
-        <v>342</v>
+        <v>378</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41069</v>
       </c>
-      <c r="B39" t="s"/>
-      <c r="C39" t="s"/>
+      <c r="B39" t="n">
+        <v>125534</v>
+      </c>
+      <c r="C39" t="s">
+        <v>379</v>
+      </c>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>343</v>
+        <v>380</v>
       </c>
       <c r="G39" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H39" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>344</v>
+        <v>381</v>
       </c>
       <c r="J39" t="s">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="K39" t="s">
-        <v>346</v>
+        <v>383</v>
       </c>
       <c r="L39" t="s">
-        <v>347</v>
+        <v>384</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>348</v>
+        <v>385</v>
       </c>
       <c r="O39" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P39" t="n">
         <v>4</v>
@@ -4743,56 +5107,60 @@
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>349</v>
+        <v>386</v>
       </c>
       <c r="X39" t="s">
-        <v>350</v>
+        <v>387</v>
       </c>
       <c r="Y39" t="s">
-        <v>351</v>
+        <v>388</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41069</v>
       </c>
-      <c r="B40" t="s"/>
-      <c r="C40" t="s"/>
+      <c r="B40" t="n">
+        <v>125535</v>
+      </c>
+      <c r="C40" t="s">
+        <v>389</v>
+      </c>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>352</v>
+        <v>390</v>
       </c>
       <c r="G40" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H40" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>353</v>
+        <v>391</v>
       </c>
       <c r="J40" t="s">
-        <v>354</v>
+        <v>392</v>
       </c>
       <c r="K40" t="s">
-        <v>355</v>
+        <v>393</v>
       </c>
       <c r="L40" t="s">
-        <v>356</v>
+        <v>394</v>
       </c>
       <c r="M40" t="n">
         <v>5</v>
       </c>
       <c r="N40" t="s">
-        <v>357</v>
+        <v>395</v>
       </c>
       <c r="O40" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P40" t="n">
         <v>5</v>
@@ -4814,56 +5182,60 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>358</v>
+        <v>396</v>
       </c>
       <c r="X40" t="s">
-        <v>359</v>
+        <v>397</v>
       </c>
       <c r="Y40" t="s">
-        <v>360</v>
+        <v>398</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41069</v>
       </c>
-      <c r="B41" t="s"/>
-      <c r="C41" t="s"/>
+      <c r="B41" t="n">
+        <v>125536</v>
+      </c>
+      <c r="C41" t="s">
+        <v>399</v>
+      </c>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>361</v>
+        <v>400</v>
       </c>
       <c r="G41" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H41" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>362</v>
+        <v>401</v>
       </c>
       <c r="J41" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K41" t="s">
-        <v>364</v>
+        <v>403</v>
       </c>
       <c r="L41" t="s">
-        <v>365</v>
+        <v>404</v>
       </c>
       <c r="M41" t="n">
         <v>1</v>
       </c>
       <c r="N41" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O41" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
@@ -4883,56 +5255,60 @@
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X41" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y41" t="s">
-        <v>369</v>
+        <v>408</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41069</v>
       </c>
-      <c r="B42" t="s"/>
-      <c r="C42" t="s"/>
+      <c r="B42" t="n">
+        <v>125537</v>
+      </c>
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>370</v>
+        <v>410</v>
       </c>
       <c r="G42" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H42" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>371</v>
+        <v>411</v>
       </c>
       <c r="J42" t="s">
-        <v>363</v>
+        <v>402</v>
       </c>
       <c r="K42" t="s">
-        <v>372</v>
+        <v>412</v>
       </c>
       <c r="L42" t="s">
-        <v>373</v>
+        <v>413</v>
       </c>
       <c r="M42" t="n">
         <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>366</v>
+        <v>405</v>
       </c>
       <c r="O42" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P42" t="n">
         <v>4</v>
@@ -4954,47 +5330,51 @@
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X42" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y42" t="s">
-        <v>374</v>
+        <v>414</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41069</v>
       </c>
-      <c r="B43" t="s"/>
-      <c r="C43" t="s"/>
+      <c r="B43" t="n">
+        <v>7440</v>
+      </c>
+      <c r="C43" t="s">
+        <v>415</v>
+      </c>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>375</v>
+        <v>416</v>
       </c>
       <c r="G43" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H43" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>376</v>
+        <v>417</v>
       </c>
       <c r="J43" t="s">
-        <v>377</v>
+        <v>418</v>
       </c>
       <c r="K43" t="s">
-        <v>378</v>
+        <v>419</v>
       </c>
       <c r="L43" t="s">
-        <v>379</v>
+        <v>420</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
@@ -5021,47 +5401,51 @@
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X43" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y43" t="s">
-        <v>382</v>
+        <v>423</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41069</v>
       </c>
-      <c r="B44" t="s"/>
-      <c r="C44" t="s"/>
+      <c r="B44" t="n">
+        <v>125538</v>
+      </c>
+      <c r="C44" t="s">
+        <v>424</v>
+      </c>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
       <c r="G44" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H44" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>384</v>
+        <v>426</v>
       </c>
       <c r="J44" t="s">
-        <v>385</v>
+        <v>427</v>
       </c>
       <c r="K44" t="s">
-        <v>386</v>
+        <v>428</v>
       </c>
       <c r="L44" t="s">
-        <v>387</v>
+        <v>429</v>
       </c>
       <c r="M44" t="n">
         <v>5</v>
@@ -5088,56 +5472,60 @@
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X44" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y44" t="s">
-        <v>388</v>
+        <v>430</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41069</v>
       </c>
-      <c r="B45" t="s"/>
-      <c r="C45" t="s"/>
+      <c r="B45" t="n">
+        <v>125539</v>
+      </c>
+      <c r="C45" t="s">
+        <v>431</v>
+      </c>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>389</v>
+        <v>432</v>
       </c>
       <c r="G45" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H45" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>390</v>
+        <v>433</v>
       </c>
       <c r="J45" t="s">
-        <v>391</v>
+        <v>434</v>
       </c>
       <c r="K45" t="s">
-        <v>392</v>
+        <v>435</v>
       </c>
       <c r="L45" t="s">
-        <v>393</v>
+        <v>436</v>
       </c>
       <c r="M45" t="n">
         <v>3</v>
       </c>
       <c r="N45" t="s">
-        <v>394</v>
+        <v>437</v>
       </c>
       <c r="O45" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P45" t="n">
         <v>4</v>
@@ -5159,56 +5547,60 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X45" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y45" t="s">
-        <v>395</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41069</v>
       </c>
-      <c r="B46" t="s"/>
-      <c r="C46" t="s"/>
+      <c r="B46" t="n">
+        <v>125540</v>
+      </c>
+      <c r="C46" t="s">
+        <v>439</v>
+      </c>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>396</v>
+        <v>440</v>
       </c>
       <c r="G46" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H46" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>397</v>
+        <v>441</v>
       </c>
       <c r="J46" t="s">
-        <v>398</v>
+        <v>442</v>
       </c>
       <c r="K46" t="s">
-        <v>399</v>
+        <v>443</v>
       </c>
       <c r="L46" t="s">
-        <v>400</v>
+        <v>444</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>401</v>
+        <v>445</v>
       </c>
       <c r="O46" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P46" t="n">
         <v>3</v>
@@ -5230,47 +5622,51 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X46" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y46" t="s">
-        <v>402</v>
+        <v>446</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41069</v>
       </c>
-      <c r="B47" t="s"/>
-      <c r="C47" t="s"/>
+      <c r="B47" t="n">
+        <v>125541</v>
+      </c>
+      <c r="C47" t="s">
+        <v>447</v>
+      </c>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>403</v>
+        <v>448</v>
       </c>
       <c r="G47" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H47" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>404</v>
+        <v>449</v>
       </c>
       <c r="J47" t="s">
-        <v>405</v>
+        <v>450</v>
       </c>
       <c r="K47" t="s">
-        <v>406</v>
+        <v>451</v>
       </c>
       <c r="L47" t="s">
-        <v>407</v>
+        <v>452</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
@@ -5297,56 +5693,60 @@
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X47" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y47" t="s">
-        <v>408</v>
+        <v>453</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41069</v>
       </c>
-      <c r="B48" t="s"/>
-      <c r="C48" t="s"/>
+      <c r="B48" t="n">
+        <v>125542</v>
+      </c>
+      <c r="C48" t="s">
+        <v>454</v>
+      </c>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>409</v>
+        <v>455</v>
       </c>
       <c r="G48" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H48" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>410</v>
+        <v>456</v>
       </c>
       <c r="J48" t="s">
-        <v>411</v>
+        <v>457</v>
       </c>
       <c r="K48" t="s">
-        <v>412</v>
+        <v>458</v>
       </c>
       <c r="L48" t="s">
-        <v>413</v>
+        <v>459</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>414</v>
+        <v>460</v>
       </c>
       <c r="O48" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P48" t="n">
         <v>5</v>
@@ -5368,47 +5768,51 @@
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X48" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y48" t="s">
-        <v>415</v>
+        <v>461</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41069</v>
       </c>
-      <c r="B49" t="s"/>
-      <c r="C49" t="s"/>
+      <c r="B49" t="n">
+        <v>62066</v>
+      </c>
+      <c r="C49" t="s">
+        <v>462</v>
+      </c>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="G49" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H49" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>417</v>
+        <v>464</v>
       </c>
       <c r="J49" t="s">
-        <v>418</v>
+        <v>465</v>
       </c>
       <c r="K49" t="s">
-        <v>419</v>
+        <v>466</v>
       </c>
       <c r="L49" t="s">
-        <v>420</v>
+        <v>467</v>
       </c>
       <c r="M49" t="n">
         <v>3</v>
@@ -5435,47 +5839,51 @@
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X49" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y49" t="s">
-        <v>421</v>
+        <v>468</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41069</v>
       </c>
-      <c r="B50" t="s"/>
-      <c r="C50" t="s"/>
+      <c r="B50" t="n">
+        <v>125533</v>
+      </c>
+      <c r="C50" t="s">
+        <v>379</v>
+      </c>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>422</v>
+        <v>469</v>
       </c>
       <c r="G50" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H50" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>423</v>
+        <v>470</v>
       </c>
       <c r="J50" t="s">
-        <v>424</v>
+        <v>471</v>
       </c>
       <c r="K50" t="s">
-        <v>425</v>
+        <v>472</v>
       </c>
       <c r="L50" t="s">
-        <v>426</v>
+        <v>473</v>
       </c>
       <c r="M50" t="n">
         <v>5</v>
@@ -5502,56 +5910,60 @@
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>380</v>
+        <v>421</v>
       </c>
       <c r="X50" t="s">
-        <v>381</v>
+        <v>422</v>
       </c>
       <c r="Y50" t="s">
-        <v>427</v>
+        <v>474</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41069</v>
       </c>
-      <c r="B51" t="s"/>
-      <c r="C51" t="s"/>
+      <c r="B51" t="n">
+        <v>125540</v>
+      </c>
+      <c r="C51" t="s">
+        <v>447</v>
+      </c>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>428</v>
+        <v>475</v>
       </c>
       <c r="G51" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H51" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>429</v>
+        <v>476</v>
       </c>
       <c r="J51" t="s">
-        <v>430</v>
+        <v>477</v>
       </c>
       <c r="K51" t="s">
-        <v>431</v>
+        <v>478</v>
       </c>
       <c r="L51" t="s">
-        <v>432</v>
+        <v>479</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
       <c r="O51" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P51" t="s"/>
       <c r="Q51" t="s"/>
@@ -5563,56 +5975,60 @@
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>367</v>
+        <v>406</v>
       </c>
       <c r="X51" t="s">
-        <v>368</v>
+        <v>407</v>
       </c>
       <c r="Y51" t="s">
-        <v>434</v>
+        <v>481</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41069</v>
       </c>
-      <c r="B52" t="s"/>
-      <c r="C52" t="s"/>
+      <c r="B52" t="n">
+        <v>125543</v>
+      </c>
+      <c r="C52" t="s">
+        <v>482</v>
+      </c>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>435</v>
+        <v>483</v>
       </c>
       <c r="G52" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H52" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>436</v>
+        <v>484</v>
       </c>
       <c r="J52" t="s">
-        <v>437</v>
+        <v>485</v>
       </c>
       <c r="K52" t="s">
-        <v>438</v>
+        <v>486</v>
       </c>
       <c r="L52" t="s">
-        <v>439</v>
+        <v>487</v>
       </c>
       <c r="M52" t="n">
         <v>5</v>
       </c>
       <c r="N52" t="s">
-        <v>440</v>
+        <v>488</v>
       </c>
       <c r="O52" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P52" t="n">
         <v>5</v>
@@ -5634,47 +6050,51 @@
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X52" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y52" t="s">
-        <v>443</v>
+        <v>491</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41069</v>
       </c>
-      <c r="B53" t="s"/>
-      <c r="C53" t="s"/>
+      <c r="B53" t="n">
+        <v>125544</v>
+      </c>
+      <c r="C53" t="s">
+        <v>492</v>
+      </c>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>444</v>
+        <v>493</v>
       </c>
       <c r="G53" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H53" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>445</v>
+        <v>494</v>
       </c>
       <c r="J53" t="s">
-        <v>446</v>
+        <v>495</v>
       </c>
       <c r="K53" t="s">
-        <v>447</v>
+        <v>496</v>
       </c>
       <c r="L53" t="s">
-        <v>448</v>
+        <v>497</v>
       </c>
       <c r="M53" t="n">
         <v>1</v>
@@ -5701,56 +6121,60 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>441</v>
+        <v>489</v>
       </c>
       <c r="X53" t="s">
-        <v>442</v>
+        <v>490</v>
       </c>
       <c r="Y53" t="s">
-        <v>449</v>
+        <v>498</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41069</v>
       </c>
-      <c r="B54" t="s"/>
-      <c r="C54" t="s"/>
+      <c r="B54" t="n">
+        <v>125545</v>
+      </c>
+      <c r="C54" t="s">
+        <v>499</v>
+      </c>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H54" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>451</v>
+        <v>501</v>
       </c>
       <c r="J54" t="s">
-        <v>452</v>
+        <v>502</v>
       </c>
       <c r="K54" t="s">
-        <v>453</v>
+        <v>503</v>
       </c>
       <c r="L54" t="s">
-        <v>454</v>
+        <v>504</v>
       </c>
       <c r="M54" t="n">
         <v>3</v>
       </c>
       <c r="N54" t="s">
-        <v>455</v>
+        <v>505</v>
       </c>
       <c r="O54" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="P54" t="n">
         <v>3</v>
@@ -5772,56 +6196,60 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="X54" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="Y54" t="s">
-        <v>458</v>
+        <v>508</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41069</v>
       </c>
-      <c r="B55" t="s"/>
-      <c r="C55" t="s"/>
+      <c r="B55" t="n">
+        <v>17437</v>
+      </c>
+      <c r="C55" t="s">
+        <v>509</v>
+      </c>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>459</v>
+        <v>510</v>
       </c>
       <c r="G55" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H55" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>460</v>
+        <v>511</v>
       </c>
       <c r="J55" t="s">
-        <v>461</v>
+        <v>512</v>
       </c>
       <c r="K55" t="s">
-        <v>462</v>
+        <v>513</v>
       </c>
       <c r="L55" t="s">
-        <v>463</v>
+        <v>514</v>
       </c>
       <c r="M55" t="n">
         <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="O55" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
@@ -5843,56 +6271,60 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>456</v>
+        <v>506</v>
       </c>
       <c r="X55" t="s">
-        <v>457</v>
+        <v>507</v>
       </c>
       <c r="Y55" t="s">
-        <v>465</v>
+        <v>516</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41069</v>
       </c>
-      <c r="B56" t="s"/>
-      <c r="C56" t="s"/>
+      <c r="B56" t="n">
+        <v>79478</v>
+      </c>
+      <c r="C56" t="s">
+        <v>517</v>
+      </c>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>466</v>
+        <v>518</v>
       </c>
       <c r="G56" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H56" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>467</v>
+        <v>519</v>
       </c>
       <c r="J56" t="s">
-        <v>468</v>
+        <v>520</v>
       </c>
       <c r="K56" t="s">
-        <v>469</v>
+        <v>521</v>
       </c>
       <c r="L56" t="s">
-        <v>470</v>
+        <v>522</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>464</v>
+        <v>515</v>
       </c>
       <c r="O56" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P56" t="n">
         <v>5</v>
@@ -5914,13 +6346,13 @@
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X56" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y56" t="s">
-        <v>473</v>
+        <v>525</v>
       </c>
     </row>
     <row r="57">
@@ -5933,28 +6365,28 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>474</v>
+        <v>526</v>
       </c>
       <c r="G57" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H57" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>475</v>
+        <v>527</v>
       </c>
       <c r="J57" t="s">
-        <v>476</v>
+        <v>528</v>
       </c>
       <c r="K57" t="s">
-        <v>477</v>
+        <v>529</v>
       </c>
       <c r="L57" t="s">
-        <v>478</v>
+        <v>530</v>
       </c>
       <c r="M57" t="n">
         <v>3</v>
@@ -5981,56 +6413,60 @@
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X57" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y57" t="s">
-        <v>479</v>
+        <v>531</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41069</v>
       </c>
-      <c r="B58" t="s"/>
-      <c r="C58" t="s"/>
+      <c r="B58" t="n">
+        <v>125546</v>
+      </c>
+      <c r="C58" t="s">
+        <v>532</v>
+      </c>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>480</v>
+        <v>533</v>
       </c>
       <c r="G58" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H58" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>481</v>
+        <v>534</v>
       </c>
       <c r="J58" t="s">
-        <v>482</v>
+        <v>535</v>
       </c>
       <c r="K58" t="s">
-        <v>483</v>
+        <v>536</v>
       </c>
       <c r="L58" t="s">
-        <v>484</v>
+        <v>537</v>
       </c>
       <c r="M58" t="n">
         <v>3</v>
       </c>
       <c r="N58" t="s">
-        <v>485</v>
+        <v>538</v>
       </c>
       <c r="O58" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P58" t="n">
         <v>3</v>
@@ -6052,56 +6488,60 @@
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X58" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y58" t="s">
-        <v>486</v>
+        <v>539</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41069</v>
       </c>
-      <c r="B59" t="s"/>
-      <c r="C59" t="s"/>
+      <c r="B59" t="n">
+        <v>125547</v>
+      </c>
+      <c r="C59" t="s">
+        <v>540</v>
+      </c>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>487</v>
+        <v>541</v>
       </c>
       <c r="G59" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H59" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>488</v>
+        <v>542</v>
       </c>
       <c r="J59" t="s">
-        <v>489</v>
+        <v>543</v>
       </c>
       <c r="K59" t="s">
-        <v>490</v>
+        <v>544</v>
       </c>
       <c r="L59" t="s">
-        <v>491</v>
+        <v>545</v>
       </c>
       <c r="M59" t="n">
         <v>1</v>
       </c>
       <c r="N59" t="s">
-        <v>492</v>
+        <v>546</v>
       </c>
       <c r="O59" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P59" t="n">
         <v>1</v>
@@ -6123,56 +6563,60 @@
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>471</v>
+        <v>523</v>
       </c>
       <c r="X59" t="s">
-        <v>472</v>
+        <v>524</v>
       </c>
       <c r="Y59" t="s">
-        <v>493</v>
+        <v>547</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41069</v>
       </c>
-      <c r="B60" t="s"/>
-      <c r="C60" t="s"/>
+      <c r="B60" t="n">
+        <v>125548</v>
+      </c>
+      <c r="C60" t="s">
+        <v>548</v>
+      </c>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>494</v>
+        <v>549</v>
       </c>
       <c r="G60" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H60" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>495</v>
+        <v>550</v>
       </c>
       <c r="J60" t="s">
-        <v>496</v>
+        <v>551</v>
       </c>
       <c r="K60" t="s">
-        <v>497</v>
+        <v>552</v>
       </c>
       <c r="L60" t="s">
-        <v>498</v>
+        <v>553</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
       <c r="N60" t="s">
-        <v>499</v>
+        <v>554</v>
       </c>
       <c r="O60" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
@@ -6192,50 +6636,54 @@
       <c r="W60" t="s"/>
       <c r="X60" t="s"/>
       <c r="Y60" t="s">
-        <v>500</v>
+        <v>555</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41069</v>
       </c>
-      <c r="B61" t="s"/>
-      <c r="C61" t="s"/>
+      <c r="B61" t="n">
+        <v>125549</v>
+      </c>
+      <c r="C61" t="s">
+        <v>556</v>
+      </c>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="G61" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H61" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="J61" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="K61" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="L61" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="M61" t="n">
         <v>2</v>
       </c>
       <c r="N61" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="O61" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P61" t="n">
         <v>3</v>
@@ -6259,50 +6707,54 @@
       <c r="W61" t="s"/>
       <c r="X61" t="s"/>
       <c r="Y61" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41069</v>
       </c>
-      <c r="B62" t="s"/>
-      <c r="C62" t="s"/>
+      <c r="B62" t="n">
+        <v>125550</v>
+      </c>
+      <c r="C62" t="s">
+        <v>564</v>
+      </c>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F62" t="s">
-        <v>508</v>
+        <v>565</v>
       </c>
       <c r="G62" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H62" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I62" t="s">
-        <v>509</v>
+        <v>566</v>
       </c>
       <c r="J62" t="s">
-        <v>510</v>
+        <v>567</v>
       </c>
       <c r="K62" t="s">
-        <v>511</v>
+        <v>568</v>
       </c>
       <c r="L62" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>513</v>
+        <v>570</v>
       </c>
       <c r="O62" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P62" t="n">
         <v>5</v>
@@ -6326,50 +6778,54 @@
       <c r="W62" t="s"/>
       <c r="X62" t="s"/>
       <c r="Y62" t="s">
-        <v>512</v>
+        <v>569</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41069</v>
       </c>
-      <c r="B63" t="s"/>
-      <c r="C63" t="s"/>
+      <c r="B63" t="n">
+        <v>125551</v>
+      </c>
+      <c r="C63" t="s">
+        <v>571</v>
+      </c>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F63" t="s">
-        <v>514</v>
+        <v>572</v>
       </c>
       <c r="G63" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H63" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I63" t="s">
-        <v>515</v>
+        <v>573</v>
       </c>
       <c r="J63" t="s">
-        <v>516</v>
+        <v>574</v>
       </c>
       <c r="K63" t="s">
-        <v>517</v>
+        <v>575</v>
       </c>
       <c r="L63" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
       <c r="M63" t="n">
         <v>2</v>
       </c>
       <c r="N63" t="s">
-        <v>519</v>
+        <v>577</v>
       </c>
       <c r="O63" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P63" t="n">
         <v>2</v>
@@ -6393,50 +6849,54 @@
       <c r="W63" t="s"/>
       <c r="X63" t="s"/>
       <c r="Y63" t="s">
-        <v>518</v>
+        <v>576</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41069</v>
       </c>
-      <c r="B64" t="s"/>
-      <c r="C64" t="s"/>
+      <c r="B64" t="n">
+        <v>125552</v>
+      </c>
+      <c r="C64" t="s">
+        <v>578</v>
+      </c>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F64" t="s">
-        <v>520</v>
+        <v>579</v>
       </c>
       <c r="G64" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H64" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I64" t="s">
-        <v>521</v>
+        <v>580</v>
       </c>
       <c r="J64" t="s">
-        <v>522</v>
+        <v>581</v>
       </c>
       <c r="K64" t="s">
-        <v>523</v>
+        <v>582</v>
       </c>
       <c r="L64" t="s">
-        <v>524</v>
+        <v>583</v>
       </c>
       <c r="M64" t="n">
         <v>4</v>
       </c>
       <c r="N64" t="s">
-        <v>525</v>
+        <v>584</v>
       </c>
       <c r="O64" t="s">
-        <v>212</v>
+        <v>234</v>
       </c>
       <c r="P64" t="n">
         <v>4</v>
@@ -6460,50 +6920,54 @@
       <c r="W64" t="s"/>
       <c r="X64" t="s"/>
       <c r="Y64" t="s">
-        <v>526</v>
+        <v>585</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41069</v>
       </c>
-      <c r="B65" t="s"/>
-      <c r="C65" t="s"/>
+      <c r="B65" t="n">
+        <v>125553</v>
+      </c>
+      <c r="C65" t="s">
+        <v>586</v>
+      </c>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F65" t="s">
-        <v>527</v>
+        <v>587</v>
       </c>
       <c r="G65" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H65" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I65" t="s">
-        <v>528</v>
+        <v>588</v>
       </c>
       <c r="J65" t="s">
-        <v>529</v>
+        <v>589</v>
       </c>
       <c r="K65" t="s">
-        <v>530</v>
+        <v>590</v>
       </c>
       <c r="L65" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
       <c r="M65" t="n">
         <v>4</v>
       </c>
       <c r="N65" t="s">
-        <v>532</v>
+        <v>592</v>
       </c>
       <c r="O65" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P65" t="n">
         <v>5</v>
@@ -6527,50 +6991,54 @@
       <c r="W65" t="s"/>
       <c r="X65" t="s"/>
       <c r="Y65" t="s">
-        <v>531</v>
+        <v>591</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41069</v>
       </c>
-      <c r="B66" t="s"/>
-      <c r="C66" t="s"/>
+      <c r="B66" t="n">
+        <v>125554</v>
+      </c>
+      <c r="C66" t="s">
+        <v>593</v>
+      </c>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F66" t="s">
-        <v>533</v>
+        <v>594</v>
       </c>
       <c r="G66" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H66" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I66" t="s">
-        <v>534</v>
+        <v>595</v>
       </c>
       <c r="J66" t="s">
-        <v>535</v>
+        <v>596</v>
       </c>
       <c r="K66" t="s">
-        <v>536</v>
+        <v>597</v>
       </c>
       <c r="L66" t="s">
-        <v>537</v>
+        <v>598</v>
       </c>
       <c r="M66" t="n">
         <v>5</v>
       </c>
       <c r="N66" t="s">
-        <v>538</v>
+        <v>599</v>
       </c>
       <c r="O66" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -6594,41 +7062,45 @@
       <c r="W66" t="s"/>
       <c r="X66" t="s"/>
       <c r="Y66" t="s">
-        <v>539</v>
+        <v>600</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41069</v>
       </c>
-      <c r="B67" t="s"/>
-      <c r="C67" t="s"/>
+      <c r="B67" t="n">
+        <v>125555</v>
+      </c>
+      <c r="C67" t="s">
+        <v>601</v>
+      </c>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F67" t="s">
-        <v>540</v>
+        <v>602</v>
       </c>
       <c r="G67" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H67" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I67" t="s">
-        <v>541</v>
+        <v>603</v>
       </c>
       <c r="J67" t="s">
-        <v>542</v>
+        <v>604</v>
       </c>
       <c r="K67" t="s">
-        <v>543</v>
+        <v>605</v>
       </c>
       <c r="L67" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
       <c r="M67" t="n">
         <v>1</v>
@@ -6647,50 +7119,54 @@
       <c r="W67" t="s"/>
       <c r="X67" t="s"/>
       <c r="Y67" t="s">
-        <v>544</v>
+        <v>606</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41069</v>
       </c>
-      <c r="B68" t="s"/>
-      <c r="C68" t="s"/>
+      <c r="B68" t="n">
+        <v>125556</v>
+      </c>
+      <c r="C68" t="s">
+        <v>607</v>
+      </c>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F68" t="s">
-        <v>545</v>
+        <v>608</v>
       </c>
       <c r="G68" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H68" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I68" t="s">
-        <v>546</v>
+        <v>609</v>
       </c>
       <c r="J68" t="s">
-        <v>547</v>
+        <v>610</v>
       </c>
       <c r="K68" t="s">
-        <v>548</v>
+        <v>611</v>
       </c>
       <c r="L68" t="s">
-        <v>549</v>
+        <v>612</v>
       </c>
       <c r="M68" t="n">
         <v>1</v>
       </c>
       <c r="N68" t="s">
-        <v>550</v>
+        <v>613</v>
       </c>
       <c r="O68" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P68" t="n">
         <v>1</v>
@@ -6712,50 +7188,54 @@
       <c r="W68" t="s"/>
       <c r="X68" t="s"/>
       <c r="Y68" t="s">
-        <v>551</v>
+        <v>614</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41069</v>
       </c>
-      <c r="B69" t="s"/>
-      <c r="C69" t="s"/>
+      <c r="B69" t="n">
+        <v>125557</v>
+      </c>
+      <c r="C69" t="s">
+        <v>615</v>
+      </c>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F69" t="s">
-        <v>552</v>
+        <v>616</v>
       </c>
       <c r="G69" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H69" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I69" t="s">
-        <v>553</v>
+        <v>617</v>
       </c>
       <c r="J69" t="s">
-        <v>554</v>
+        <v>618</v>
       </c>
       <c r="K69" t="s">
-        <v>555</v>
+        <v>619</v>
       </c>
       <c r="L69" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
       <c r="M69" t="n">
         <v>1</v>
       </c>
       <c r="N69" t="s">
-        <v>557</v>
+        <v>621</v>
       </c>
       <c r="O69" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P69" t="n">
         <v>1</v>
@@ -6779,50 +7259,54 @@
       <c r="W69" t="s"/>
       <c r="X69" t="s"/>
       <c r="Y69" t="s">
-        <v>556</v>
+        <v>620</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41069</v>
       </c>
-      <c r="B70" t="s"/>
-      <c r="C70" t="s"/>
+      <c r="B70" t="n">
+        <v>125558</v>
+      </c>
+      <c r="C70" t="s">
+        <v>622</v>
+      </c>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F70" t="s">
-        <v>558</v>
+        <v>623</v>
       </c>
       <c r="G70" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H70" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I70" t="s">
-        <v>559</v>
+        <v>624</v>
       </c>
       <c r="J70" t="s">
-        <v>560</v>
+        <v>625</v>
       </c>
       <c r="K70" t="s">
-        <v>561</v>
+        <v>626</v>
       </c>
       <c r="L70" t="s">
-        <v>562</v>
+        <v>627</v>
       </c>
       <c r="M70" t="n">
         <v>4</v>
       </c>
       <c r="N70" t="s">
-        <v>563</v>
+        <v>628</v>
       </c>
       <c r="O70" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P70" t="n">
         <v>4</v>
@@ -6846,50 +7330,54 @@
       <c r="W70" t="s"/>
       <c r="X70" t="s"/>
       <c r="Y70" t="s">
-        <v>564</v>
+        <v>629</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41069</v>
       </c>
-      <c r="B71" t="s"/>
-      <c r="C71" t="s"/>
+      <c r="B71" t="n">
+        <v>7</v>
+      </c>
+      <c r="C71" t="s">
+        <v>630</v>
+      </c>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F71" t="s">
-        <v>565</v>
+        <v>631</v>
       </c>
       <c r="G71" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H71" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I71" t="s">
-        <v>566</v>
+        <v>632</v>
       </c>
       <c r="J71" t="s">
-        <v>567</v>
+        <v>633</v>
       </c>
       <c r="K71" t="s">
-        <v>568</v>
+        <v>634</v>
       </c>
       <c r="L71" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
       <c r="M71" t="n">
         <v>5</v>
       </c>
       <c r="N71" t="s">
-        <v>570</v>
+        <v>636</v>
       </c>
       <c r="O71" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P71" t="n">
         <v>5</v>
@@ -6911,41 +7399,45 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>569</v>
+        <v>635</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41069</v>
       </c>
-      <c r="B72" t="s"/>
-      <c r="C72" t="s"/>
+      <c r="B72" t="n">
+        <v>125559</v>
+      </c>
+      <c r="C72" t="s">
+        <v>637</v>
+      </c>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F72" t="s">
-        <v>571</v>
+        <v>638</v>
       </c>
       <c r="G72" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H72" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I72" t="s">
-        <v>572</v>
+        <v>639</v>
       </c>
       <c r="J72" t="s">
-        <v>573</v>
+        <v>640</v>
       </c>
       <c r="K72" t="s">
-        <v>574</v>
+        <v>641</v>
       </c>
       <c r="L72" t="s">
-        <v>575</v>
+        <v>642</v>
       </c>
       <c r="M72" t="n">
         <v>4</v>
@@ -6964,50 +7456,54 @@
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>576</v>
+        <v>643</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41069</v>
       </c>
-      <c r="B73" t="s"/>
-      <c r="C73" t="s"/>
+      <c r="B73" t="n">
+        <v>125560</v>
+      </c>
+      <c r="C73" t="s">
+        <v>644</v>
+      </c>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F73" t="s">
-        <v>577</v>
+        <v>645</v>
       </c>
       <c r="G73" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H73" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I73" t="s">
-        <v>578</v>
+        <v>646</v>
       </c>
       <c r="J73" t="s">
-        <v>579</v>
+        <v>647</v>
       </c>
       <c r="K73" t="s">
-        <v>580</v>
+        <v>648</v>
       </c>
       <c r="L73" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
       <c r="M73" t="n">
         <v>1</v>
       </c>
       <c r="N73" t="s">
-        <v>582</v>
+        <v>650</v>
       </c>
       <c r="O73" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="P73" t="s"/>
       <c r="Q73" t="s"/>
@@ -7021,50 +7517,54 @@
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>581</v>
+        <v>649</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41069</v>
       </c>
-      <c r="B74" t="s"/>
-      <c r="C74" t="s"/>
+      <c r="B74" t="n">
+        <v>125561</v>
+      </c>
+      <c r="C74" t="s">
+        <v>651</v>
+      </c>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F74" t="s">
-        <v>583</v>
+        <v>652</v>
       </c>
       <c r="G74" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H74" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I74" t="s">
-        <v>584</v>
+        <v>653</v>
       </c>
       <c r="J74" t="s">
-        <v>585</v>
+        <v>654</v>
       </c>
       <c r="K74" t="s">
-        <v>586</v>
+        <v>655</v>
       </c>
       <c r="L74" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
       <c r="M74" t="n">
         <v>4</v>
       </c>
       <c r="N74" t="s">
-        <v>588</v>
+        <v>657</v>
       </c>
       <c r="O74" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P74" t="s"/>
       <c r="Q74" t="s"/>
@@ -7078,50 +7578,54 @@
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>587</v>
+        <v>656</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41069</v>
       </c>
-      <c r="B75" t="s"/>
-      <c r="C75" t="s"/>
+      <c r="B75" t="n">
+        <v>125562</v>
+      </c>
+      <c r="C75" t="s">
+        <v>658</v>
+      </c>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F75" t="s">
-        <v>589</v>
+        <v>659</v>
       </c>
       <c r="G75" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H75" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I75" t="s">
-        <v>590</v>
+        <v>660</v>
       </c>
       <c r="J75" t="s">
-        <v>591</v>
+        <v>661</v>
       </c>
       <c r="K75" t="s">
-        <v>592</v>
+        <v>662</v>
       </c>
       <c r="L75" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
       <c r="M75" t="n">
         <v>2</v>
       </c>
       <c r="N75" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O75" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P75" t="s"/>
       <c r="Q75" t="s"/>
@@ -7139,50 +7643,54 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>593</v>
+        <v>663</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41069</v>
       </c>
-      <c r="B76" t="s"/>
-      <c r="C76" t="s"/>
+      <c r="B76" t="n">
+        <v>77162</v>
+      </c>
+      <c r="C76" t="s">
+        <v>665</v>
+      </c>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F76" t="s">
-        <v>595</v>
+        <v>666</v>
       </c>
       <c r="G76" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H76" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I76" t="s">
-        <v>596</v>
+        <v>667</v>
       </c>
       <c r="J76" t="s">
-        <v>597</v>
+        <v>668</v>
       </c>
       <c r="K76" t="s">
-        <v>598</v>
+        <v>669</v>
       </c>
       <c r="L76" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O76" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="P76" t="s"/>
       <c r="Q76" t="s"/>
@@ -7196,50 +7704,54 @@
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>599</v>
+        <v>670</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41069</v>
       </c>
-      <c r="B77" t="s"/>
-      <c r="C77" t="s"/>
+      <c r="B77" t="n">
+        <v>125563</v>
+      </c>
+      <c r="C77" t="s">
+        <v>671</v>
+      </c>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F77" t="s">
-        <v>600</v>
+        <v>672</v>
       </c>
       <c r="G77" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="H77" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="I77" t="s">
-        <v>601</v>
+        <v>673</v>
       </c>
       <c r="J77" t="s">
-        <v>602</v>
+        <v>674</v>
       </c>
       <c r="K77" t="s">
-        <v>603</v>
+        <v>675</v>
       </c>
       <c r="L77" t="s">
-        <v>604</v>
+        <v>676</v>
       </c>
       <c r="M77" t="n">
         <v>1</v>
       </c>
       <c r="N77" t="s">
-        <v>594</v>
+        <v>664</v>
       </c>
       <c r="O77" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="P77" t="s"/>
       <c r="Q77" t="s"/>
@@ -7253,7 +7765,7 @@
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>605</v>
+        <v>677</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_98.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_98.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="678">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="655">
   <si>
     <t>STR#</t>
   </si>
@@ -147,21 +147,135 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jean C</t>
-  </si>
-  <si>
-    <t>06/06/2018</t>
+    <t>08/17/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r589511000-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>56587</t>
+  </si>
+  <si>
+    <t>225675</t>
+  </si>
+  <si>
+    <t>589511000</t>
+  </si>
+  <si>
+    <t>06/21/2018</t>
+  </si>
+  <si>
+    <t>Stay away for health reasons!!</t>
+  </si>
+  <si>
+    <t>We are traveling and decided to stop for the night. The front desk attendent was polite. However, as soon as we walked into the room, an awful musty/urine smell hit us. I checked the sheets &amp; they looked clean. I put the baby down and sat next to her to rub her back. Brown bugs started to surround us and I got bit 3 times in a matter of seconds before I noticed them. My husband went to the bathroom, came out and said “pack up!”. The bathroom was unbelievable. Moldy large (think personal size watermelon) holes in the wall. Mold all over the shower. Dirty smear across the other wall. We left and were only in the room for about 10 minutes. The kids were crying about being itchy after laying in the bed and we quickly went to a clean hotel &amp; showered. Very inconvenient at 1am!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We are traveling and decided to stop for the night. The front desk attendent was polite. However, as soon as we walked into the room, an awful musty/urine smell hit us. I checked the sheets &amp; they looked clean. I put the baby down and sat next to her to rub her back. Brown bugs started to surround us and I got bit 3 times in a matter of seconds before I noticed them. My husband went to the bathroom, came out and said “pack up!”. The bathroom was unbelievable. Moldy large (think personal size watermelon) holes in the wall. Mold all over the shower. Dirty smear across the other wall. We left and were only in the room for about 10 minutes. The kids were crying about being itchy after laying in the bed and we quickly went to a clean hotel &amp; showered. Very inconvenient at 1am!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r579097800-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>579097800</t>
+  </si>
+  <si>
+    <t>05/09/2018</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>The staff is professional, lazy, and not friendly at all.. The layout bed. was filthy and dirty and i would not sleep on mattress because of filth..They never accommodated us on room..I will never stay at this hotel ever not worth it</t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r549620400-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>549620400</t>
+  </si>
+  <si>
+    <t>12/27/2017</t>
+  </si>
+  <si>
+    <t>Christmas Eve</t>
+  </si>
+  <si>
+    <t>Rented the room to have my son and his girlfriend near by for festivities on Christmas morning.  The front desk staff was quite rude but we managed. Room was clean and the bed was comfortable. When checking out the front desk staff was extremely hospitable.</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r543819159-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>543819159</t>
+  </si>
+  <si>
+    <t>11/28/2017</t>
+  </si>
+  <si>
+    <t>NEEDS MAJOR RENOVATIONS</t>
+  </si>
+  <si>
+    <t>The staff is great at this hotel , no complaints about that. But the hotel itself really needs some major updates. As soon as we opened the door we got a moldy / musty smell. Portions of the bathroom wall had been removed and a poor job of patching up had been done. There were water stains on the ceiling as well. The pics used are not accurate and very misleading. The location is great but I would not stay here again.</t>
+  </si>
+  <si>
+    <t>November 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541647396-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>541647396</t>
+  </si>
+  <si>
+    <t>11/17/2017</t>
+  </si>
+  <si>
+    <t>Great value, great motel</t>
+  </si>
+  <si>
+    <t>We stayed here for 6 nights. There is great free parking. It is easily accessible . The staff were so helpful and friendly. Our room was immaculately clean, bed comfortable , linen fresh . The washing machine and dryer are great. Breakfast was simple and very tasty. Some  reviews have not been good but our experience was very good .</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541028215-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>541028215</t>
+  </si>
+  <si>
+    <t>11/14/2017</t>
+  </si>
+  <si>
+    <t>Absolutely Terrible</t>
+  </si>
+  <si>
+    <t>This is probably one of the worst hotels I've ever stayed at in my entire life. I have stayed in hostels and motels in third world countries in the African continent that were a lot cleaner and had better customer service than this place. I checked in at 3:45 PM only to find out that my room was still not ready, and housekeeping was rushing to get it done. The furniture was broken, the iron board had stains all over it and the shower barely had any hot water. The breakfast is very minimal, and the hotel itself needs a major renovation/facelift. Sad part is, they charge as much as some of the newer and better hotels in the area - I'm not sure why. Do yourself a favor and find yourself somewhere else to stay, even if you had to pay a little more. Trust me, it'll be worth it. MoreShow less</t>
+  </si>
+  <si>
+    <t>This is probably one of the worst hotels I've ever stayed at in my entire life. I have stayed in hostels and motels in third world countries in the African continent that were a lot cleaner and had better customer service than this place. I checked in at 3:45 PM only to find out that my room was still not ready, and housekeeping was rushing to get it done. The furniture was broken, the iron board had stains all over it and the shower barely had any hot water. The breakfast is very minimal, and the hotel itself needs a major renovation/facelift. Sad part is, they charge as much as some of the newer and better hotels in the area - I'm not sure why. Do yourself a favor and find yourself somewhere else to stay, even if you had to pay a little more. Trust me, it'll be worth it. More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r535224707-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
-    <t>56587</t>
-  </si>
-  <si>
-    <t>225675</t>
-  </si>
-  <si>
     <t>535224707</t>
   </si>
   <si>
@@ -177,12 +291,6 @@
     <t>October 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>Angie  B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r529278697-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -201,15 +309,9 @@
     <t>September 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>I have stayed at many Choice hotels and before now, I've had nothing to really complain about. Understanding that not all hotels are new with elaborate furnishings, I do expect them to be clean, neat, and without rodents. It's very difficult for me to write this review because I don't like reporting negative things, but this one is a must! I ended up at this hotel only because it was last minute and everywhere else was booked. When we opened the door to the room, it had a stuffy smell but that was okay. The night went by okay and the next morning, we got dressed and left to enjoy our day. About 9:15pm we'd gotten food and were back at the hotel. After laying my bag down I looked on the couch and noticed what looked like a 'rat' turd on my significant other's clothing bag. My S.O. then started moving the couch around and actually saw a 'rat' run down further in the couch. I was horrified!! I jumped in the bed in tears. This was horrible and I was petrified! He went down to speak to the receptionist about it, Heather I believe, and she was not sympathetic at all. She said they'd never had a report of such rodents before. I let her know there were several other droppings on the bench in the room as well. The nasty little thing had been all over our...I have stayed at many Choice hotels and before now, I've had nothing to really complain about. Understanding that not all hotels are new with elaborate furnishings, I do expect them to be clean, neat, and without rodents. It's very difficult for me to write this review because I don't like reporting negative things, but this one is a must! I ended up at this hotel only because it was last minute and everywhere else was booked. When we opened the door to the room, it had a stuffy smell but that was okay. The night went by okay and the next morning, we got dressed and left to enjoy our day. About 9:15pm we'd gotten food and were back at the hotel. After laying my bag down I looked on the couch and noticed what looked like a 'rat' turd on my significant other's clothing bag. My S.O. then started moving the couch around and actually saw a 'rat' run down further in the couch. I was horrified!! I jumped in the bed in tears. This was horrible and I was petrified! He went down to speak to the receptionist about it, Heather I believe, and she was not sympathetic at all. She said they'd never had a report of such rodents before. I let her know there were several other droppings on the bench in the room as well. The nasty little thing had been all over our things. She talked to her manager Chet Patel, and they eventually gave us another room upstairs and took $40 off our $102 a night stay, which was only after I further complained about not being comfortable being there. We stayed because there was no availability elsewhere. She was back on shift when we checked out the next morning and her attitude was not apologetic at all. The manager never contacted us and no one has since made apologies. Please DO NOT stay in this hotel if at all possible. The 'rat' was a small one so there were probably more in the building. I do feel this is an isolated event because these hotels are usually very nice and clean. This is a true story. Buyer beware. This hotel is NOT one you want to stay in.More</t>
   </si>
   <si>
-    <t>moteladvice</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r502326405-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -228,9 +330,6 @@
     <t>July 2017</t>
   </si>
   <si>
-    <t>Hungry2Travel</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r498819458-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -249,9 +348,6 @@
     <t>Room #319 June 30-July 4 stay. A/C was not on when we checked in. After turning it on, we noticed that the carpet under it was wet- making the sitting area of the room virtually unusable. We would have requested a different room, but being a holiday weekend, they were fully booked. During our stay, the WiFi was spotty- and extremely slow. (But I did notice one of the front desk clerks laying across her arm enjoying the internet.) The toilet had a large crack in it &amp; was 'mended' with caulk and  a broken tile had been 'reassembled' with spackle. On the day before our departure, my husband and puppy were stranded in a hot elevator for 30 minutes. When they were finally freed, we were told that the only elevator in the building would not be fixed until the day after we left. So that meant we were on the 3rd floor &amp; had to carry our luggage down the stairs. We are 60+ yrs old and have some physical difficulties- (arthritic knees, back issues). No offer was made by the disinterested front desk attendant to render any assistance, and an effort was made by the attendant to not make eye contact This hotel is in a state of disrepair. Even though the housekeeping staff kept everything very clean &amp; the location is great, we will not stay again &amp; will have a difficult time considering any Comfort...Room #319 June 30-July 4 stay. A/C was not on when we checked in. After turning it on, we noticed that the carpet under it was wet- making the sitting area of the room virtually unusable. We would have requested a different room, but being a holiday weekend, they were fully booked. During our stay, the WiFi was spotty- and extremely slow. (But I did notice one of the front desk clerks laying across her arm enjoying the internet.) The toilet had a large crack in it &amp; was 'mended' with caulk and  a broken tile had been 'reassembled' with spackle. On the day before our departure, my husband and puppy were stranded in a hot elevator for 30 minutes. When they were finally freed, we were told that the only elevator in the building would not be fixed until the day after we left. So that meant we were on the 3rd floor &amp; had to carry our luggage down the stairs. We are 60+ yrs old and have some physical difficulties- (arthritic knees, back issues). No offer was made by the disinterested front desk attendant to render any assistance, and an effort was made by the attendant to not make eye contact This hotel is in a state of disrepair. Even though the housekeeping staff kept everything very clean &amp; the location is great, we will not stay again &amp; will have a difficult time considering any Comfort Suites in the future.More</t>
   </si>
   <si>
-    <t>Terry S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r494316447-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -264,13 +360,10 @@
     <t>Don't Stay in Room 115</t>
   </si>
   <si>
-    <t>The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it...The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it too had been coated, but rust was underneath it and causing it to bubble up and many rust spots showed.  Underneath the "handicap" grab bar - where the round cover plates are on the wall - looked like black mold was here too.  The door frame coming into the bathroom, right next to the tub was rusting pretty bad and very visible, like all the other defects in and around the tub.  On the wall outside the bathroom (typically the bathroom door when fully open covers it) was a pretty good sized patch in the wall that was poorly repaired.  The patch was very visible (I have pictures of all of it to prove how bad it was).I have stayed in several Comfort Suites before, so the reason I chose this hotel; along with it being close to a weekend class I was attending close by.  All my previous experiences at Comfort Suites have bee really good and nothing like this run down place.  Obviously management does not care or the are not willing to have repairs done by professionals and the cleaning person should know when they see black mold or something very like it and report to management.  That room should not be allowed to be used by a guest until those issues mentioned above have been fully resolved - as mold of any type puts people who stay...MoreShow less</t>
-  </si>
-  <si>
-    <t>The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it...The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it too had been coated, but rust was underneath it and causing it to bubble up and many rust spots showed.  Underneath the "handicap" grab bar - where the round cover plates are on the wall - looked like black mold was here too.  The door frame coming into the bathroom, right next to the tub was rusting pretty bad and very visible, like all the other defects in and around the tub.  On the wall outside the bathroom (typically the bathroom door when fully open covers it) was a pretty good sized patch in the wall that was poorly repaired.  The patch was very visible (I have pictures of all of it to prove how bad it was).I have stayed in several Comfort Suites before, so the reason I chose this hotel; along with it being close to a weekend class I was attending close by.  All my previous experiences at Comfort Suites have bee really good and nothing like this run down place.  Obviously management does not care or the are not willing to have repairs done by professionals and the cleaning person should know when they see black mold or something very like it and report to management.  That room should not be allowed to be used by a guest until those issues mentioned above have been fully resolved - as mold of any type puts people who stay...More</t>
-  </si>
-  <si>
-    <t>mustangsuzie64</t>
+    <t>The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it...The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it too had been coated, but rust was underneath it and causing it to bubble up and many rust spots showed.  Underneath the "handicap" grab bar - where the round cover plates are on the wall - looked like black mold was here too.  The door frame coming into the bathroom, right next to the tub was rusting pretty bad and very visible, like all the other defects in and around the tub.  On the wall outside the bathroom (typically the bathroom door when fully open covers it) was a pretty good sized patch in the wall that was poorly repaired.  The patch was very visible (I have pictures of all of it to prove how bad it was).I have stayed in several Comfort Suites before, so the reason I chose this hotel; along with it being close to a weekend class I was attending close by.  All my previous experiences at Comfort Suites have bee really good and nothing like this run down place.  Obviously management does not care or the are not willing to have repairs done by professionals and the cleaning person should know when they see black mold or something very like it and report to management.  That room should not be allowed to be used by a guest until those issues mentioned above have been fully resolved - as mold of any type puts people who stay in that room and the cleaning people as well in danger.  Trying to take a bath in a peeling tub is not desirable one bit, nor taking a shower either.  I was truly appalled at the lack of care / attention to issues like in this room.MoreShow less</t>
+  </si>
+  <si>
+    <t>The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it...The room (#115) was not all that bad.  That does not include the bathroom though.  I learned from this trip that you "ALWAYS" check the whole room, including the bathroom before unpacking, etc.  Had I done this, I'd have gone back to the front desk and demanded a different room.  The bathroom was really bad.  It looked kind of like it may have been renovated / updated in the last year or so; but that renovation was either done cheaply or the people doing the work had zero clue as to what they were doing.  The biggest issue was what looked like black mold on the wall next to the tub right at the bathroom door.  The paint had fallen off part of the wall exposing "black mold" or something looking exactly like it.  It was also found on the tub caulking right under the faucet and tub water knob (which the plate of the water temp /pressure knob was upside down).  It was a Delta cover and the "Delta" was at the top and upside down - so what should be shown as hot was cold and cold was hot.  The tub looked to have been recoated with something, but it was peeling off in many places.  Some of the peel was even stuck to the wall right above the tub, which kind of showed the lack of detail in cleaning of it.  Where the overflow cover is, it too had been coated, but rust was underneath it and causing it to bubble up and many rust spots showed.  Underneath the "handicap" grab bar - where the round cover plates are on the wall - looked like black mold was here too.  The door frame coming into the bathroom, right next to the tub was rusting pretty bad and very visible, like all the other defects in and around the tub.  On the wall outside the bathroom (typically the bathroom door when fully open covers it) was a pretty good sized patch in the wall that was poorly repaired.  The patch was very visible (I have pictures of all of it to prove how bad it was).I have stayed in several Comfort Suites before, so the reason I chose this hotel; along with it being close to a weekend class I was attending close by.  All my previous experiences at Comfort Suites have bee really good and nothing like this run down place.  Obviously management does not care or the are not willing to have repairs done by professionals and the cleaning person should know when they see black mold or something very like it and report to management.  That room should not be allowed to be used by a guest until those issues mentioned above have been fully resolved - as mold of any type puts people who stay in that room and the cleaning people as well in danger.  Trying to take a bath in a peeling tub is not desirable one bit, nor taking a shower either.  I was truly appalled at the lack of care / attention to issues like in this room.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r492337561-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -294,9 +387,6 @@
     <t>I chose this hotel because it was close to the freeway accesses I needed to attend family wedding events in the Rowlett area. It is a busy hotel and the no vacancy sign was up the three days I stayed. It's clean enough, the breakfast was alright but nothing special. My biggest concern was lack of security. I exited the lobby several times and never saw anyone at the front desk. I even rang the bell once when I needed something and no one ever came. In addition, the door locking mechanism on my room 319 did not function well. When leaving the room, I had to give the handle an extra tug to make sure the lock worked. Upon returning to my Ron last night, the lock was not engaged and anyone could have entered the room. I assume that housekeeping did not make sure the door was locked. I did report this when I checked out. I most likely will not stay at this hotel again having no reason to. I don't consider it on par with the nicer Holiday Inn Expresses.More</t>
   </si>
   <si>
-    <t>stebbie3029</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r492255895-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -309,9 +399,6 @@
     <t>My family stayed here for a high school graduation event.  I was really impressed with the room/ suite.  They also had HOT breakfast. It was also very convenient to where we needed to be.  I would recommend this hotel!</t>
   </si>
   <si>
-    <t>Keegan S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r472202847-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -330,9 +417,6 @@
     <t>April 2017</t>
   </si>
   <si>
-    <t>Julie G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r448086854-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -351,9 +435,6 @@
     <t>December 2016</t>
   </si>
   <si>
-    <t>Kathy G</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r431993812-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -381,9 +462,6 @@
     <t>I called earlier in the day of our scheduled arrival to advise that we would be arriving late.  Once we arrived at the property, we were very pleased with the parking area and appearance of the property.  The desk clerk wasn't very outgoing, but she was efficient and fast getting us checked in.  I did have to call the desk to get bedding for the sofa bed, but it was brought to us promptly.  Our room was clean and comfortable.  The only negatives about our experience were stains on the  where luggage rack and areas in the bathroom where repairs had been made and the coloring did not match.  We will be staying at this property again.  The complimentary breakfast was tasty enough and the lady was constantly working, refilling and cleaning the area.More</t>
   </si>
   <si>
-    <t>Bonnie123476</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r430410009-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -408,9 +486,6 @@
     <t>This hotel used to be good. The ceiling in the bathroom had as water stain- like it had leaked from above. The staff did not clean our room and we wanted it cleaned. Not only that. The wet towels were not picked up from the bathroom floor and we did not get new ones. I do NOT recommend this hotel bless they get a new manager. As we left we mentioned it to the manager and all he said was that he was sorry. Another guest was complaining that they did not get clean towels either.More</t>
   </si>
   <si>
-    <t>Richbutnot</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r425653472-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -435,9 +510,6 @@
     <t>We stayed here two nights over the weekend. We came in from Arkansas so this cut our drive and was convenient enough for us. We went into Dallas on Saturday afternoon to see Rent which was 30 minutes away. Good location if you don't need to go into Dallas or only want to make a single trip like we did. Hotel was clean, quiet and comfortable. Breakfast was the usual fare with plenty of room to eat. Wifi was very slow. Would stay here again.More</t>
   </si>
   <si>
-    <t>Amy Jo B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r419814269-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -456,9 +528,6 @@
     <t>September 2016</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded September 18, 2016</t>
   </si>
   <si>
@@ -468,9 +537,6 @@
     <t>When I travel to Rowlett, I always stay at this hotel. I have stayed here about 30 times in last year. The rooms have always been great in comfortable beds and cleanliness however during this recent trip, the television did not work, the remote backing holding the batteries was missing, the ice machine did not work, printing from room did not work as advertised and the WiFi was not reliable. Since I am traveling for business, I really rely and depend on these Amneties. I really hope that management reads this review and considers ensuring all business Amneties are working all the time and 100% reliable. More</t>
   </si>
   <si>
-    <t>Tammy S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r413314371-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -496,9 +562,6 @@
   </si>
   <si>
     <t>Clerk was able to get us on the ground floor as we were having to leave at 4a.m. Hotel was quite and clean. Yes a little wear and tear but CLEAN which I will take anyday. Not to far from Bass Pro Shop for a nice few hours of shopping and dining.More</t>
-  </si>
-  <si>
-    <t>Gina2090</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r391351811-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -536,9 +599,6 @@
 The receptionist proceeded to ask which country my mother was from and when questioned about the different rates on our bills, we checked in the same day as my aunt....Please do not waste your money by coming here.We stayed here for a week while visiting family. We would have booked into another hotel but we rarely spent time in the room and only came to sleep.We were allocated a ground floor room overlooking the car park.  The room was a good size, fairly clean but poorly lit. The bath tub was not pleasant -mould on the tap, dirty tub with a dirty shower mat which had been clearly used.  Breakfast is not intercontinental just some scrambled eggs, a few baked goods and sugary cereals.  Water provided at the breakfast was warm. I only had a sip of the water and it was enough to put me off the food for the whole trip.The morning of the checkout we woke up to find that the hotel bill had been slid under the door, I have never experienced this before. The rates are far too expensive for a hotel of this standard. For an extra ten dollars a night you could stay a a far much better hotel. We intended to pay with a different card and my mother went to the reception to ask why they had effected a payment from the card without us checking out. The receptionist proceeded to ask which country my mother was from and when questioned about the different rates on our bills, we checked in the same day as my aunt. She looked over to another guest who was sitting in the lobby and asked him 'is this not how we do it in America' and then she turned to my mother and said 'Well this is how we do it in America'.  She was moving around the whole time.My mother then asked what the bill had to do with which country she is from or the one the hotel is operating from.  The receptionist said she had nothing to do with the bill, refused to give her name and told my mother to contact the manager on Wednesday. We were flying out of Texas that same day so we asked for the contact office details. My uncle came to our room  a few minutes later with a copy of the paperwork from the checking in night which had someone else's bill printed on the back with their full name and room number. The person is still a guest at this hotel!More</t>
   </si>
   <si>
-    <t>navywife1994</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r390217431-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -563,9 +623,6 @@
     <t>It was nice to have friendly staff greet us when we arrived after a long days drive. Room was clean and big enough for our family. Moved from CA and will have visiting family stay here when they come over  More</t>
   </si>
   <si>
-    <t>Msbuni</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r385658773-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -593,9 +650,6 @@
     <t>The room we were in had a beautiful lake view, but there was a lot of road noise.  When we got ready to go to sleep, however, we just turned on our white noise machine and slept soundly.  The room was clean, comfortable, and the wifi was adequate for both of us to be on our computers at the same time.  We had booked multiple nights because we were in the area for the funeral of a family member.  However, when we got to the family member's home, we were asked to stay there during our visit.  We decided to stay that night at the hotel and try to cancel the rest of the reservation.  They were very gracious about canceling the remainder of the reservation and refunding our money.More</t>
   </si>
   <si>
-    <t>Crescendo01</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r356882493-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -623,9 +677,6 @@
     <t>Very pleasantly surprised at the high quality stay for such a reasonable price. The appearance and feel of the facility, particularly the bedding, was very comfortable and comparable to a higher end hotel. The pet friendly accommodations saved me a lot of money and hassle as well. Thank you!More</t>
   </si>
   <si>
-    <t>Peter P</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r352691008-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -653,9 +704,6 @@
     <t>Very convenient, just off the Interstate. Rooms are clean, comfortable, decent WYFI and breakfast was adequate. I arrived way too early, but the friendly girl on reception got me booked in.Would recommend this place and will certainly book again next time my travels take me to Rowlett.More</t>
   </si>
   <si>
-    <t>JRCZAR</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r348182296-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -680,9 +728,6 @@
     <t>WE were in Rowlett for my son's hospital stay and all the folks at this motel were very helpful and the hotel is very clean  with a great breakfast.  This is the place to stay in the Rowlett area.  The best value and rooms for your money.More</t>
   </si>
   <si>
-    <t>Joanna S</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r345424457-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -707,9 +752,6 @@
     <t>We will not stay here again,  we had stayed here 4 times in the past, but this time we were very disappointed!  I know the breakfast comes with the price of the room, but to have 4 out of 5 mornings the same bacon and eggs is a bit much,  we also found a bug in our room and when I asked for compensation, he acted offended!  The room was clean, but....More</t>
   </si>
   <si>
-    <t>momof2dfw</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r338699163-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -740,9 +782,6 @@
     <t>Two weeks ago today an EF-5 tornado came thru Garland and Rowlett.  Over 1100 homes were totally destroyed and hundreds more deemed uninhabitable.  Residents had to find somewhere to stay and many chose to stay at this location due to the close proximity of their home.  Our community has been awesome and stepped in to help everyone that has been displaced.  One thing that has been a great help is meals for these families.  Volunteers make and deliver meals to the local hotels where they are staying.  However, this hotel has turned them away and told them they can not deliver these meals to the displaced families staying there.  Various relief groups have been visiting local hotels to help these families but this one has been rude to them and turning them away.  We can not recommend this hotel for anyone!!!!!   Not with the way they have treated the people and families that have been displaced and lost everything.More</t>
   </si>
   <si>
-    <t>Sharon B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r327058910-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -791,9 +830,6 @@
     <t>We were moved to two different rooms until finally settled into a decent room. All rooms have a very strong odor and gross. It was too late to look for another hotel. The gal in the front desk is nice, but I wouldn't recommend this hotel to anyone. Online pictures are very deceiving!More</t>
   </si>
   <si>
-    <t>Nancy B</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r316862895-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -821,9 +857,6 @@
     <t>We really enjoyed our stay in this Comfort Suites on the shore of Lake Ron Hubbard.  Liz checked us in and out, and was very friendly and helpful with directions to nearby park areas with lake access.   We picked this hotel because it was right on our route (we did not want to go all the way into Dallas) and had good ratings; we thought it was good value for the money.More</t>
   </si>
   <si>
-    <t>LtColRiley</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r310279872-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -851,9 +884,6 @@
     <t>We wanted to stay as close as possible to Lake Ray Hubbard and needed a pet friendly hotel.  There are only 2 options:  Comfort Suites on the Rowlett side and La Quinta on the Rockwall side.  We actually spent a few nights at each, and while La Quinta is 5 minutes closer to more dining and shopping options (in Rockwall), the Comfort Suites was the nicer and quieter hotel.  My wife, son and I all have the edge to this hotel. Good location. Great stay!More</t>
   </si>
   <si>
-    <t>Garry H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r307346894-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -872,9 +902,6 @@
     <t>Yes, you can barely see the lake from the hotel, but that wasn't a problem. Staying a long weekend at the lake, this was a great location. Close to a lot of things to do. The room was fine. Soft beds and cold a/c. The breakfast was the usual free CS. Don't be picky, it's free. All the staff was friendly and helpful. We had one problem with the room. The fridge didn't work. When I told them, it was changed out within 30 minutes. A good stay and we will be back!More</t>
   </si>
   <si>
-    <t>denad55</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r297672460-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -902,9 +929,6 @@
     <t>I stayed here due to it being close to where I was going the hotel lobby is extremely nice. Checked into the room couldn't get the door open the handle would only work one way. The floor below the ac was falling through. Other than those issues the hotel was okay it did have laundry facilities and the staff was extremely friendly and helpful.More</t>
   </si>
   <si>
-    <t>FDuphrane D</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r290532336-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -932,9 +956,6 @@
     <t>I believe it is only fair to say that i have never stayed at this hotel.  I made a reservation sight unseen based on its location.  They claim they were situated overlooking the lake. This could not have been further from the truth.  The hotel is situated along Interstate 30 which is alongside the lake.  The hotel itself is facing away from the lake with only one of its sides  facing I-30 and the lake is on the opposite side of I-30.  Still the price for a room was in the low 80s which deserved a look.  As we drove in we noticed a large amount of trash along leading to the hotel and the parking itself strew with trash and a large amount of cigarette butts on the parking areas nearest to the hotel.  This trash appeared old meaning the cleaning crew is not being managed properly.  We went inside but no clerk was at the front the front desk to greet us.  After several minutes we rang the service bell and a clerk immediately appeared. We arrived just after 12 pm so rooms were not ready.  We decided to come back later but before leaving we used their lobby restrooms and found them filthy, wastepaper baskets were full tissue and tissue was strewn about the floor.  This is unacceptable and made us wonder if this is the type of care that was being given to the rooms themselves...I believe it is only fair to say that i have never stayed at this hotel.  I made a reservation sight unseen based on its location.  They claim they were situated overlooking the lake. This could not have been further from the truth.  The hotel is situated along Interstate 30 which is alongside the lake.  The hotel itself is facing away from the lake with only one of its sides  facing I-30 and the lake is on the opposite side of I-30.  Still the price for a room was in the low 80s which deserved a look.  As we drove in we noticed a large amount of trash along leading to the hotel and the parking itself strew with trash and a large amount of cigarette butts on the parking areas nearest to the hotel.  This trash appeared old meaning the cleaning crew is not being managed properly.  We went inside but no clerk was at the front the front desk to greet us.  After several minutes we rang the service bell and a clerk immediately appeared. We arrived just after 12 pm so rooms were not ready.  We decided to come back later but before leaving we used their lobby restrooms and found them filthy, wastepaper baskets were full tissue and tissue was strewn about the floor.  This is unacceptable and made us wonder if this is the type of care that was being given to the rooms themselves and to the linen.  We decided not to take a chance and cancel our reservations.  We hope this serves a message to the management.More</t>
   </si>
   <si>
-    <t>Dasibeth</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r285913800-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -959,9 +980,6 @@
     <t>We had a one night stay after a long trip and were on the way home.  The room was clean, comfortable and spacious.  Good breakfast with scrambled eggs, bacon, muffins--no jelly or jam.  Easy access to the Interstate.More</t>
   </si>
   <si>
-    <t>tribojet</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r266623717-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -986,9 +1004,6 @@
     <t>We have stayed several times here and it was ok. However this weekend was a different story. The Saturday morning breakfast was a disaster. At 8:30 they were out of everything. We were told it was a new person in the breakfast room so we accepted that explanation. Our room didn't lock .We discovered that as we were leaving. Unless you were inside the room you couldn't lock it. Also the elevator smelled like dogs. Sorry but we won't be back.More</t>
   </si>
   <si>
-    <t>Speer2014</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r265364265-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1016,9 +1031,6 @@
     <t>We took a group of students and the hotel computer system crashed but Amber and Samantha did a great job getting everyone checked in! They handled our large group with ease and friendliness. Amber spent time reviewing and answering any question I had. Rooms were comfortable, clean, nicely decorated and you can't beat the view of the lake!! Would stay here again. More</t>
   </si>
   <si>
-    <t>pjlanier1946</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r261701991-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1046,9 +1058,6 @@
     <t>Recent stay at this hotel because of snow and ice resulted in a very good experience. We arrived and were very happy with the suite. It was a large clean room. Due to the weather, we ate at a Dickey's adjacent to the hotel. That is another review. The breakfast area was large and very nice. The selection was adequate. I would stay at this hotel again.More</t>
   </si>
   <si>
-    <t>popeye60</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r244091829-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1074,9 +1083,6 @@
   </si>
   <si>
     <t>Great location just outside of Dallas. Staff were very friendly and helpful. Spacious room, clean, bright, bedding was really comfortable. WiFi is available. Breakfast had a good assortment of pastries as well as some hot items.While there we had a storm come through Dallas and knocked down trees and cut off power. When we came back to the hotel, staff were waiting for guests to escort to our rooms using flashlights. They were really helpful. Power did come back on just after midnight. Great staff.More</t>
-  </si>
-  <si>
-    <t>timandantoinette</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r228591710-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -1120,7 +1126,133 @@
 The next morning I Was greeted by a rather large but I'm sure harmless spider sitting on my luggage. I am terrified of...I was blown away by the beauty of Lake Ray Hubbard and this hotel!The hotel is located in a wonderfully convenient and safe area.The staff was very kind and accommodating.The room was great, the bed was soft and the tv was a large flat screen tv with crystal clear picture.The only issue I had with this property was the presence of spiders and bugs.My first run in with this was when I got into bed. I grabbed a pillow and as I did there was a very large beetle clinging to the back of the pillow. I screamed like a little girl and tossed the pillow to the other side of the bed. The bug did not move. It turned out to be dead. It had at some point in the day or week prior chosen the back of my pillow as it's final resting place. This was concerning to me because I began to think that my bed and room had not been checked or the sheets changed for some time.I told the front desk clerk what I had saw and she told me the hotel was booked solid so she couldn't move me but that the next day there should be availability if I would like to switch rooms.The next morning I Was greeted by a rather large but I'm sure harmless spider sitting on my luggage. I am terrified of spiders. I would rather have been greeted by 20 more of those beetles than even one spider! I managed to catch the spider in a coffee cup and I threw it outside.The front desk clerk called and offered to switch my room for me but at this point I was scared as to what I might find or rather what might find me in another room. At least with this room I had done a thorough search for any more visible insects or spiders and knew what was in my room. I decided not to gamble and stayed with my original room.To be fair the hotel is located on a lake and where there is water there will always be insects and spiders. I just hope that this was a random occurrence and not a routine situation.The Manager (maybe property owner too) apologized and took $5 off each night of my stay which was a nice gesture but it did teach me to always check the bed and room pretty well before going to sleep!More</t>
   </si>
   <si>
-    <t>DaveG873</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r214413032-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>214413032</t>
+  </si>
+  <si>
+    <t>07/08/2014</t>
+  </si>
+  <si>
+    <t>Dirty and Dangerous</t>
+  </si>
+  <si>
+    <t>No traveler should experience black mold in the bathtub but we did. We booked the Suite with a kitchen so we could cook in and save money rather than going out to eat all the time. Unknown to us the refrigerator was not cooling and we lost our food because of it. Maintenance's solution was to unplug it for an hour and then plug it back in. We were expected to do dishes but no dish soap was provided. There were stains on the furniture and bedding, broken tiles in the bathroom, outlet covers were missing, chips and flaking paint walls, towel bars next to the toilet. In addition an incident happened that required us to call the police.MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded July 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 10, 2014</t>
+  </si>
+  <si>
+    <t>No traveler should experience black mold in the bathtub but we did. We booked the Suite with a kitchen so we could cook in and save money rather than going out to eat all the time. Unknown to us the refrigerator was not cooling and we lost our food because of it. Maintenance's solution was to unplug it for an hour and then plug it back in. We were expected to do dishes but no dish soap was provided. There were stains on the furniture and bedding, broken tiles in the bathroom, outlet covers were missing, chips and flaking paint walls, towel bars next to the toilet. In addition an incident happened that required us to call the police.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r210502013-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>210502013</t>
+  </si>
+  <si>
+    <t>06/15/2014</t>
+  </si>
+  <si>
+    <t>Not the best or the worst I've experienced.</t>
+  </si>
+  <si>
+    <t>Room had dried blood on sheets; spiders and webs on walls; hair on linens as well; tub was dingy stained. Refused my request for a room change, instead offered new sheets that I was expected to change. Location only had a chicken chain and barbeque setup in gas station, so quality eating involved putting in a distance drive. One employee besides a cleaning lady midday. Deserted and barren; off empty highway. Side entrance door was broken and unsecured.  MoreShow less</t>
+  </si>
+  <si>
+    <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 18, 2014</t>
+  </si>
+  <si>
+    <t>Room had dried blood on sheets; spiders and webs on walls; hair on linens as well; tub was dingy stained. Refused my request for a room change, instead offered new sheets that I was expected to change. Location only had a chicken chain and barbeque setup in gas station, so quality eating involved putting in a distance drive. One employee besides a cleaning lady midday. Deserted and barren; off empty highway. Side entrance door was broken and unsecured.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r209025988-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>209025988</t>
+  </si>
+  <si>
+    <t>06/05/2014</t>
+  </si>
+  <si>
+    <t>A nice location on the lake</t>
+  </si>
+  <si>
+    <t>I've stayed here on several occasions and each time the staff has been friendly and the location is very accessible from Rockwall or Garland/Mesquite area.  As I've said, i've stayed here before and i'll certainly stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2014</t>
+  </si>
+  <si>
+    <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded June 10, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2014</t>
+  </si>
+  <si>
+    <t>I've stayed here on several occasions and each time the staff has been friendly and the location is very accessible from Rockwall or Garland/Mesquite area.  As I've said, i've stayed here before and i'll certainly stay here again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r206376473-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>206376473</t>
+  </si>
+  <si>
+    <t>05/20/2014</t>
+  </si>
+  <si>
+    <t>Nice place on the lake</t>
+  </si>
+  <si>
+    <t>We stopped here after another long day of road-tripping heading east out of Dallas. All the lakeview rooms were taken but as we were not booking in advance we don't expect to get those rooms. There are a few restaurants and a fuel station close by which is handy. The rooms are clean and comfortable, surprisingly the road isn't noisy at all, in fact we couldn't hear it and our room was pretty close to it. The staff are friendly and easy going. Breakfast was included but we woke up late as per usual so I couldn't comment on the breakfast. Very good value for money.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded May 22, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 22, 2014</t>
+  </si>
+  <si>
+    <t>We stopped here after another long day of road-tripping heading east out of Dallas. All the lakeview rooms were taken but as we were not booking in advance we don't expect to get those rooms. There are a few restaurants and a fuel station close by which is handy. The rooms are clean and comfortable, surprisingly the road isn't noisy at all, in fact we couldn't hear it and our room was pretty close to it. The staff are friendly and easy going. Breakfast was included but we woke up late as per usual so I couldn't comment on the breakfast. Very good value for money.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r204862598-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
+  </si>
+  <si>
+    <t>204862598</t>
+  </si>
+  <si>
+    <t>05/09/2014</t>
+  </si>
+  <si>
+    <t>Good place overall..</t>
+  </si>
+  <si>
+    <t>The staff seemed a little questionable but they were ok... The room was nice had spent a few hours at the lake on a Sunday afternoon decided to get a room here it was enjoyable would stay again if in the areaMoreShow less</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded May 12, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 12, 2014</t>
+  </si>
+  <si>
+    <t>The staff seemed a little questionable but they were ok... The room was nice had spent a few hours at the lake on a Sunday afternoon decided to get a room here it was enjoyable would stay again if in the areaMore</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r204307698-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -1138,9 +1270,6 @@
     <t>This is a very nice Comfort Suites at a good price.  Room was comfortable and breakfast typical for roadway hotels.  Room was very bright due to all night service station area next to hotel.  Get a room on East side of hotel, not West.  When we checked in, clerk asked if we wanted wake up call and entered it into computer.  No wake up call came and we overslept making us late in leaving, which required rushing for later appointment.MoreShow less</t>
   </si>
   <si>
-    <t>May 2014</t>
-  </si>
-  <si>
     <t>CSLakeRayHubbard, Guest Relations Manager at Comfort Suites Lake Ray Hubbard, responded to this reviewResponded May 7, 2014</t>
   </si>
   <si>
@@ -1150,9 +1279,6 @@
     <t>This is a very nice Comfort Suites at a good price.  Room was comfortable and breakfast typical for roadway hotels.  Room was very bright due to all night service station area next to hotel.  Get a room on East side of hotel, not West.  When we checked in, clerk asked if we wanted wake up call and entered it into computer.  No wake up call came and we overslept making us late in leaving, which required rushing for later appointment.More</t>
   </si>
   <si>
-    <t>Roberta H</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r197724489-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1177,9 +1303,6 @@
     <t>My husband made reservations over the phone and requested they use some of our points to compensate for the room. He was assured on the phone yes that would be no problem. The stay was fine, at check out, they charged our card. WHAT GOOD ARE POINTSMore</t>
   </si>
   <si>
-    <t>TravelinCalifornia</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r188668435-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1207,9 +1330,6 @@
     <t>This is the second time we have stayed at the Comfort Suites.   Check in ran into a snag with the printer, but the gentleman was very efficient with getting us set up in a room.  Selection at the breakfast bar, was fruit, cereals, eggs, ham, yogurt, bagels, muffins, etc.  Rooms were nice and clean.   A  sofa and desk all provided us opportunities to eat and work some place other than by sitting on the beds.  OUTLETS!!!!! In this day and age with the vast amount of technology that my family travels with, it  is ALWAYs a plus to have places to plug in devices without having to unplug the clock and a lamp. THANK YOU!!!!!  The location is perfect.  You are within walking distance to Church's Chicken and Dickey's Barbecue Pit.More</t>
   </si>
   <si>
-    <t>bruinsooner</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r177538573-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1235,9 +1355,6 @@
   </si>
   <si>
     <t>We stayed here on 2 nights; going to and coming back from soutgeast Texas.  Reservations were made in advance; paid in the $60 range for a king suite.  Excellent value. The front desk people were outstanding; people-persons, for sure. The room was quiet; no road noise; it sits on I-30 in east Dallas suburb.  Our room, on both nights, faced the lake. Bed was very comfortable.  All equipment worked fine-TV, iron, hair dryer.  Breakfast was OK.  Hotel was neat and clean; nicely landscaped outside; parking was plentiful and well lit.  There are 3 floors and an elevator is available.More</t>
-  </si>
-  <si>
-    <t>Simon V</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r172117775-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
@@ -1275,9 +1392,6 @@
 Housekeeping was daily, although one maid decided to empty the contents of what...Please don't assume that because I have nothing good to say that I am simply whining. I travel a great deal on business and can honestly say that I have never stayed in a worse place.We arrived late at night and found the receptionist completely disinterested and it was almost like we were disturbing her from whatever she is doing on her computer (a task that apparently has taken her entire shift as every time we see her she is doing exactly the same). the other reception staff were more welcoming and friendly however. the same member of staff, when told of a laundry machine taking quarters and not providing a service, barely raised an eyebrow, let alone offer an apology or refund.Our rooms, although spacious were not of a good standard of repair. unpainted filler, cigarette burns in duvets, holes in curtains and what we found completely unacceptable was the presence of mould spores in the AC units and the unit in my room ejected water into the air when running.The most worrying aspect was the plastic bag tied to cover the smoke / fire detector in my room. when this point was raised, it was met with a blasé response and the previous occupant was blamed for bagging it off. this is a MAJOR safety issue and deserved a more concerned response.Housekeeping was daily, although one maid decided to empty the contents of what appeared to be the vacuum cleaner into my toilet and didn't even attempt to flush it.As an aside (and this is nothing to do with the hotel), the I-30 is a dangerous road. It is not safe to walk along or attempt to walk back from any local services. Driving is essential as taxis are highly unreliable. The town of Rockwall (3 miles east) has numerous hotels, much better amenities and is incredibly picturesque.More</t>
   </si>
   <si>
-    <t>Brad-Sandy</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r172088494-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1293,9 +1407,6 @@
     <t>Planned to stay in Rockwall but was told there were no rooms; they called around and got us in without much fuss.  Room was spacious, linens were clean; a little wear beginning to show on fixtures and furniture, but the bed was very good and firm.  Grounds needed policing, as litter and cigarette butts were all over.  Breakfast was quite nice, with sausage the first day and bacon the next - good little variety.  Breakfast area was terribly noisy, but management can't do much about rude guests.  Staff was friendly.  Did have to ask twice to have housekeeping straighten the room on the second day, but they did a good job.  Would stay again, definitely.More</t>
   </si>
   <si>
-    <t>Lee M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r170688080-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1320,9 +1431,6 @@
     <t>The hotel was clean and the staff was friendly and courteous .  The hotel provided breakfast and it was filling. It was a last minute decision to attend a family member's birthday party.The hotel was close and gave a discount to us as a group.More</t>
   </si>
   <si>
-    <t>ndgarza12</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r170520038-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1341,9 +1449,6 @@
     <t>I arrived really late and the receptionist was super nice. I was really tired but the room was the perfect haven to get some rest. Breakfast in the morning was also a delight!! It was a plus that this hotel was pet friendly. I would definitely stay again or recommend it to anyone!More</t>
   </si>
   <si>
-    <t>Tallgrass05</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r159344822-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1365,9 +1470,6 @@
     <t>I've stayed here several times when visiting family in the area, and stayed most recently for two nights in April 2013. The location is convenient to I-30, with the downside being there is usually constant traffic noise from the highway. Renovations continue. The good--big spacious bathrooms, very firm and comfortable king beds, decent price.The bad--highway noise, bed pillows are way too soft and provide no support.More</t>
   </si>
   <si>
-    <t>alison_c1304</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r154591512-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1389,9 +1491,6 @@
     <t>Be warned this hotel is being renovated.  I wish it had been noted on the website.  We would have selected a different hotel.  The fresh paint smell was very over whelming.  We ended up sleeping with the window open trying to get some fresh air in the room.  I will say that the painter/carpenters were very pleasant and respectful of our hours.  They worked a little later in the evening and didn't start on our floor until probably after 8.  They are making a lot of changes and updates.  I hope carpet replacement is on the list.  All that being said, the staff was very friendly and breakfast was hot a plentiful even at 8:30.  We will definitely consider this hotel in the future.More</t>
   </si>
   <si>
-    <t>Tighedog</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r153679744-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1410,9 +1509,6 @@
     <t>One of the best in the Choice Hotel chain. This one is currently being renovated but even with that the staff outperforms many others.  Truly a gem, thanks to the management staff for helping out to overcome some obstacles created by the renovation.  We will be back. More</t>
   </si>
   <si>
-    <t>Teebelle M</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r152056449-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1434,9 +1530,6 @@
     <t>Throughout our stay the personnel were very courteous and eager to please, always wearing smiles.  Everyone is neatly dressed and well pressed, showing pride in their appearance and in their jobs.  Our room was very clean and smelled wonderful.  The breakfast area was very clean and hot foods were plentiful, such a great assortment to choose from. We were in the area searching for a new home.  One was found and we required assistance to complete our purchase which they eagerly provided: high-speed internet access, printing and faxing services, even an envelope to mail executed documents.  We are platinum elite members of Comfort Suites and find this is definitely one of their fine locations.  Although we stay at Comfort Suites often, this is our first review.  Many thanks to the staff for an excellent job.More</t>
   </si>
   <si>
-    <t>reneein2art</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r150089147-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1494,9 +1587,6 @@
     <t>We stayed for the week while visiting family close by. The hotel was clean and has a caring staff.  A couple of times we pointed out small maintenance concerns, the one the could respond to right away was taken care of, however the other one will take some scheduling.  The room was comfortable, right down to having pillows a stomach sleeper can be comfortable with.  The room was spacious and worked well for us while traveling with our 2 small dogs.  Did I mention this is a pet friendly hotel?  The breakfast is your standard continental affair, nothing outstanding.  They have an outdoor pool, however with our winter stay and having colder weather we did not use it, it is well kept but a little noisy since it's exposure is right to the highway.  With all that said we plan to be back in the area, and with many hotels to choose from, we will stay here again.More</t>
   </si>
   <si>
-    <t>posey2000</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r139982911-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1524,9 +1614,6 @@
     <t>Spent the weekend at this wonderful lake front hotel with my girlfriend, the whole staff was more than pleasant and helpful, the room was very clean, the bed and pillows nice and comfortable. My first time staying in Rowlett but its won't be my last. Chet the front desk manager was great, and provided me with an excellent lake front view. Really enjoyed the visit to this town and near by Garland and Rockwall. Come and enjoy a great weekend get away at a reasonable price.More</t>
   </si>
   <si>
-    <t>Abbigale E</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133879625-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1545,9 +1632,6 @@
     <t>This hotel was SO dirty. I had my 7 month old daughter and my dog with me. Stains on carpet in entry as well as hallways and room. My first room, the couch cushions were on the floor and the bed was folded out. Found out it was broken. Moved to second room, pulled the comforter back to find yellow, brown and red stains all over the sheets. Asked to have a third room that was actually clean and I was given a room that smelled like an ashtray. I asked for a refund. The lady at the front desk, Jazmin, was very nice and helped me very much throughout this horrible process. We stay at comfort suites because they are always clean. I think we will stay at Hilton's from now on. More</t>
   </si>
   <si>
-    <t>travelcurrent</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133514438-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1575,9 +1659,6 @@
     <t>Not a fancy hotel but it is a decent place to stay if you just need somewhere to sleep. I have stayed here a few different times. The bed is comfortable and room is clean. The furniture and bathroom in the room are beginning to look a little worn (broken tile and a sad looking sleeper sofa). The hotel is right off I30 and Lake Ray Hubbard which makes this hotel very convenient.More</t>
   </si>
   <si>
-    <t>Jule J</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r133359436-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1599,9 +1680,6 @@
     <t>We were visiting family, and this hotel is close to our family.  Have stayed here several times.  Good rate.  Spoke with manager about the INCENSE smell in the elevator, and the gentlemen smoking the HOOKA by the pool.  He, of course cannot control his guests.More</t>
   </si>
   <si>
-    <t>jhth1234</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r131708290-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1644,9 +1722,6 @@
     <t>While visiting family in Texas, we stayed a night at Comfort Suites (since their guest room was being renovated).This hotel is average by all standards - from the room to the cleanliness to the breakfast buffet. It's right down the street from our family, which is why we selected it. The good news is I was able to get a room for $64 through the Priceline.com "Name your own price" feature. Otherwise a room was advertised on Comfort Suites' site at $80 a night. There certainly aren't any frills, but it's a fine place to stay for a night. Will we stay there again if we need a hotel in Rowlett? Sure!More</t>
   </si>
   <si>
-    <t>ESFord2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r119919904-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1668,9 +1743,6 @@
     <t>The hotel is in the process of being upgraded, bathrooms mainly from what I can tell. My wife would come back, which says alot. If it were at all unacceptable, she would not return. The rooms were comfortable. We had a view of the lake from our room. The staff was friendly both times we have stayed there. Will definately be staying there in the future.More</t>
   </si>
   <si>
-    <t>LMill2010</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r119232346-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1692,9 +1764,6 @@
     <t>HORRIBLE EXPERIENCE! The pictures on the website (above) are so nice ... wish I would have experienced "that" hotel. We stayed here for a few days while in town - upon arrival (about 11pm) we noticed that the side doors were unlocked ... that’s ok during the day but at 11pm on a Saturday night just off the highway?? Trash and food littered the hallways .... told the desk clerk the following morning about the filth and 24 hours later all of the debris was still in the hallways. Our room was missing the tv remote and seemed to have barely been cleaned before checking in. We put a sign on the door to please clean the room on day 2 - this never happen. In fact we asked the front desk to please have the room cleaned while we would be gone for the day - were assured this would be done ... upon returning to the room five hours later the room was still dirty. We travel a lot (family all around the country) and I have never – ever – experience a hotel so terrible. If you can stay somewhere else then we STRONGLY advise you do so. We have stayed at the LaQuinta in Rockwall several times and always had a very positive experience. I regret not having stayed there this past trip. Live and learn …..More</t>
   </si>
   <si>
-    <t>Hiker-Traveler-Skier</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r115444624-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1716,9 +1785,6 @@
     <t>The Hotel is located on 8701 E Interstate I-30 in Rowlett, Texas. As such it is easy to find/locate. However, being next to the highway made this stay noisy with traffic. The room was comforatable and the AC worked great (very hot and humid outside). The staff was friendly and helpful (provided information &amp; location of places to eat and visit). We were on the 2nd floor where the ice maker was not working (had to go to the 1st floor for this). Needed to use the hotel computer (separate room for quests). Computer was very slow and had some kind of virus rendering it useless. Advised the front desk. They stated they would look into this - but was not operational by the time we left (3 nights). Did not use the pool - so no comment on this. Not may services (shopping or dining) near the hotel. You need to go into the town of Rowlett for this, which is 10 minutes travel from the hotel. Would stay here again if no other choices are available.More</t>
   </si>
   <si>
-    <t>texaswillie</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r83206506-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1740,9 +1806,6 @@
     <t>This Comfort Suites is beginning to reflect its age. The lobby and dining areas were clean when we entered the hotel The hotel desk clerk had difficulty with the computer during the check in. She remarkd this happens quite often. The parking lot could have used some "litter pickup".The room was large---contray to their ads, this is not a suite but rather a large room. The decorations are dated and need to be updated. The old TV set (tube type) had apparently been dropped and the entire top left of the case was broken. The TV however sitll worked. The picture was not all that great mainly due to the age of the TV. The airconditioning worked great. There was some mold around the bath tub and this is just due to poor cleaning. The wallpaper and borders are in bad need of updating. The carpet was fairly clean as was the bathroom floor. There are ample towels and washclothes , however a "cutsy" little remainer that their towels are an often sought items and were for sale. I would not want to pay $15.00 for a well worn towel.We had to leave the next morning before breakfast so we can't comment on the breakfast. We received our bill for the stay and there was added $1.00 for the room safe. At no time were we advised there was a room safe and there would be a charge for it....This Comfort Suites is beginning to reflect its age. The lobby and dining areas were clean when we entered the hotel The hotel desk clerk had difficulty with the computer during the check in. She remarkd this happens quite often. The parking lot could have used some "litter pickup".The room was large---contray to their ads, this is not a suite but rather a large room. The decorations are dated and need to be updated. The old TV set (tube type) had apparently been dropped and the entire top left of the case was broken. The TV however sitll worked. The picture was not all that great mainly due to the age of the TV. The airconditioning worked great. There was some mold around the bath tub and this is just due to poor cleaning. The wallpaper and borders are in bad need of updating. The carpet was fairly clean as was the bathroom floor. There are ample towels and washclothes , however a "cutsy" little remainer that their towels are an often sought items and were for sale. I would not want to pay $15.00 for a well worn towel.We had to leave the next morning before breakfast so we can't comment on the breakfast. We received our bill for the stay and there was added $1.00 for the room safe. At no time were we advised there was a room safe and there would be a charge for it. We had no use for the safe on this stay. Just another one of those annoying extra charges that we should have checked pout at the time we checked in.More</t>
   </si>
   <si>
-    <t>miquant</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r49862080-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1761,9 +1824,6 @@
     <t>November 2009</t>
   </si>
   <si>
-    <t>IAMplanthugger</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r24284721-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1782,9 +1842,6 @@
     <t>January 2009</t>
   </si>
   <si>
-    <t>ldygant</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r18849337-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1806,9 +1863,6 @@
     <t>Ok I must admit,,, I was a little upset because I had booked three nights and had a confirmation but when I arrived they only had me down for one. I was there for a wedding and supposedly there was another wedding (other than the one I was attending) that was scheduled therefore the rooms were booked. When I explained to the manager my issue, they researched it and confirmed that I did infact book three nights and for my inconvinence they were able to salvage an additional night for me and even included it for free!!!! The hotel staff were extremely nice and helpful. I was always met with a smile when I went to either the front desk or the dining area. The breakfast was more than sufficent each morning we were there and the bed was clean and comfortable. The attendants were helpful in making sure we were provided with clean linen and towels.  The only complaint is that I still didnt get my third night but they did all they could to rectify the situation. I would stay again.More</t>
   </si>
   <si>
-    <t>NashGal</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r16722200-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1827,9 +1881,6 @@
     <t>May 2008</t>
   </si>
   <si>
-    <t>roadwarrior130</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r8111025-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1851,9 +1902,6 @@
     <t>We stayed here during the July 4 holiday, and had a wonderful time. As soon as we got to our room on the 2nd floor, we knew we had made a great choice - it was huge, and had a beautiful view of the lake. Breakfast included scrambled eggs, ham, blueberry muffins and gourmet coffee - delicious! The kids enjoyed swimming in the outdoor pool when it got real hot in the afternoon.One of the highlights of our stay was a spectacular fireworks show launched right over the lake, which we could watch from the window of our hotel room. The staff was very nice and friendly, and they helped me with printing some documents on my computer. The only negative thing was that the ice machine on our floor was not working, so I had to go to another floor to get ice. We will definitely stay here again.More</t>
   </si>
   <si>
-    <t>wearytraveler07</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r8072079-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1869,9 +1917,6 @@
     <t>This is a horribly maintained facility. Old, limp, dingy and torn towels, ripped bed skirt, sheets that look like they've been slept in already. Other areas of the hotel are dirty and unkempt. Carpets in halls dirty and torn, chairs in breakfast area stained and dirty. Management should feel ashamed, as the actual furnishings in the rooms are more than adequate and this could actually be an excellent accommodation if they replaced towels, bed linens, bedspreads ... and did some very serious house-cleaning!!! Never again for us, NEVER!  In fact, we booked for two nights and stayed only one ... one too many!</t>
   </si>
   <si>
-    <t>Shell71Friendswood</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r7868339-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1893,9 +1938,6 @@
     <t>Checked in on a Thursday for a family graduation (3 rooms of family) - 6 kids excited about swimming - well...told "pool broken - gate latch not up to code will be fixed Friday" - Friday my sister told "pump problem" - so we figured they were lying - they finally admitted "pool just not cleaned for season" - Saturday morning - my Dad saw a pool guy cleaning pool - A HOTEL GUEST PAID TO HAVE IT CLEANED so her grandkids could swim...the pool guy said - "this hotel will not pay for pool to be cleaned or even mow their lawn" - we can tell...also - our lock on room broken whole weekend - had to have manager come open with a coat hangar and string everytime we entered the room ("no other room to give us")...owner really needs to keep up with maintaining this hotel...so many guests were screaming at manager...and don't advertise a pool - if you don't keep up with it - and it is solid green!   New Hilton coming soon to this lake...that is where we will be next time!  Be warned!More</t>
   </si>
   <si>
-    <t>trixie11</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r6552716-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1914,9 +1956,6 @@
     <t>December 2006</t>
   </si>
   <si>
-    <t>AUTUMNSUN</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r5602122-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1938,9 +1977,6 @@
     <t>I picked this hotel because it was a good midway point to stop at on our trip. Also it was easy to get in and out of versus going into busy Dallas for the night. First off it was clean! Rare now a days in hotels. It seems to be family owned and run . This might explain why everyone was so friendly and the place well run. They were on top of things. The room was big and nicely decorated. Everything looked new. The beds felt like they had an eggcrate mattress top. I slept fine. I payed and extra $10.00 dollars a night for a room with a jacuzzi tub in the bathroom. MY kids enjoyed it. LOL! It was very loud though. I was worried it was going to wake up the whole hotel. We arrived at 9:30 at night and my kids wanted to go swimming. By the time we got down to the pool it was 10:00 and thats when it closes. They were nice enough to leave it open so my children could swim for 30 minutes. (quietly of course) The breakfast in the morning had your tipical continental fare but also included scrambled eggs, hotdogs and waffles. Yes I said hot dogs. I dont know if they ran out of sausage or what but they had hotdogs cooked and sliced up in a warmer. The eggs looked yucky as well. The highlite was...I picked this hotel because it was a good midway point to stop at on our trip. Also it was easy to get in and out of versus going into busy Dallas for the night. First off it was clean! Rare now a days in hotels. It seems to be family owned and run . This might explain why everyone was so friendly and the place well run. They were on top of things. The room was big and nicely decorated. Everything looked new. The beds felt like they had an eggcrate mattress top. I slept fine. I payed and extra $10.00 dollars a night for a room with a jacuzzi tub in the bathroom. MY kids enjoyed it. LOL! It was very loud though. I was worried it was going to wake up the whole hotel. We arrived at 9:30 at night and my kids wanted to go swimming. By the time we got down to the pool it was 10:00 and thats when it closes. They were nice enough to leave it open so my children could swim for 30 minutes. (quietly of course) The breakfast in the morning had your tipical continental fare but also included scrambled eggs, hotdogs and waffles. Yes I said hot dogs. I dont know if they ran out of sausage or what but they had hotdogs cooked and sliced up in a warmer. The eggs looked yucky as well. The highlite was the belgian waffles. They had a waffle maker and pre-measured cups with batter and you made them fresh your-self. It was good! I was happy with my choice of hotels and would gladly stay here again!More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r3426019-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1959,9 +1995,6 @@
     <t>April 2005</t>
   </si>
   <si>
-    <t>zina</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r2999280-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
   </si>
   <si>
@@ -1978,108 +2011,6 @@
   </si>
   <si>
     <t>We stayed here for one night and thoroghly enjoyed our room.  We stayed here New Year's Eve and took advantage of all the amenities.  We had  king bed with sleeper sofa, jacuzzi tub, cont breakfast and found the room to be great.  There was plenty of room to move around.  The bathroom was large and the jacuzzi was great.  The room had a ceiling fan above the bed which was quiet and moved that Texas air around.  The breakfast was quite nice...standard continental fare plus a waffle making station-it was yummy.  The manager on duty was pretty much taking care of everything and seemed to do a great job at it.  We would stay here again-nice location, comfy beds and roomy rooms.More</t>
-  </si>
-  <si>
-    <t>Henryetta F</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r579097800-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
-  </si>
-  <si>
-    <t>579097800</t>
-  </si>
-  <si>
-    <t>05/09/2018</t>
-  </si>
-  <si>
-    <t>Anonymous</t>
-  </si>
-  <si>
-    <t>The staff is professional, lazy, and not friendly at all.. The layout bed. was filthy and dirty and i would not sleep on mattress because of filth..They never accommodated us on room..I will never stay at this hotel ever not worth it</t>
-  </si>
-  <si>
-    <t>May 2018</t>
-  </si>
-  <si>
-    <t>Summer D</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r549620400-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
-  </si>
-  <si>
-    <t>549620400</t>
-  </si>
-  <si>
-    <t>12/27/2017</t>
-  </si>
-  <si>
-    <t>Christmas Eve</t>
-  </si>
-  <si>
-    <t>Rented the room to have my son and his girlfriend near by for festivities on Christmas morning.  The front desk staff was quite rude but we managed. Room was clean and the bed was comfortable. When checking out the front desk staff was extremely hospitable.</t>
-  </si>
-  <si>
-    <t>December 2017</t>
-  </si>
-  <si>
-    <t>373janiez</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r543819159-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
-  </si>
-  <si>
-    <t>543819159</t>
-  </si>
-  <si>
-    <t>11/28/2017</t>
-  </si>
-  <si>
-    <t>NEEDS MAJOR RENOVATIONS</t>
-  </si>
-  <si>
-    <t>The staff is great at this hotel , no complaints about that. But the hotel itself really needs some major updates. As soon as we opened the door we got a moldy / musty smell. Portions of the bathroom wall had been removed and a poor job of patching up had been done. There were water stains on the ceiling as well. The pics used are not accurate and very misleading. The location is great but I would not stay here again.</t>
-  </si>
-  <si>
-    <t>November 2017</t>
-  </si>
-  <si>
-    <t>Sage2724</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541647396-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
-  </si>
-  <si>
-    <t>541647396</t>
-  </si>
-  <si>
-    <t>11/17/2017</t>
-  </si>
-  <si>
-    <t>Great value, great motel</t>
-  </si>
-  <si>
-    <t>We stayed here for 6 nights. There is great free parking. It is easily accessible . The staff were so helpful and friendly. Our room was immaculately clean, bed comfortable , linen fresh . The washing machine and dryer are great. Breakfast was simple and very tasty. Some  reviews have not been good but our experience was very good .</t>
-  </si>
-  <si>
-    <t>Gladwin G</t>
-  </si>
-  <si>
-    <t>https://www.tripadvisor.com/ShowUserReviews-g56587-d225675-r541028215-Comfort_Suites_Lake_Ray_Hubbard-Rowlett_Texas.html</t>
-  </si>
-  <si>
-    <t>541028215</t>
-  </si>
-  <si>
-    <t>11/14/2017</t>
-  </si>
-  <si>
-    <t>Absolutely Terrible</t>
-  </si>
-  <si>
-    <t>This is probably one of the worst hotels I've ever stayed at in my entire life. I have stayed in hostels and motels in third world countries in the African continent that were a lot cleaner and had better customer service than this place. I checked in at 3:45 PM only to find out that my room was still not ready, and housekeeping was rushing to get it done. The furniture was broken, the iron board had stains all over it and the shower barely had any hot water. The breakfast is very minimal, and the hotel itself needs a major renovation/facelift. Sad part is, they charge as much as some of the newer and better hotels in the area - I'm not sure why. Do yourself a favor and find yourself somewhere else to stay, even if you had to pay a little more. Trust me, it'll be worth it. MoreShow less</t>
-  </si>
-  <si>
-    <t>This is probably one of the worst hotels I've ever stayed at in my entire life. I have stayed in hostels and motels in third world countries in the African continent that were a lot cleaner and had better customer service than this place. I checked in at 3:45 PM only to find out that my room was still not ready, and housekeeping was rushing to get it done. The furniture was broken, the iron board had stains all over it and the shower barely had any hot water. The breakfast is very minimal, and the hotel itself needs a major renovation/facelift. Sad part is, they charge as much as some of the newer and better hotels in the area - I'm not sure why. Do yourself a favor and find yourself somewhere else to stay, even if you had to pay a little more. Trust me, it'll be worth it. More</t>
   </si>
 </sst>
 </file>
@@ -2582,112 +2513,100 @@
       <c r="A2" t="n">
         <v>41069</v>
       </c>
-      <c r="B2" t="n">
-        <v>15820</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>43</v>
+      </c>
+      <c r="F2" t="s">
         <v>44</v>
       </c>
-      <c r="F2" t="s">
-        <v>45</v>
-      </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H2" t="s">
+        <v>46</v>
+      </c>
+      <c r="I2" t="s">
         <v>47</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>48</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>49</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>50</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
         <v>51</v>
       </c>
-      <c r="M2" t="n">
-        <v>5</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>52</v>
-      </c>
-      <c r="O2" t="s">
-        <v>53</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
-      <c r="R2" t="n">
-        <v>5</v>
-      </c>
+      <c r="R2" t="s"/>
       <c r="S2" t="s"/>
       <c r="T2" t="s"/>
-      <c r="U2" t="n">
-        <v>5</v>
-      </c>
+      <c r="U2" t="s"/>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>41069</v>
       </c>
-      <c r="B3" t="n">
-        <v>125508</v>
-      </c>
-      <c r="C3" t="s">
-        <v>54</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>45</v>
+      </c>
+      <c r="H3" t="s">
+        <v>46</v>
+      </c>
+      <c r="I3" t="s">
         <v>55</v>
       </c>
-      <c r="G3" t="s">
-        <v>46</v>
-      </c>
-      <c r="H3" t="s">
-        <v>47</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="K3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="L3" t="s">
-        <v>59</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
         <v>60</v>
-      </c>
-      <c r="O3" t="s">
-        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="s"/>
@@ -2701,54 +2620,50 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>41069</v>
       </c>
-      <c r="B4" t="n">
-        <v>125509</v>
-      </c>
-      <c r="C4" t="s">
-        <v>63</v>
-      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>45</v>
+      </c>
+      <c r="H4" t="s">
+        <v>46</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="G4" t="s">
-        <v>46</v>
-      </c>
-      <c r="H4" t="s">
-        <v>47</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="J4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="K4" t="s">
-        <v>67</v>
-      </c>
-      <c r="L4" t="s">
-        <v>68</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>69</v>
-      </c>
       <c r="O4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -2762,66 +2677,60 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>41069</v>
       </c>
-      <c r="B5" t="n">
-        <v>125510</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>45</v>
+      </c>
+      <c r="H5" t="s">
+        <v>46</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
         <v>70</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>44</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>71</v>
-      </c>
-      <c r="G5" t="s">
-        <v>46</v>
-      </c>
-      <c r="H5" t="s">
-        <v>47</v>
-      </c>
-      <c r="I5" t="s">
-        <v>72</v>
-      </c>
-      <c r="J5" t="s">
-        <v>73</v>
-      </c>
-      <c r="K5" t="s">
-        <v>74</v>
-      </c>
-      <c r="L5" t="s">
-        <v>75</v>
       </c>
       <c r="M5" t="n">
         <v>2</v>
       </c>
       <c r="N5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="O5" t="s">
-        <v>61</v>
-      </c>
-      <c r="P5" t="n">
-        <v>2</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
       <c r="R5" t="s"/>
       <c r="S5" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T5" t="s"/>
       <c r="U5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -2829,51 +2738,51 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>41069</v>
       </c>
-      <c r="B6" t="n">
-        <v>12584</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>43</v>
+      </c>
+      <c r="F6" t="s">
+        <v>73</v>
+      </c>
+      <c r="G6" t="s">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s">
+        <v>46</v>
+      </c>
+      <c r="I6" t="s">
+        <v>74</v>
+      </c>
+      <c r="J6" t="s">
+        <v>75</v>
+      </c>
+      <c r="K6" t="s">
+        <v>76</v>
+      </c>
+      <c r="L6" t="s">
         <v>77</v>
       </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-      <c r="E6" t="s">
-        <v>44</v>
-      </c>
-      <c r="F6" t="s">
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
+      <c r="N6" t="s">
+        <v>72</v>
+      </c>
+      <c r="O6" t="s">
         <v>78</v>
       </c>
-      <c r="G6" t="s">
-        <v>46</v>
-      </c>
-      <c r="H6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I6" t="s">
-        <v>79</v>
-      </c>
-      <c r="J6" t="s">
-        <v>80</v>
-      </c>
-      <c r="K6" t="s">
-        <v>81</v>
-      </c>
-      <c r="L6" t="s">
-        <v>82</v>
-      </c>
-      <c r="M6" t="n">
-        <v>1</v>
-      </c>
-      <c r="N6" t="s"/>
-      <c r="O6" t="s"/>
       <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
@@ -2886,54 +2795,50 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>41069</v>
       </c>
-      <c r="B7" t="n">
-        <v>125511</v>
-      </c>
-      <c r="C7" t="s">
-        <v>84</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F7" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I7" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="J7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K7" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="L7" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="M7" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N7" t="s">
-        <v>90</v>
+        <v>72</v>
       </c>
       <c r="O7" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P7" t="s"/>
       <c r="Q7" t="s"/>
@@ -2947,45 +2852,41 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>41069</v>
       </c>
-      <c r="B8" t="n">
-        <v>125512</v>
-      </c>
-      <c r="C8" t="s">
-        <v>92</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F8" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I8" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="J8" t="s">
         <v>87</v>
       </c>
       <c r="K8" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="L8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="M8" t="n">
         <v>5</v>
@@ -2994,68 +2895,68 @@
         <v>90</v>
       </c>
       <c r="O8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="R8" t="n">
+        <v>5</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>41069</v>
       </c>
-      <c r="B9" t="n">
-        <v>125513</v>
-      </c>
-      <c r="C9" t="s">
-        <v>97</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F9" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I9" t="s">
-        <v>99</v>
+        <v>92</v>
       </c>
       <c r="J9" t="s">
-        <v>100</v>
+        <v>93</v>
       </c>
       <c r="K9" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="L9" t="s">
-        <v>102</v>
+        <v>95</v>
       </c>
       <c r="M9" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N9" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="O9" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -3069,330 +2970,280 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>41069</v>
       </c>
-      <c r="B10" t="n">
-        <v>42697</v>
-      </c>
-      <c r="C10" t="s">
-        <v>104</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F10" t="s">
-        <v>105</v>
+        <v>98</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I10" t="s">
-        <v>106</v>
+        <v>99</v>
       </c>
       <c r="J10" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
       <c r="K10" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
       <c r="L10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
       <c r="O10" t="s">
-        <v>53</v>
-      </c>
-      <c r="P10" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
       <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>41069</v>
       </c>
-      <c r="B11" t="n">
-        <v>5914</v>
-      </c>
-      <c r="C11" t="s">
-        <v>111</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I11" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="J11" t="s">
-        <v>114</v>
+        <v>106</v>
       </c>
       <c r="K11" t="s">
-        <v>115</v>
+        <v>107</v>
       </c>
       <c r="L11" t="s">
-        <v>116</v>
+        <v>108</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="O11" t="s">
-        <v>53</v>
-      </c>
-      <c r="P11" t="s"/>
-      <c r="Q11" t="n">
-        <v>4</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P11" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q11" t="s"/>
       <c r="R11" t="s"/>
-      <c r="S11" t="s"/>
+      <c r="S11" t="n">
+        <v>4</v>
+      </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s">
-        <v>118</v>
-      </c>
-      <c r="X11" t="s">
-        <v>119</v>
-      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>120</v>
+        <v>109</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>41069</v>
       </c>
-      <c r="B12" t="n">
-        <v>125514</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>110</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>111</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
+        <v>112</v>
       </c>
       <c r="K12" t="s">
-        <v>125</v>
+        <v>113</v>
       </c>
       <c r="L12" t="s">
-        <v>126</v>
+        <v>114</v>
       </c>
       <c r="M12" t="n">
-        <v>2</v>
-      </c>
-      <c r="N12" t="s">
-        <v>117</v>
-      </c>
-      <c r="O12" t="s">
-        <v>53</v>
-      </c>
-      <c r="P12" t="n">
-        <v>2</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N12" t="s"/>
+      <c r="O12" t="s"/>
+      <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
       <c r="R12" t="s"/>
       <c r="S12" t="s"/>
       <c r="T12" t="s"/>
-      <c r="U12" t="n">
-        <v>1</v>
-      </c>
+      <c r="U12" t="s"/>
       <c r="V12" t="n">
         <v>0</v>
       </c>
-      <c r="W12" t="s">
-        <v>127</v>
-      </c>
-      <c r="X12" t="s">
-        <v>128</v>
-      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>129</v>
+        <v>115</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>41069</v>
       </c>
-      <c r="B13" t="n">
-        <v>125515</v>
-      </c>
-      <c r="C13" t="s">
-        <v>130</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I13" t="s">
-        <v>132</v>
+        <v>117</v>
       </c>
       <c r="J13" t="s">
-        <v>133</v>
+        <v>118</v>
       </c>
       <c r="K13" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="L13" t="s">
-        <v>135</v>
+        <v>120</v>
       </c>
       <c r="M13" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N13" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="O13" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P13" t="s"/>
-      <c r="Q13" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q13" t="s"/>
       <c r="R13" t="s"/>
-      <c r="S13" t="n">
-        <v>4</v>
-      </c>
+      <c r="S13" t="s"/>
       <c r="T13" t="s"/>
-      <c r="U13" t="n">
-        <v>4</v>
-      </c>
+      <c r="U13" t="s"/>
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s">
-        <v>136</v>
-      </c>
-      <c r="X13" t="s">
-        <v>137</v>
-      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
       <c r="Y13" t="s">
-        <v>138</v>
+        <v>122</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>41069</v>
       </c>
-      <c r="B14" t="n">
-        <v>125516</v>
-      </c>
-      <c r="C14" t="s">
-        <v>139</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>140</v>
+        <v>123</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I14" t="s">
-        <v>141</v>
+        <v>124</v>
       </c>
       <c r="J14" t="s">
-        <v>142</v>
+        <v>118</v>
       </c>
       <c r="K14" t="s">
-        <v>143</v>
+        <v>125</v>
       </c>
       <c r="L14" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="M14" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N14" t="s">
-        <v>145</v>
+        <v>121</v>
       </c>
       <c r="O14" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="P14" t="s"/>
       <c r="Q14" t="s"/>
@@ -3403,61 +3254,53 @@
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s">
-        <v>147</v>
-      </c>
-      <c r="X14" t="s">
-        <v>148</v>
-      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>149</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>41069</v>
       </c>
-      <c r="B15" t="n">
-        <v>2524</v>
-      </c>
-      <c r="C15" t="s">
-        <v>150</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>151</v>
+        <v>127</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I15" t="s">
-        <v>152</v>
+        <v>128</v>
       </c>
       <c r="J15" t="s">
-        <v>153</v>
+        <v>129</v>
       </c>
       <c r="K15" t="s">
-        <v>154</v>
+        <v>130</v>
       </c>
       <c r="L15" t="s">
-        <v>155</v>
+        <v>131</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N15" t="s">
-        <v>156</v>
+        <v>132</v>
       </c>
       <c r="O15" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
@@ -3468,623 +3311,565 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s">
-        <v>157</v>
-      </c>
-      <c r="X15" t="s">
-        <v>158</v>
-      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>159</v>
+        <v>131</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>41069</v>
       </c>
-      <c r="B16" t="n">
-        <v>125517</v>
-      </c>
-      <c r="C16" t="s">
-        <v>160</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>161</v>
+        <v>133</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I16" t="s">
-        <v>162</v>
+        <v>134</v>
       </c>
       <c r="J16" t="s">
-        <v>163</v>
+        <v>135</v>
       </c>
       <c r="K16" t="s">
-        <v>164</v>
+        <v>136</v>
       </c>
       <c r="L16" t="s">
-        <v>165</v>
+        <v>137</v>
       </c>
       <c r="M16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N16" t="s">
-        <v>166</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
-      </c>
-      <c r="P16" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
       <c r="Q16" t="s"/>
-      <c r="R16" t="s"/>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
       <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s">
-        <v>167</v>
-      </c>
-      <c r="X16" t="s">
-        <v>168</v>
-      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>169</v>
+        <v>137</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>41069</v>
       </c>
-      <c r="B17" t="n">
-        <v>125518</v>
-      </c>
-      <c r="C17" t="s">
-        <v>170</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>171</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I17" t="s">
-        <v>172</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>173</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>174</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>175</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>4</v>
       </c>
       <c r="N17" t="s">
-        <v>166</v>
+        <v>144</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="s"/>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="s"/>
+      <c r="U17" t="n">
+        <v>4</v>
+      </c>
       <c r="V17" t="n">
         <v>0</v>
       </c>
       <c r="W17" t="s">
-        <v>176</v>
+        <v>145</v>
       </c>
       <c r="X17" t="s">
-        <v>177</v>
+        <v>146</v>
       </c>
       <c r="Y17" t="s">
-        <v>178</v>
+        <v>147</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>41069</v>
       </c>
-      <c r="B18" t="n">
-        <v>125519</v>
-      </c>
-      <c r="C18" t="s">
-        <v>179</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>180</v>
+        <v>148</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I18" t="s">
-        <v>181</v>
+        <v>149</v>
       </c>
       <c r="J18" t="s">
-        <v>182</v>
+        <v>150</v>
       </c>
       <c r="K18" t="s">
-        <v>183</v>
+        <v>151</v>
       </c>
       <c r="L18" t="s">
-        <v>184</v>
+        <v>152</v>
       </c>
       <c r="M18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N18" t="s">
-        <v>185</v>
+        <v>144</v>
       </c>
       <c r="O18" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q18" t="n">
-        <v>4</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="Q18" t="s"/>
       <c r="R18" t="s"/>
       <c r="S18" t="s"/>
       <c r="T18" t="s"/>
       <c r="U18" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
       </c>
       <c r="W18" t="s">
-        <v>186</v>
+        <v>153</v>
       </c>
       <c r="X18" t="s">
-        <v>187</v>
+        <v>154</v>
       </c>
       <c r="Y18" t="s">
-        <v>188</v>
+        <v>155</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>41069</v>
       </c>
-      <c r="B19" t="n">
-        <v>125520</v>
-      </c>
-      <c r="C19" t="s">
-        <v>189</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I19" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="J19" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
       <c r="K19" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="L19" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
       <c r="M19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>195</v>
+        <v>144</v>
       </c>
       <c r="O19" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P19" t="s"/>
       <c r="Q19" t="n">
-        <v>5</v>
-      </c>
-      <c r="R19" t="n">
-        <v>5</v>
-      </c>
-      <c r="S19" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
       </c>
       <c r="W19" t="s">
-        <v>196</v>
+        <v>161</v>
       </c>
       <c r="X19" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="Y19" t="s">
-        <v>198</v>
+        <v>163</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>41069</v>
       </c>
-      <c r="B20" t="n">
-        <v>2984</v>
-      </c>
-      <c r="C20" t="s">
-        <v>199</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>200</v>
+        <v>164</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I20" t="s">
-        <v>201</v>
+        <v>165</v>
       </c>
       <c r="J20" t="s">
-        <v>202</v>
+        <v>166</v>
       </c>
       <c r="K20" t="s">
-        <v>203</v>
+        <v>167</v>
       </c>
       <c r="L20" t="s">
-        <v>204</v>
+        <v>168</v>
       </c>
       <c r="M20" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>205</v>
+        <v>169</v>
       </c>
       <c r="O20" t="s">
-        <v>146</v>
-      </c>
-      <c r="P20" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="n">
-        <v>4</v>
-      </c>
+      <c r="R20" t="s"/>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="n">
-        <v>4</v>
-      </c>
+      <c r="U20" t="s"/>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="s">
-        <v>206</v>
+        <v>170</v>
       </c>
       <c r="X20" t="s">
-        <v>207</v>
+        <v>171</v>
       </c>
       <c r="Y20" t="s">
-        <v>208</v>
+        <v>172</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>41069</v>
       </c>
-      <c r="B21" t="n">
-        <v>125521</v>
-      </c>
-      <c r="C21" t="s">
-        <v>209</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>210</v>
+        <v>173</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I21" t="s">
-        <v>211</v>
+        <v>174</v>
       </c>
       <c r="J21" t="s">
-        <v>212</v>
+        <v>175</v>
       </c>
       <c r="K21" t="s">
-        <v>213</v>
+        <v>176</v>
       </c>
       <c r="L21" t="s">
-        <v>214</v>
+        <v>177</v>
       </c>
       <c r="M21" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="O21" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="P21" t="s"/>
       <c r="Q21" t="s"/>
       <c r="R21" t="s"/>
-      <c r="S21" t="n">
-        <v>5</v>
-      </c>
+      <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="n">
-        <v>5</v>
-      </c>
+      <c r="U21" t="s"/>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s">
-        <v>215</v>
+        <v>179</v>
       </c>
       <c r="X21" t="s">
-        <v>216</v>
+        <v>180</v>
       </c>
       <c r="Y21" t="s">
-        <v>217</v>
+        <v>181</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>41069</v>
       </c>
-      <c r="B22" t="n">
-        <v>125522</v>
-      </c>
-      <c r="C22" t="s">
-        <v>218</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F22" t="s">
-        <v>219</v>
+        <v>182</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I22" t="s">
-        <v>220</v>
+        <v>183</v>
       </c>
       <c r="J22" t="s">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="K22" t="s">
-        <v>222</v>
+        <v>185</v>
       </c>
       <c r="L22" t="s">
-        <v>223</v>
+        <v>186</v>
       </c>
       <c r="M22" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N22" t="s">
-        <v>205</v>
+        <v>187</v>
       </c>
       <c r="O22" t="s">
-        <v>53</v>
-      </c>
-      <c r="P22" t="n">
-        <v>3</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P22" t="s"/>
       <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
-      <c r="S22" t="n">
-        <v>4</v>
-      </c>
+      <c r="S22" t="s"/>
       <c r="T22" t="s"/>
-      <c r="U22" t="n">
-        <v>3</v>
-      </c>
+      <c r="U22" t="s"/>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s">
-        <v>224</v>
+        <v>188</v>
       </c>
       <c r="X22" t="s">
-        <v>225</v>
+        <v>189</v>
       </c>
       <c r="Y22" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>41069</v>
       </c>
-      <c r="B23" t="n">
-        <v>125523</v>
-      </c>
-      <c r="C23" t="s">
-        <v>227</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F23" t="s">
-        <v>228</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I23" t="s">
-        <v>229</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>230</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>231</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>232</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>233</v>
+        <v>187</v>
       </c>
       <c r="O23" t="s">
-        <v>234</v>
+        <v>52</v>
       </c>
       <c r="P23" t="s"/>
-      <c r="Q23" t="n">
-        <v>1</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1</v>
-      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
       <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>1</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
       <c r="W23" t="s">
-        <v>235</v>
+        <v>196</v>
       </c>
       <c r="X23" t="s">
-        <v>236</v>
+        <v>197</v>
       </c>
       <c r="Y23" t="s">
-        <v>237</v>
+        <v>198</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>41069</v>
       </c>
-      <c r="B24" t="n">
-        <v>17281</v>
-      </c>
-      <c r="C24" t="s">
-        <v>238</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>239</v>
+        <v>199</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I24" t="s">
-        <v>240</v>
+        <v>200</v>
       </c>
       <c r="J24" t="s">
-        <v>241</v>
+        <v>201</v>
       </c>
       <c r="K24" t="s">
-        <v>242</v>
+        <v>202</v>
       </c>
       <c r="L24" t="s">
-        <v>243</v>
+        <v>203</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>244</v>
+        <v>204</v>
       </c>
       <c r="O24" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q24" t="s"/>
-      <c r="R24" t="n">
-        <v>4</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
@@ -4094,13 +3879,13 @@
         <v>0</v>
       </c>
       <c r="W24" t="s">
-        <v>245</v>
+        <v>205</v>
       </c>
       <c r="X24" t="s">
-        <v>246</v>
+        <v>206</v>
       </c>
       <c r="Y24" t="s">
-        <v>247</v>
+        <v>207</v>
       </c>
     </row>
     <row r="25">
@@ -4113,575 +3898,565 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F25" t="s">
-        <v>248</v>
+        <v>208</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I25" t="s">
-        <v>249</v>
+        <v>209</v>
       </c>
       <c r="J25" t="s">
-        <v>250</v>
+        <v>210</v>
       </c>
       <c r="K25" t="s">
-        <v>251</v>
+        <v>211</v>
       </c>
       <c r="L25" t="s">
-        <v>252</v>
+        <v>212</v>
       </c>
       <c r="M25" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N25" t="s">
-        <v>253</v>
+        <v>213</v>
       </c>
       <c r="O25" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="s"/>
-      <c r="R25" t="s"/>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>5</v>
+      </c>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="s"/>
+      <c r="U25" t="n">
+        <v>5</v>
+      </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="X25" t="s">
-        <v>246</v>
+        <v>215</v>
       </c>
       <c r="Y25" t="s">
-        <v>254</v>
+        <v>216</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
         <v>41069</v>
       </c>
-      <c r="B26" t="n">
-        <v>3101</v>
-      </c>
-      <c r="C26" t="s">
-        <v>255</v>
-      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
       <c r="D26" t="n">
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F26" t="s">
-        <v>256</v>
+        <v>217</v>
       </c>
       <c r="G26" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H26" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I26" t="s">
-        <v>257</v>
+        <v>218</v>
       </c>
       <c r="J26" t="s">
-        <v>258</v>
+        <v>219</v>
       </c>
       <c r="K26" t="s">
-        <v>259</v>
+        <v>220</v>
       </c>
       <c r="L26" t="s">
-        <v>260</v>
+        <v>221</v>
       </c>
       <c r="M26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>261</v>
+        <v>222</v>
       </c>
       <c r="O26" t="s">
-        <v>61</v>
-      </c>
-      <c r="P26" t="s"/>
-      <c r="Q26" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P26" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q26" t="s"/>
       <c r="R26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
       <c r="U26" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s">
-        <v>262</v>
+        <v>223</v>
       </c>
       <c r="X26" t="s">
-        <v>263</v>
+        <v>224</v>
       </c>
       <c r="Y26" t="s">
-        <v>264</v>
+        <v>225</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
         <v>41069</v>
       </c>
-      <c r="B27" t="n">
-        <v>125524</v>
-      </c>
-      <c r="C27" t="s">
-        <v>265</v>
-      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
       <c r="D27" t="n">
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F27" t="s">
-        <v>266</v>
+        <v>226</v>
       </c>
       <c r="G27" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H27" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I27" t="s">
-        <v>267</v>
+        <v>227</v>
       </c>
       <c r="J27" t="s">
-        <v>268</v>
+        <v>228</v>
       </c>
       <c r="K27" t="s">
-        <v>269</v>
+        <v>229</v>
       </c>
       <c r="L27" t="s">
-        <v>270</v>
+        <v>230</v>
       </c>
       <c r="M27" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N27" t="s">
-        <v>271</v>
+        <v>222</v>
       </c>
       <c r="O27" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P27" t="s"/>
       <c r="Q27" t="s"/>
       <c r="R27" t="s"/>
-      <c r="S27" t="s"/>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s">
-        <v>272</v>
+        <v>231</v>
       </c>
       <c r="X27" t="s">
-        <v>273</v>
+        <v>232</v>
       </c>
       <c r="Y27" t="s">
-        <v>274</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
         <v>41069</v>
       </c>
-      <c r="B28" t="n">
-        <v>111626</v>
-      </c>
-      <c r="C28" t="s">
-        <v>275</v>
-      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
       <c r="D28" t="n">
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F28" t="s">
-        <v>276</v>
+        <v>234</v>
       </c>
       <c r="G28" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H28" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I28" t="s">
-        <v>277</v>
+        <v>235</v>
       </c>
       <c r="J28" t="s">
-        <v>278</v>
+        <v>236</v>
       </c>
       <c r="K28" t="s">
-        <v>279</v>
+        <v>237</v>
       </c>
       <c r="L28" t="s">
-        <v>280</v>
+        <v>238</v>
       </c>
       <c r="M28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N28" t="s">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="O28" t="s">
-        <v>61</v>
-      </c>
-      <c r="P28" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P28" t="n">
+        <v>3</v>
+      </c>
       <c r="Q28" t="s"/>
-      <c r="R28" t="n">
-        <v>4</v>
-      </c>
+      <c r="R28" t="s"/>
       <c r="S28" t="n">
         <v>4</v>
       </c>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
       <c r="W28" t="s">
-        <v>272</v>
+        <v>239</v>
       </c>
       <c r="X28" t="s">
-        <v>273</v>
+        <v>240</v>
       </c>
       <c r="Y28" t="s">
-        <v>281</v>
+        <v>241</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
         <v>41069</v>
       </c>
-      <c r="B29" t="n">
-        <v>125525</v>
-      </c>
-      <c r="C29" t="s">
-        <v>282</v>
-      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
       <c r="D29" t="n">
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F29" t="s">
-        <v>283</v>
+        <v>242</v>
       </c>
       <c r="G29" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H29" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I29" t="s">
-        <v>284</v>
+        <v>243</v>
       </c>
       <c r="J29" t="s">
-        <v>285</v>
+        <v>244</v>
       </c>
       <c r="K29" t="s">
-        <v>286</v>
+        <v>245</v>
       </c>
       <c r="L29" t="s">
-        <v>287</v>
+        <v>246</v>
       </c>
       <c r="M29" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N29" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="O29" t="s">
-        <v>288</v>
+        <v>248</v>
       </c>
       <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
-      <c r="R29" t="s"/>
+      <c r="Q29" t="n">
+        <v>1</v>
+      </c>
+      <c r="R29" t="n">
+        <v>1</v>
+      </c>
       <c r="S29" t="s"/>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>1</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
       <c r="W29" t="s">
-        <v>289</v>
+        <v>249</v>
       </c>
       <c r="X29" t="s">
-        <v>290</v>
+        <v>250</v>
       </c>
       <c r="Y29" t="s">
-        <v>291</v>
+        <v>251</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
         <v>41069</v>
       </c>
-      <c r="B30" t="n">
-        <v>125526</v>
-      </c>
-      <c r="C30" t="s">
-        <v>292</v>
-      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
       <c r="D30" t="n">
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F30" t="s">
-        <v>293</v>
+        <v>252</v>
       </c>
       <c r="G30" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H30" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I30" t="s">
-        <v>294</v>
+        <v>253</v>
       </c>
       <c r="J30" t="s">
-        <v>295</v>
+        <v>254</v>
       </c>
       <c r="K30" t="s">
-        <v>296</v>
+        <v>255</v>
       </c>
       <c r="L30" t="s">
-        <v>297</v>
+        <v>256</v>
       </c>
       <c r="M30" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N30" t="s">
-        <v>298</v>
+        <v>257</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
-      </c>
-      <c r="P30" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P30" t="n">
+        <v>4</v>
+      </c>
       <c r="Q30" t="s"/>
       <c r="R30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
       <c r="U30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
       </c>
       <c r="W30" t="s">
-        <v>299</v>
+        <v>258</v>
       </c>
       <c r="X30" t="s">
-        <v>300</v>
+        <v>259</v>
       </c>
       <c r="Y30" t="s">
-        <v>301</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
         <v>41069</v>
       </c>
-      <c r="B31" t="n">
-        <v>125527</v>
-      </c>
-      <c r="C31" t="s">
-        <v>302</v>
-      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
       <c r="D31" t="n">
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H31" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I31" t="s">
-        <v>304</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>306</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>307</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N31" t="s">
-        <v>271</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>61</v>
-      </c>
-      <c r="P31" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q31" t="n">
-        <v>4</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
       <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>4</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
       <c r="W31" t="s">
-        <v>308</v>
+        <v>258</v>
       </c>
       <c r="X31" t="s">
-        <v>309</v>
+        <v>259</v>
       </c>
       <c r="Y31" t="s">
-        <v>310</v>
+        <v>267</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
         <v>41069</v>
       </c>
-      <c r="B32" t="n">
-        <v>125528</v>
-      </c>
-      <c r="C32" t="s">
-        <v>311</v>
-      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
       <c r="D32" t="n">
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F32" t="s">
-        <v>312</v>
+        <v>268</v>
       </c>
       <c r="G32" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H32" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I32" t="s">
-        <v>313</v>
+        <v>269</v>
       </c>
       <c r="J32" t="s">
-        <v>314</v>
+        <v>270</v>
       </c>
       <c r="K32" t="s">
-        <v>315</v>
+        <v>271</v>
       </c>
       <c r="L32" t="s">
-        <v>316</v>
+        <v>272</v>
       </c>
       <c r="M32" t="n">
-        <v>1</v>
-      </c>
-      <c r="N32" t="s"/>
-      <c r="O32" t="s"/>
+        <v>5</v>
+      </c>
+      <c r="N32" t="s">
+        <v>273</v>
+      </c>
+      <c r="O32" t="s">
+        <v>78</v>
+      </c>
       <c r="P32" t="s"/>
-      <c r="Q32" t="s"/>
-      <c r="R32" t="s"/>
+      <c r="Q32" t="n">
+        <v>5</v>
+      </c>
+      <c r="R32" t="n">
+        <v>5</v>
+      </c>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
-      <c r="U32" t="s"/>
+      <c r="U32" t="n">
+        <v>5</v>
+      </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
       <c r="W32" t="s">
-        <v>317</v>
+        <v>274</v>
       </c>
       <c r="X32" t="s">
-        <v>318</v>
+        <v>275</v>
       </c>
       <c r="Y32" t="s">
-        <v>319</v>
+        <v>276</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
         <v>41069</v>
       </c>
-      <c r="B33" t="n">
-        <v>125529</v>
-      </c>
-      <c r="C33" t="s">
-        <v>320</v>
-      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
       <c r="D33" t="n">
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F33" t="s">
-        <v>321</v>
+        <v>277</v>
       </c>
       <c r="G33" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H33" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I33" t="s">
-        <v>322</v>
+        <v>278</v>
       </c>
       <c r="J33" t="s">
-        <v>323</v>
+        <v>279</v>
       </c>
       <c r="K33" t="s">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="L33" t="s">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="M33" t="n">
         <v>4</v>
       </c>
       <c r="N33" t="s">
-        <v>326</v>
+        <v>282</v>
       </c>
       <c r="O33" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
@@ -4693,263 +4468,249 @@
         <v>0</v>
       </c>
       <c r="W33" t="s">
-        <v>327</v>
+        <v>283</v>
       </c>
       <c r="X33" t="s">
-        <v>328</v>
+        <v>284</v>
       </c>
       <c r="Y33" t="s">
-        <v>329</v>
+        <v>285</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
         <v>41069</v>
       </c>
-      <c r="B34" t="n">
-        <v>125530</v>
-      </c>
-      <c r="C34" t="s">
-        <v>330</v>
-      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
       <c r="D34" t="n">
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="G34" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H34" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I34" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="J34" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="K34" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="L34" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="M34" t="n">
         <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>336</v>
+        <v>257</v>
       </c>
       <c r="O34" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="s"/>
-      <c r="R34" t="s"/>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
       <c r="S34" t="n">
         <v>4</v>
       </c>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
       </c>
       <c r="W34" t="s">
-        <v>337</v>
+        <v>283</v>
       </c>
       <c r="X34" t="s">
-        <v>338</v>
+        <v>284</v>
       </c>
       <c r="Y34" t="s">
-        <v>339</v>
+        <v>291</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
         <v>41069</v>
       </c>
-      <c r="B35" t="n">
-        <v>125531</v>
-      </c>
-      <c r="C35" t="s">
-        <v>340</v>
-      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
       <c r="D35" t="n">
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F35" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="G35" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H35" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I35" t="s">
-        <v>342</v>
+        <v>293</v>
       </c>
       <c r="J35" t="s">
-        <v>343</v>
+        <v>294</v>
       </c>
       <c r="K35" t="s">
-        <v>344</v>
+        <v>295</v>
       </c>
       <c r="L35" t="s">
-        <v>345</v>
+        <v>296</v>
       </c>
       <c r="M35" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>346</v>
+        <v>257</v>
       </c>
       <c r="O35" t="s">
-        <v>53</v>
+        <v>297</v>
       </c>
       <c r="P35" t="s"/>
-      <c r="Q35" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q35" t="s"/>
       <c r="R35" t="s"/>
       <c r="S35" t="s"/>
       <c r="T35" t="s"/>
-      <c r="U35" t="n">
-        <v>4</v>
-      </c>
+      <c r="U35" t="s"/>
       <c r="V35" t="n">
         <v>0</v>
       </c>
       <c r="W35" t="s">
-        <v>347</v>
+        <v>298</v>
       </c>
       <c r="X35" t="s">
-        <v>348</v>
+        <v>299</v>
       </c>
       <c r="Y35" t="s">
-        <v>349</v>
+        <v>300</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
         <v>41069</v>
       </c>
-      <c r="B36" t="n">
-        <v>125532</v>
-      </c>
-      <c r="C36" t="s">
-        <v>350</v>
-      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
       <c r="D36" t="n">
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F36" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="G36" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H36" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I36" t="s">
-        <v>352</v>
+        <v>302</v>
       </c>
       <c r="J36" t="s">
-        <v>353</v>
+        <v>303</v>
       </c>
       <c r="K36" t="s">
-        <v>354</v>
+        <v>304</v>
       </c>
       <c r="L36" t="s">
-        <v>355</v>
+        <v>305</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N36" t="s">
-        <v>356</v>
+        <v>306</v>
       </c>
       <c r="O36" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="P36" t="s"/>
       <c r="Q36" t="s"/>
-      <c r="R36" t="s"/>
+      <c r="R36" t="n">
+        <v>1</v>
+      </c>
       <c r="S36" t="s"/>
       <c r="T36" t="s"/>
-      <c r="U36" t="s"/>
+      <c r="U36" t="n">
+        <v>1</v>
+      </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
       <c r="W36" t="s">
-        <v>357</v>
+        <v>307</v>
       </c>
       <c r="X36" t="s">
-        <v>358</v>
+        <v>308</v>
       </c>
       <c r="Y36" t="s">
-        <v>359</v>
+        <v>309</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
         <v>41069</v>
       </c>
-      <c r="B37" t="n">
-        <v>125533</v>
-      </c>
-      <c r="C37" t="s">
-        <v>360</v>
-      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
       <c r="D37" t="n">
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F37" t="s">
-        <v>361</v>
+        <v>310</v>
       </c>
       <c r="G37" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H37" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I37" t="s">
-        <v>362</v>
+        <v>311</v>
       </c>
       <c r="J37" t="s">
-        <v>363</v>
+        <v>312</v>
       </c>
       <c r="K37" t="s">
-        <v>364</v>
+        <v>313</v>
       </c>
       <c r="L37" t="s">
-        <v>365</v>
+        <v>314</v>
       </c>
       <c r="M37" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N37" t="s">
-        <v>366</v>
+        <v>282</v>
       </c>
       <c r="O37" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P37" t="n">
         <v>4</v>
@@ -4957,65 +4718,57 @@
       <c r="Q37" t="n">
         <v>4</v>
       </c>
-      <c r="R37" t="n">
-        <v>4</v>
-      </c>
-      <c r="S37" t="n">
-        <v>5</v>
-      </c>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
       <c r="T37" t="s"/>
       <c r="U37" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
       </c>
       <c r="W37" t="s">
-        <v>367</v>
+        <v>315</v>
       </c>
       <c r="X37" t="s">
-        <v>368</v>
+        <v>316</v>
       </c>
       <c r="Y37" t="s">
-        <v>369</v>
+        <v>317</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
         <v>41069</v>
       </c>
-      <c r="B38" t="n">
-        <v>18188</v>
-      </c>
-      <c r="C38" t="s">
-        <v>370</v>
-      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
       <c r="D38" t="n">
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F38" t="s">
-        <v>371</v>
+        <v>318</v>
       </c>
       <c r="G38" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H38" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I38" t="s">
-        <v>372</v>
+        <v>319</v>
       </c>
       <c r="J38" t="s">
-        <v>373</v>
+        <v>320</v>
       </c>
       <c r="K38" t="s">
-        <v>374</v>
+        <v>321</v>
       </c>
       <c r="L38" t="s">
-        <v>375</v>
+        <v>322</v>
       </c>
       <c r="M38" t="n">
         <v>1</v>
@@ -5032,147 +4785,123 @@
         <v>0</v>
       </c>
       <c r="W38" t="s">
-        <v>376</v>
+        <v>323</v>
       </c>
       <c r="X38" t="s">
-        <v>377</v>
+        <v>324</v>
       </c>
       <c r="Y38" t="s">
-        <v>378</v>
+        <v>325</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
         <v>41069</v>
       </c>
-      <c r="B39" t="n">
-        <v>125534</v>
-      </c>
-      <c r="C39" t="s">
-        <v>379</v>
-      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
       <c r="D39" t="n">
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F39" t="s">
-        <v>380</v>
+        <v>326</v>
       </c>
       <c r="G39" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H39" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I39" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="J39" t="s">
-        <v>382</v>
+        <v>328</v>
       </c>
       <c r="K39" t="s">
-        <v>383</v>
+        <v>329</v>
       </c>
       <c r="L39" t="s">
-        <v>384</v>
+        <v>330</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
       <c r="N39" t="s">
-        <v>385</v>
+        <v>331</v>
       </c>
       <c r="O39" t="s">
-        <v>53</v>
-      </c>
-      <c r="P39" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q39" t="n">
-        <v>5</v>
-      </c>
-      <c r="R39" t="n">
-        <v>5</v>
-      </c>
-      <c r="S39" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P39" t="s"/>
+      <c r="Q39" t="s"/>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
-      <c r="U39" t="n">
-        <v>4</v>
-      </c>
+      <c r="U39" t="s"/>
       <c r="V39" t="n">
         <v>0</v>
       </c>
       <c r="W39" t="s">
-        <v>386</v>
+        <v>332</v>
       </c>
       <c r="X39" t="s">
-        <v>387</v>
+        <v>333</v>
       </c>
       <c r="Y39" t="s">
-        <v>388</v>
+        <v>334</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
         <v>41069</v>
       </c>
-      <c r="B40" t="n">
-        <v>125535</v>
-      </c>
-      <c r="C40" t="s">
-        <v>389</v>
-      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
       <c r="D40" t="n">
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F40" t="s">
-        <v>390</v>
+        <v>335</v>
       </c>
       <c r="G40" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H40" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I40" t="s">
-        <v>391</v>
+        <v>336</v>
       </c>
       <c r="J40" t="s">
-        <v>392</v>
+        <v>337</v>
       </c>
       <c r="K40" t="s">
-        <v>393</v>
+        <v>338</v>
       </c>
       <c r="L40" t="s">
-        <v>394</v>
+        <v>339</v>
       </c>
       <c r="M40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s">
-        <v>395</v>
+        <v>340</v>
       </c>
       <c r="O40" t="s">
-        <v>61</v>
-      </c>
-      <c r="P40" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>5</v>
-      </c>
-      <c r="R40" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
       <c r="S40" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T40" t="s"/>
       <c r="U40" t="n">
@@ -5182,359 +4911,323 @@
         <v>0</v>
       </c>
       <c r="W40" t="s">
-        <v>396</v>
+        <v>341</v>
       </c>
       <c r="X40" t="s">
-        <v>397</v>
+        <v>342</v>
       </c>
       <c r="Y40" t="s">
-        <v>398</v>
+        <v>343</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
         <v>41069</v>
       </c>
-      <c r="B41" t="n">
-        <v>125536</v>
-      </c>
-      <c r="C41" t="s">
-        <v>399</v>
-      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
       <c r="D41" t="n">
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F41" t="s">
-        <v>400</v>
+        <v>344</v>
       </c>
       <c r="G41" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H41" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I41" t="s">
-        <v>401</v>
+        <v>345</v>
       </c>
       <c r="J41" t="s">
-        <v>402</v>
+        <v>346</v>
       </c>
       <c r="K41" t="s">
-        <v>403</v>
+        <v>347</v>
       </c>
       <c r="L41" t="s">
-        <v>404</v>
+        <v>348</v>
       </c>
       <c r="M41" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="N41" t="s">
-        <v>405</v>
+        <v>349</v>
       </c>
       <c r="O41" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="P41" t="s"/>
       <c r="Q41" t="n">
-        <v>1</v>
-      </c>
-      <c r="R41" t="n">
-        <v>2</v>
-      </c>
-      <c r="S41" t="n">
-        <v>1</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R41" t="s"/>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
       <c r="W41" t="s">
-        <v>406</v>
+        <v>350</v>
       </c>
       <c r="X41" t="s">
-        <v>407</v>
+        <v>351</v>
       </c>
       <c r="Y41" t="s">
-        <v>408</v>
+        <v>352</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
         <v>41069</v>
       </c>
-      <c r="B42" t="n">
-        <v>125537</v>
-      </c>
-      <c r="C42" t="s">
-        <v>409</v>
-      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
       <c r="D42" t="n">
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F42" t="s">
-        <v>410</v>
+        <v>353</v>
       </c>
       <c r="G42" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H42" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I42" t="s">
-        <v>411</v>
+        <v>354</v>
       </c>
       <c r="J42" t="s">
-        <v>402</v>
+        <v>355</v>
       </c>
       <c r="K42" t="s">
-        <v>412</v>
+        <v>356</v>
       </c>
       <c r="L42" t="s">
-        <v>413</v>
+        <v>357</v>
       </c>
       <c r="M42" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N42" t="s">
-        <v>405</v>
+        <v>358</v>
       </c>
       <c r="O42" t="s">
-        <v>61</v>
-      </c>
-      <c r="P42" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>4</v>
-      </c>
-      <c r="R42" t="n">
-        <v>4</v>
-      </c>
-      <c r="S42" t="n">
-        <v>4</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P42" t="s"/>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
+      <c r="S42" t="s"/>
       <c r="T42" t="s"/>
-      <c r="U42" t="n">
-        <v>4</v>
-      </c>
+      <c r="U42" t="s"/>
       <c r="V42" t="n">
         <v>0</v>
       </c>
       <c r="W42" t="s">
-        <v>406</v>
+        <v>359</v>
       </c>
       <c r="X42" t="s">
-        <v>407</v>
+        <v>360</v>
       </c>
       <c r="Y42" t="s">
-        <v>414</v>
+        <v>361</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
         <v>41069</v>
       </c>
-      <c r="B43" t="n">
-        <v>7440</v>
-      </c>
-      <c r="C43" t="s">
-        <v>415</v>
-      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
       <c r="D43" t="n">
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F43" t="s">
-        <v>416</v>
+        <v>362</v>
       </c>
       <c r="G43" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H43" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I43" t="s">
-        <v>417</v>
+        <v>363</v>
       </c>
       <c r="J43" t="s">
-        <v>418</v>
+        <v>364</v>
       </c>
       <c r="K43" t="s">
-        <v>419</v>
+        <v>365</v>
       </c>
       <c r="L43" t="s">
-        <v>420</v>
+        <v>366</v>
       </c>
       <c r="M43" t="n">
-        <v>4</v>
-      </c>
-      <c r="N43" t="s"/>
-      <c r="O43" t="s"/>
-      <c r="P43" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q43" t="n">
-        <v>4</v>
-      </c>
-      <c r="R43" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N43" t="s">
+        <v>358</v>
+      </c>
+      <c r="O43" t="s">
+        <v>52</v>
+      </c>
+      <c r="P43" t="s"/>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
       <c r="S43" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
       </c>
       <c r="W43" t="s">
-        <v>421</v>
+        <v>367</v>
       </c>
       <c r="X43" t="s">
-        <v>422</v>
+        <v>368</v>
       </c>
       <c r="Y43" t="s">
-        <v>423</v>
+        <v>369</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
         <v>41069</v>
       </c>
-      <c r="B44" t="n">
-        <v>125538</v>
-      </c>
-      <c r="C44" t="s">
-        <v>424</v>
-      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
       <c r="D44" t="n">
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F44" t="s">
-        <v>425</v>
+        <v>370</v>
       </c>
       <c r="G44" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H44" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I44" t="s">
-        <v>426</v>
+        <v>371</v>
       </c>
       <c r="J44" t="s">
-        <v>427</v>
+        <v>372</v>
       </c>
       <c r="K44" t="s">
-        <v>428</v>
+        <v>373</v>
       </c>
       <c r="L44" t="s">
-        <v>429</v>
+        <v>374</v>
       </c>
       <c r="M44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s"/>
       <c r="O44" t="s"/>
       <c r="P44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S44" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
       <c r="W44" t="s">
-        <v>421</v>
+        <v>375</v>
       </c>
       <c r="X44" t="s">
-        <v>422</v>
+        <v>376</v>
       </c>
       <c r="Y44" t="s">
-        <v>430</v>
+        <v>377</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
         <v>41069</v>
       </c>
-      <c r="B45" t="n">
-        <v>125539</v>
-      </c>
-      <c r="C45" t="s">
-        <v>431</v>
-      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
       <c r="D45" t="n">
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F45" t="s">
-        <v>432</v>
+        <v>378</v>
       </c>
       <c r="G45" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H45" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I45" t="s">
-        <v>433</v>
+        <v>379</v>
       </c>
       <c r="J45" t="s">
-        <v>434</v>
+        <v>380</v>
       </c>
       <c r="K45" t="s">
-        <v>435</v>
+        <v>381</v>
       </c>
       <c r="L45" t="s">
-        <v>436</v>
+        <v>382</v>
       </c>
       <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>383</v>
+      </c>
+      <c r="O45" t="s">
+        <v>297</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
         <v>3</v>
       </c>
-      <c r="N45" t="s">
-        <v>437</v>
-      </c>
-      <c r="O45" t="s">
-        <v>53</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
       <c r="R45" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S45" t="n">
         <v>5</v>
@@ -5547,72 +5240,68 @@
         <v>0</v>
       </c>
       <c r="W45" t="s">
-        <v>421</v>
+        <v>384</v>
       </c>
       <c r="X45" t="s">
-        <v>422</v>
+        <v>385</v>
       </c>
       <c r="Y45" t="s">
-        <v>438</v>
+        <v>386</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
         <v>41069</v>
       </c>
-      <c r="B46" t="n">
-        <v>125540</v>
-      </c>
-      <c r="C46" t="s">
-        <v>439</v>
-      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
       <c r="D46" t="n">
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F46" t="s">
-        <v>440</v>
+        <v>387</v>
       </c>
       <c r="G46" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H46" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I46" t="s">
-        <v>441</v>
+        <v>388</v>
       </c>
       <c r="J46" t="s">
-        <v>442</v>
+        <v>389</v>
       </c>
       <c r="K46" t="s">
-        <v>443</v>
+        <v>390</v>
       </c>
       <c r="L46" t="s">
-        <v>444</v>
+        <v>391</v>
       </c>
       <c r="M46" t="n">
         <v>4</v>
       </c>
       <c r="N46" t="s">
-        <v>445</v>
+        <v>392</v>
       </c>
       <c r="O46" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="P46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R46" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T46" t="s"/>
       <c r="U46" t="n">
@@ -5622,276 +5311,258 @@
         <v>0</v>
       </c>
       <c r="W46" t="s">
-        <v>421</v>
+        <v>393</v>
       </c>
       <c r="X46" t="s">
-        <v>422</v>
+        <v>394</v>
       </c>
       <c r="Y46" t="s">
-        <v>446</v>
+        <v>395</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
         <v>41069</v>
       </c>
-      <c r="B47" t="n">
-        <v>125541</v>
-      </c>
-      <c r="C47" t="s">
-        <v>447</v>
-      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
       <c r="D47" t="n">
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F47" t="s">
-        <v>448</v>
+        <v>396</v>
       </c>
       <c r="G47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H47" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I47" t="s">
-        <v>449</v>
+        <v>397</v>
       </c>
       <c r="J47" t="s">
-        <v>450</v>
+        <v>398</v>
       </c>
       <c r="K47" t="s">
-        <v>451</v>
+        <v>399</v>
       </c>
       <c r="L47" t="s">
-        <v>452</v>
+        <v>400</v>
       </c>
       <c r="M47" t="n">
         <v>4</v>
       </c>
-      <c r="N47" t="s"/>
-      <c r="O47" t="s"/>
+      <c r="N47" t="s">
+        <v>401</v>
+      </c>
+      <c r="O47" t="s">
+        <v>78</v>
+      </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S47" t="n">
         <v>4</v>
       </c>
       <c r="T47" t="s"/>
       <c r="U47" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V47" t="n">
         <v>0</v>
       </c>
       <c r="W47" t="s">
-        <v>421</v>
+        <v>402</v>
       </c>
       <c r="X47" t="s">
-        <v>422</v>
+        <v>403</v>
       </c>
       <c r="Y47" t="s">
-        <v>453</v>
+        <v>404</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
         <v>41069</v>
       </c>
-      <c r="B48" t="n">
-        <v>125542</v>
-      </c>
-      <c r="C48" t="s">
-        <v>454</v>
-      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
       <c r="D48" t="n">
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" t="s">
-        <v>455</v>
+        <v>405</v>
       </c>
       <c r="G48" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H48" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I48" t="s">
-        <v>456</v>
+        <v>406</v>
       </c>
       <c r="J48" t="s">
-        <v>457</v>
+        <v>407</v>
       </c>
       <c r="K48" t="s">
-        <v>458</v>
+        <v>408</v>
       </c>
       <c r="L48" t="s">
-        <v>459</v>
+        <v>409</v>
       </c>
       <c r="M48" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N48" t="s">
-        <v>460</v>
+        <v>392</v>
       </c>
       <c r="O48" t="s">
-        <v>61</v>
+        <v>52</v>
       </c>
       <c r="P48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R48" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S48" t="n">
         <v>5</v>
       </c>
       <c r="T48" t="s"/>
       <c r="U48" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V48" t="n">
         <v>0</v>
       </c>
       <c r="W48" t="s">
-        <v>421</v>
+        <v>410</v>
       </c>
       <c r="X48" t="s">
-        <v>422</v>
+        <v>411</v>
       </c>
       <c r="Y48" t="s">
-        <v>461</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
         <v>41069</v>
       </c>
-      <c r="B49" t="n">
-        <v>62066</v>
-      </c>
-      <c r="C49" t="s">
-        <v>462</v>
-      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
       <c r="D49" t="n">
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F49" t="s">
-        <v>463</v>
+        <v>413</v>
       </c>
       <c r="G49" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H49" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I49" t="s">
-        <v>464</v>
+        <v>414</v>
       </c>
       <c r="J49" t="s">
-        <v>465</v>
+        <v>415</v>
       </c>
       <c r="K49" t="s">
-        <v>466</v>
+        <v>416</v>
       </c>
       <c r="L49" t="s">
-        <v>467</v>
+        <v>417</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N49" t="s"/>
       <c r="O49" t="s"/>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>3</v>
-      </c>
-      <c r="R49" t="n">
-        <v>3</v>
-      </c>
-      <c r="S49" t="n">
-        <v>1</v>
-      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
+      <c r="S49" t="s"/>
       <c r="T49" t="s"/>
-      <c r="U49" t="n">
-        <v>3</v>
-      </c>
+      <c r="U49" t="s"/>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>421</v>
+        <v>418</v>
       </c>
       <c r="X49" t="s">
-        <v>422</v>
+        <v>419</v>
       </c>
       <c r="Y49" t="s">
-        <v>468</v>
+        <v>420</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
         <v>41069</v>
       </c>
-      <c r="B50" t="n">
-        <v>125533</v>
-      </c>
-      <c r="C50" t="s">
-        <v>379</v>
-      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
       <c r="D50" t="n">
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F50" t="s">
-        <v>469</v>
+        <v>421</v>
       </c>
       <c r="G50" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H50" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I50" t="s">
-        <v>470</v>
+        <v>422</v>
       </c>
       <c r="J50" t="s">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="K50" t="s">
-        <v>472</v>
+        <v>424</v>
       </c>
       <c r="L50" t="s">
-        <v>473</v>
+        <v>425</v>
       </c>
       <c r="M50" t="n">
-        <v>5</v>
-      </c>
-      <c r="N50" t="s"/>
-      <c r="O50" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>426</v>
+      </c>
+      <c r="O50" t="s">
+        <v>52</v>
+      </c>
       <c r="P50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q50" t="n">
         <v>5</v>
@@ -5904,353 +5575,337 @@
       </c>
       <c r="T50" t="s"/>
       <c r="U50" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V50" t="n">
         <v>0</v>
       </c>
       <c r="W50" t="s">
-        <v>421</v>
+        <v>427</v>
       </c>
       <c r="X50" t="s">
-        <v>422</v>
+        <v>428</v>
       </c>
       <c r="Y50" t="s">
-        <v>474</v>
+        <v>429</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
         <v>41069</v>
       </c>
-      <c r="B51" t="n">
-        <v>125540</v>
-      </c>
-      <c r="C51" t="s">
-        <v>447</v>
-      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
       <c r="D51" t="n">
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F51" t="s">
-        <v>475</v>
+        <v>430</v>
       </c>
       <c r="G51" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H51" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I51" t="s">
-        <v>476</v>
+        <v>431</v>
       </c>
       <c r="J51" t="s">
-        <v>477</v>
+        <v>432</v>
       </c>
       <c r="K51" t="s">
-        <v>478</v>
+        <v>433</v>
       </c>
       <c r="L51" t="s">
-        <v>479</v>
+        <v>434</v>
       </c>
       <c r="M51" t="n">
         <v>5</v>
       </c>
       <c r="N51" t="s">
-        <v>480</v>
+        <v>435</v>
       </c>
       <c r="O51" t="s">
-        <v>53</v>
-      </c>
-      <c r="P51" t="s"/>
-      <c r="Q51" t="s"/>
-      <c r="R51" t="s"/>
-      <c r="S51" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
       <c r="T51" t="s"/>
-      <c r="U51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>406</v>
+        <v>436</v>
       </c>
       <c r="X51" t="s">
-        <v>407</v>
+        <v>437</v>
       </c>
       <c r="Y51" t="s">
-        <v>481</v>
+        <v>438</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
         <v>41069</v>
       </c>
-      <c r="B52" t="n">
-        <v>125543</v>
-      </c>
-      <c r="C52" t="s">
-        <v>482</v>
-      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
       <c r="D52" t="n">
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F52" t="s">
-        <v>483</v>
+        <v>439</v>
       </c>
       <c r="G52" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H52" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I52" t="s">
-        <v>484</v>
+        <v>440</v>
       </c>
       <c r="J52" t="s">
-        <v>485</v>
+        <v>441</v>
       </c>
       <c r="K52" t="s">
-        <v>486</v>
+        <v>442</v>
       </c>
       <c r="L52" t="s">
-        <v>487</v>
+        <v>443</v>
       </c>
       <c r="M52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N52" t="s">
-        <v>488</v>
+        <v>444</v>
       </c>
       <c r="O52" t="s">
-        <v>61</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="P52" t="s"/>
       <c r="Q52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="R52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S52" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T52" t="s"/>
       <c r="U52" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="X52" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="Y52" t="s">
-        <v>491</v>
+        <v>447</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
         <v>41069</v>
       </c>
-      <c r="B53" t="n">
-        <v>125544</v>
-      </c>
-      <c r="C53" t="s">
-        <v>492</v>
-      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
       <c r="D53" t="n">
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F53" t="s">
-        <v>493</v>
+        <v>448</v>
       </c>
       <c r="G53" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H53" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I53" t="s">
-        <v>494</v>
+        <v>449</v>
       </c>
       <c r="J53" t="s">
-        <v>495</v>
+        <v>441</v>
       </c>
       <c r="K53" t="s">
-        <v>496</v>
+        <v>450</v>
       </c>
       <c r="L53" t="s">
-        <v>497</v>
+        <v>451</v>
       </c>
       <c r="M53" t="n">
-        <v>1</v>
-      </c>
-      <c r="N53" t="s"/>
-      <c r="O53" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N53" t="s">
+        <v>444</v>
+      </c>
+      <c r="O53" t="s">
+        <v>78</v>
+      </c>
       <c r="P53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Q53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="R53" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S53" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V53" t="n">
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>489</v>
+        <v>445</v>
       </c>
       <c r="X53" t="s">
-        <v>490</v>
+        <v>446</v>
       </c>
       <c r="Y53" t="s">
-        <v>498</v>
+        <v>452</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
         <v>41069</v>
       </c>
-      <c r="B54" t="n">
-        <v>125545</v>
-      </c>
-      <c r="C54" t="s">
-        <v>499</v>
-      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
       <c r="D54" t="n">
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F54" t="s">
-        <v>500</v>
+        <v>453</v>
       </c>
       <c r="G54" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H54" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I54" t="s">
-        <v>501</v>
+        <v>454</v>
       </c>
       <c r="J54" t="s">
-        <v>502</v>
+        <v>455</v>
       </c>
       <c r="K54" t="s">
-        <v>503</v>
+        <v>456</v>
       </c>
       <c r="L54" t="s">
-        <v>504</v>
+        <v>457</v>
       </c>
       <c r="M54" t="n">
+        <v>4</v>
+      </c>
+      <c r="N54" t="s"/>
+      <c r="O54" t="s"/>
+      <c r="P54" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>4</v>
+      </c>
+      <c r="R54" t="n">
         <v>3</v>
       </c>
-      <c r="N54" t="s">
-        <v>505</v>
-      </c>
-      <c r="O54" t="s">
-        <v>234</v>
-      </c>
-      <c r="P54" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>3</v>
-      </c>
-      <c r="R54" t="n">
-        <v>4</v>
-      </c>
       <c r="S54" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V54" t="n">
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="X54" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="Y54" t="s">
-        <v>508</v>
+        <v>460</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
         <v>41069</v>
       </c>
-      <c r="B55" t="n">
-        <v>17437</v>
-      </c>
-      <c r="C55" t="s">
-        <v>509</v>
-      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
       <c r="D55" t="n">
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F55" t="s">
-        <v>510</v>
+        <v>461</v>
       </c>
       <c r="G55" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H55" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I55" t="s">
-        <v>511</v>
+        <v>462</v>
       </c>
       <c r="J55" t="s">
-        <v>512</v>
+        <v>463</v>
       </c>
       <c r="K55" t="s">
-        <v>513</v>
+        <v>464</v>
       </c>
       <c r="L55" t="s">
-        <v>514</v>
+        <v>465</v>
       </c>
       <c r="M55" t="n">
-        <v>4</v>
-      </c>
-      <c r="N55" t="s">
-        <v>515</v>
-      </c>
-      <c r="O55" t="s">
-        <v>53</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N55" t="s"/>
+      <c r="O55" t="s"/>
       <c r="P55" t="n">
         <v>5</v>
       </c>
@@ -6271,88 +5926,84 @@
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>506</v>
+        <v>458</v>
       </c>
       <c r="X55" t="s">
-        <v>507</v>
+        <v>459</v>
       </c>
       <c r="Y55" t="s">
-        <v>516</v>
+        <v>466</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
         <v>41069</v>
       </c>
-      <c r="B56" t="n">
-        <v>79478</v>
-      </c>
-      <c r="C56" t="s">
-        <v>517</v>
-      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
       <c r="D56" t="n">
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F56" t="s">
-        <v>518</v>
+        <v>467</v>
       </c>
       <c r="G56" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H56" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I56" t="s">
-        <v>519</v>
+        <v>468</v>
       </c>
       <c r="J56" t="s">
-        <v>520</v>
+        <v>469</v>
       </c>
       <c r="K56" t="s">
-        <v>521</v>
+        <v>470</v>
       </c>
       <c r="L56" t="s">
-        <v>522</v>
+        <v>471</v>
       </c>
       <c r="M56" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N56" t="s">
-        <v>515</v>
+        <v>472</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="R56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S56" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="T56" t="s"/>
       <c r="U56" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V56" t="n">
         <v>0</v>
       </c>
       <c r="W56" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="X56" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="Y56" t="s">
-        <v>525</v>
+        <v>473</v>
       </c>
     </row>
     <row r="57">
@@ -6365,34 +6016,38 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F57" t="s">
-        <v>526</v>
+        <v>474</v>
       </c>
       <c r="G57" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H57" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I57" t="s">
-        <v>527</v>
+        <v>475</v>
       </c>
       <c r="J57" t="s">
-        <v>528</v>
+        <v>476</v>
       </c>
       <c r="K57" t="s">
-        <v>529</v>
+        <v>477</v>
       </c>
       <c r="L57" t="s">
-        <v>530</v>
+        <v>478</v>
       </c>
       <c r="M57" t="n">
-        <v>3</v>
-      </c>
-      <c r="N57" t="s"/>
-      <c r="O57" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N57" t="s">
+        <v>479</v>
+      </c>
+      <c r="O57" t="s">
+        <v>52</v>
+      </c>
       <c r="P57" t="n">
         <v>3</v>
       </c>
@@ -6407,576 +6062,542 @@
       </c>
       <c r="T57" t="s"/>
       <c r="U57" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
       <c r="W57" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="X57" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="Y57" t="s">
-        <v>531</v>
+        <v>480</v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
         <v>41069</v>
       </c>
-      <c r="B58" t="n">
-        <v>125546</v>
-      </c>
-      <c r="C58" t="s">
-        <v>532</v>
-      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
       <c r="D58" t="n">
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>533</v>
+        <v>481</v>
       </c>
       <c r="G58" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H58" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I58" t="s">
-        <v>534</v>
+        <v>482</v>
       </c>
       <c r="J58" t="s">
-        <v>535</v>
+        <v>483</v>
       </c>
       <c r="K58" t="s">
-        <v>536</v>
+        <v>484</v>
       </c>
       <c r="L58" t="s">
-        <v>537</v>
+        <v>485</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" t="s">
-        <v>538</v>
-      </c>
-      <c r="O58" t="s">
-        <v>53</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="R58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
       </c>
       <c r="T58" t="s"/>
       <c r="U58" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="X58" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="Y58" t="s">
-        <v>539</v>
+        <v>486</v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
         <v>41069</v>
       </c>
-      <c r="B59" t="n">
-        <v>125547</v>
-      </c>
-      <c r="C59" t="s">
-        <v>540</v>
-      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
       <c r="D59" t="n">
         <v>58</v>
       </c>
       <c r="E59" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>541</v>
+        <v>487</v>
       </c>
       <c r="G59" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H59" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I59" t="s">
-        <v>542</v>
+        <v>488</v>
       </c>
       <c r="J59" t="s">
-        <v>543</v>
+        <v>489</v>
       </c>
       <c r="K59" t="s">
-        <v>544</v>
+        <v>490</v>
       </c>
       <c r="L59" t="s">
-        <v>545</v>
+        <v>491</v>
       </c>
       <c r="M59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>546</v>
+        <v>492</v>
       </c>
       <c r="O59" t="s">
-        <v>53</v>
+        <v>78</v>
       </c>
       <c r="P59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="Q59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="R59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="S59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
       </c>
       <c r="W59" t="s">
-        <v>523</v>
+        <v>458</v>
       </c>
       <c r="X59" t="s">
-        <v>524</v>
+        <v>459</v>
       </c>
       <c r="Y59" t="s">
-        <v>547</v>
+        <v>493</v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
         <v>41069</v>
       </c>
-      <c r="B60" t="n">
-        <v>125548</v>
-      </c>
-      <c r="C60" t="s">
-        <v>548</v>
-      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
       <c r="D60" t="n">
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F60" t="s">
-        <v>549</v>
+        <v>494</v>
       </c>
       <c r="G60" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H60" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I60" t="s">
-        <v>550</v>
+        <v>495</v>
       </c>
       <c r="J60" t="s">
-        <v>551</v>
+        <v>496</v>
       </c>
       <c r="K60" t="s">
-        <v>552</v>
+        <v>497</v>
       </c>
       <c r="L60" t="s">
-        <v>553</v>
+        <v>498</v>
       </c>
       <c r="M60" t="n">
         <v>3</v>
       </c>
-      <c r="N60" t="s">
-        <v>554</v>
-      </c>
-      <c r="O60" t="s">
-        <v>53</v>
-      </c>
+      <c r="N60" t="s"/>
+      <c r="O60" t="s"/>
       <c r="P60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="s"/>
-      <c r="R60" t="s"/>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
       <c r="S60" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>458</v>
+      </c>
+      <c r="X60" t="s">
+        <v>459</v>
+      </c>
       <c r="Y60" t="s">
-        <v>555</v>
+        <v>499</v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
         <v>41069</v>
       </c>
-      <c r="B61" t="n">
-        <v>125549</v>
-      </c>
-      <c r="C61" t="s">
-        <v>556</v>
-      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
       <c r="D61" t="n">
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F61" t="s">
-        <v>557</v>
+        <v>500</v>
       </c>
       <c r="G61" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H61" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I61" t="s">
-        <v>558</v>
+        <v>501</v>
       </c>
       <c r="J61" t="s">
-        <v>559</v>
+        <v>502</v>
       </c>
       <c r="K61" t="s">
-        <v>560</v>
+        <v>503</v>
       </c>
       <c r="L61" t="s">
-        <v>561</v>
+        <v>504</v>
       </c>
       <c r="M61" t="n">
-        <v>2</v>
-      </c>
-      <c r="N61" t="s">
-        <v>562</v>
-      </c>
-      <c r="O61" t="s">
-        <v>61</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
       <c r="P61" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R61" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="S61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T61" t="s"/>
       <c r="U61" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>458</v>
+      </c>
+      <c r="X61" t="s">
+        <v>459</v>
+      </c>
       <c r="Y61" t="s">
-        <v>563</v>
+        <v>505</v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
         <v>41069</v>
       </c>
-      <c r="B62" t="n">
-        <v>125550</v>
-      </c>
-      <c r="C62" t="s">
-        <v>564</v>
-      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
       <c r="D62" t="n">
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F62" t="s">
-        <v>565</v>
+        <v>506</v>
       </c>
       <c r="G62" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H62" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I62" t="s">
-        <v>566</v>
+        <v>507</v>
       </c>
       <c r="J62" t="s">
-        <v>567</v>
+        <v>508</v>
       </c>
       <c r="K62" t="s">
-        <v>568</v>
+        <v>509</v>
       </c>
       <c r="L62" t="s">
-        <v>569</v>
+        <v>510</v>
       </c>
       <c r="M62" t="n">
         <v>5</v>
       </c>
       <c r="N62" t="s">
-        <v>570</v>
+        <v>511</v>
       </c>
       <c r="O62" t="s">
-        <v>146</v>
-      </c>
-      <c r="P62" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q62" t="n">
-        <v>4</v>
-      </c>
-      <c r="R62" t="n">
-        <v>5</v>
-      </c>
-      <c r="S62" t="n">
-        <v>5</v>
-      </c>
+        <v>52</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
       <c r="T62" t="s"/>
-      <c r="U62" t="n">
-        <v>5</v>
-      </c>
+      <c r="U62" t="s"/>
       <c r="V62" t="n">
         <v>0</v>
       </c>
-      <c r="W62" t="s"/>
-      <c r="X62" t="s"/>
+      <c r="W62" t="s">
+        <v>445</v>
+      </c>
+      <c r="X62" t="s">
+        <v>446</v>
+      </c>
       <c r="Y62" t="s">
-        <v>569</v>
+        <v>512</v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
         <v>41069</v>
       </c>
-      <c r="B63" t="n">
-        <v>125551</v>
-      </c>
-      <c r="C63" t="s">
-        <v>571</v>
-      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
       <c r="D63" t="n">
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F63" t="s">
-        <v>572</v>
+        <v>513</v>
       </c>
       <c r="G63" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H63" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I63" t="s">
-        <v>573</v>
+        <v>514</v>
       </c>
       <c r="J63" t="s">
-        <v>574</v>
+        <v>515</v>
       </c>
       <c r="K63" t="s">
-        <v>575</v>
+        <v>516</v>
       </c>
       <c r="L63" t="s">
-        <v>576</v>
+        <v>517</v>
       </c>
       <c r="M63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N63" t="s">
-        <v>577</v>
+        <v>518</v>
       </c>
       <c r="O63" t="s">
-        <v>146</v>
+        <v>78</v>
       </c>
       <c r="P63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Q63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T63" t="s"/>
       <c r="U63" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V63" t="n">
         <v>0</v>
       </c>
-      <c r="W63" t="s"/>
-      <c r="X63" t="s"/>
+      <c r="W63" t="s">
+        <v>519</v>
+      </c>
+      <c r="X63" t="s">
+        <v>520</v>
+      </c>
       <c r="Y63" t="s">
-        <v>576</v>
+        <v>521</v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
         <v>41069</v>
       </c>
-      <c r="B64" t="n">
-        <v>125552</v>
-      </c>
-      <c r="C64" t="s">
-        <v>578</v>
-      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
       <c r="D64" t="n">
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>579</v>
+        <v>522</v>
       </c>
       <c r="G64" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H64" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I64" t="s">
-        <v>580</v>
+        <v>523</v>
       </c>
       <c r="J64" t="s">
-        <v>581</v>
+        <v>524</v>
       </c>
       <c r="K64" t="s">
-        <v>582</v>
+        <v>525</v>
       </c>
       <c r="L64" t="s">
-        <v>583</v>
+        <v>526</v>
       </c>
       <c r="M64" t="n">
-        <v>4</v>
-      </c>
-      <c r="N64" t="s">
-        <v>584</v>
-      </c>
-      <c r="O64" t="s">
-        <v>234</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N64" t="s"/>
+      <c r="O64" t="s"/>
       <c r="P64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S64" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T64" t="s"/>
       <c r="U64" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V64" t="n">
         <v>0</v>
       </c>
-      <c r="W64" t="s"/>
-      <c r="X64" t="s"/>
+      <c r="W64" t="s">
+        <v>519</v>
+      </c>
+      <c r="X64" t="s">
+        <v>520</v>
+      </c>
       <c r="Y64" t="s">
-        <v>585</v>
+        <v>527</v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
         <v>41069</v>
       </c>
-      <c r="B65" t="n">
-        <v>125553</v>
-      </c>
-      <c r="C65" t="s">
-        <v>586</v>
-      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
       <c r="D65" t="n">
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>587</v>
+        <v>528</v>
       </c>
       <c r="G65" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H65" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I65" t="s">
-        <v>588</v>
+        <v>529</v>
       </c>
       <c r="J65" t="s">
-        <v>589</v>
+        <v>530</v>
       </c>
       <c r="K65" t="s">
-        <v>590</v>
+        <v>531</v>
       </c>
       <c r="L65" t="s">
-        <v>591</v>
+        <v>532</v>
       </c>
       <c r="M65" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N65" t="s">
-        <v>592</v>
+        <v>533</v>
       </c>
       <c r="O65" t="s">
-        <v>61</v>
+        <v>248</v>
       </c>
       <c r="P65" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="Q65" t="n">
         <v>3</v>
       </c>
       <c r="R65" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S65" t="n">
         <v>3</v>
@@ -6988,57 +6609,57 @@
       <c r="V65" t="n">
         <v>0</v>
       </c>
-      <c r="W65" t="s"/>
-      <c r="X65" t="s"/>
+      <c r="W65" t="s">
+        <v>534</v>
+      </c>
+      <c r="X65" t="s">
+        <v>535</v>
+      </c>
       <c r="Y65" t="s">
-        <v>591</v>
+        <v>536</v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
         <v>41069</v>
       </c>
-      <c r="B66" t="n">
-        <v>125554</v>
-      </c>
-      <c r="C66" t="s">
-        <v>593</v>
-      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
       <c r="D66" t="n">
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>594</v>
+        <v>537</v>
       </c>
       <c r="G66" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H66" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I66" t="s">
-        <v>595</v>
+        <v>538</v>
       </c>
       <c r="J66" t="s">
-        <v>596</v>
+        <v>539</v>
       </c>
       <c r="K66" t="s">
-        <v>597</v>
+        <v>540</v>
       </c>
       <c r="L66" t="s">
-        <v>598</v>
+        <v>541</v>
       </c>
       <c r="M66" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N66" t="s">
-        <v>599</v>
+        <v>542</v>
       </c>
       <c r="O66" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P66" t="n">
         <v>5</v>
@@ -7059,195 +6680,207 @@
       <c r="V66" t="n">
         <v>0</v>
       </c>
-      <c r="W66" t="s"/>
-      <c r="X66" t="s"/>
+      <c r="W66" t="s">
+        <v>534</v>
+      </c>
+      <c r="X66" t="s">
+        <v>535</v>
+      </c>
       <c r="Y66" t="s">
-        <v>600</v>
+        <v>543</v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
         <v>41069</v>
       </c>
-      <c r="B67" t="n">
-        <v>125555</v>
-      </c>
-      <c r="C67" t="s">
-        <v>601</v>
-      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
       <c r="D67" t="n">
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F67" t="s">
-        <v>602</v>
+        <v>544</v>
       </c>
       <c r="G67" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H67" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I67" t="s">
-        <v>603</v>
+        <v>545</v>
       </c>
       <c r="J67" t="s">
-        <v>604</v>
+        <v>546</v>
       </c>
       <c r="K67" t="s">
-        <v>605</v>
+        <v>547</v>
       </c>
       <c r="L67" t="s">
-        <v>606</v>
+        <v>548</v>
       </c>
       <c r="M67" t="n">
-        <v>1</v>
-      </c>
-      <c r="N67" t="s"/>
-      <c r="O67" t="s"/>
-      <c r="P67" t="s"/>
-      <c r="Q67" t="s"/>
-      <c r="R67" t="s"/>
-      <c r="S67" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N67" t="s">
+        <v>542</v>
+      </c>
+      <c r="O67" t="s">
+        <v>52</v>
+      </c>
+      <c r="P67" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>3</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
       <c r="T67" t="s"/>
-      <c r="U67" t="s"/>
+      <c r="U67" t="n">
+        <v>5</v>
+      </c>
       <c r="V67" t="n">
         <v>0</v>
       </c>
-      <c r="W67" t="s"/>
-      <c r="X67" t="s"/>
+      <c r="W67" t="s">
+        <v>549</v>
+      </c>
+      <c r="X67" t="s">
+        <v>550</v>
+      </c>
       <c r="Y67" t="s">
-        <v>606</v>
+        <v>551</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
         <v>41069</v>
       </c>
-      <c r="B68" t="n">
-        <v>125556</v>
-      </c>
-      <c r="C68" t="s">
-        <v>607</v>
-      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
       <c r="D68" t="n">
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>608</v>
+        <v>552</v>
       </c>
       <c r="G68" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H68" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I68" t="s">
-        <v>609</v>
+        <v>553</v>
       </c>
       <c r="J68" t="s">
-        <v>610</v>
+        <v>554</v>
       </c>
       <c r="K68" t="s">
-        <v>611</v>
+        <v>555</v>
       </c>
       <c r="L68" t="s">
-        <v>612</v>
+        <v>556</v>
       </c>
       <c r="M68" t="n">
-        <v>1</v>
-      </c>
-      <c r="N68" t="s">
-        <v>613</v>
-      </c>
-      <c r="O68" t="s">
-        <v>53</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
       <c r="P68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q68" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R68" t="n">
         <v>3</v>
       </c>
-      <c r="S68" t="s"/>
+      <c r="S68" t="n">
+        <v>3</v>
+      </c>
       <c r="T68" t="s"/>
       <c r="U68" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V68" t="n">
         <v>0</v>
       </c>
-      <c r="W68" t="s"/>
-      <c r="X68" t="s"/>
+      <c r="W68" t="s">
+        <v>549</v>
+      </c>
+      <c r="X68" t="s">
+        <v>550</v>
+      </c>
       <c r="Y68" t="s">
-        <v>614</v>
+        <v>557</v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
         <v>41069</v>
       </c>
-      <c r="B69" t="n">
-        <v>125557</v>
-      </c>
-      <c r="C69" t="s">
-        <v>615</v>
-      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
       <c r="D69" t="n">
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>616</v>
+        <v>558</v>
       </c>
       <c r="G69" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H69" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I69" t="s">
-        <v>617</v>
+        <v>559</v>
       </c>
       <c r="J69" t="s">
-        <v>618</v>
+        <v>560</v>
       </c>
       <c r="K69" t="s">
-        <v>619</v>
+        <v>561</v>
       </c>
       <c r="L69" t="s">
-        <v>620</v>
+        <v>562</v>
       </c>
       <c r="M69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N69" t="s">
-        <v>621</v>
+        <v>563</v>
       </c>
       <c r="O69" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P69" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q69" t="n">
         <v>4</v>
       </c>
       <c r="R69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="S69" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T69" t="s"/>
       <c r="U69" t="n">
@@ -7256,142 +6889,140 @@
       <c r="V69" t="n">
         <v>0</v>
       </c>
-      <c r="W69" t="s"/>
-      <c r="X69" t="s"/>
+      <c r="W69" t="s">
+        <v>549</v>
+      </c>
+      <c r="X69" t="s">
+        <v>550</v>
+      </c>
       <c r="Y69" t="s">
-        <v>620</v>
+        <v>564</v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
         <v>41069</v>
       </c>
-      <c r="B70" t="n">
-        <v>125558</v>
-      </c>
-      <c r="C70" t="s">
-        <v>622</v>
-      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
       <c r="D70" t="n">
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>623</v>
+        <v>565</v>
       </c>
       <c r="G70" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H70" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I70" t="s">
-        <v>624</v>
+        <v>566</v>
       </c>
       <c r="J70" t="s">
-        <v>625</v>
+        <v>567</v>
       </c>
       <c r="K70" t="s">
-        <v>626</v>
+        <v>568</v>
       </c>
       <c r="L70" t="s">
-        <v>627</v>
+        <v>569</v>
       </c>
       <c r="M70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N70" t="s">
-        <v>628</v>
+        <v>570</v>
       </c>
       <c r="O70" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Q70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="R70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="S70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="T70" t="s"/>
       <c r="U70" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V70" t="n">
         <v>0</v>
       </c>
-      <c r="W70" t="s"/>
-      <c r="X70" t="s"/>
+      <c r="W70" t="s">
+        <v>549</v>
+      </c>
+      <c r="X70" t="s">
+        <v>550</v>
+      </c>
       <c r="Y70" t="s">
-        <v>629</v>
+        <v>571</v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
         <v>41069</v>
       </c>
-      <c r="B71" t="n">
-        <v>7</v>
-      </c>
-      <c r="C71" t="s">
-        <v>630</v>
-      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
       <c r="D71" t="n">
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>631</v>
+        <v>572</v>
       </c>
       <c r="G71" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H71" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I71" t="s">
-        <v>632</v>
+        <v>573</v>
       </c>
       <c r="J71" t="s">
-        <v>633</v>
+        <v>574</v>
       </c>
       <c r="K71" t="s">
-        <v>634</v>
+        <v>575</v>
       </c>
       <c r="L71" t="s">
-        <v>635</v>
+        <v>576</v>
       </c>
       <c r="M71" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N71" t="s">
-        <v>636</v>
+        <v>577</v>
       </c>
       <c r="O71" t="s">
-        <v>146</v>
+        <v>52</v>
       </c>
       <c r="P71" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q71" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q71" t="s"/>
       <c r="R71" t="s"/>
       <c r="S71" t="n">
         <v>5</v>
       </c>
       <c r="T71" t="s"/>
       <c r="U71" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V71" t="n">
         <v>0</v>
@@ -7399,239 +7030,263 @@
       <c r="W71" t="s"/>
       <c r="X71" t="s"/>
       <c r="Y71" t="s">
-        <v>635</v>
+        <v>578</v>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
         <v>41069</v>
       </c>
-      <c r="B72" t="n">
-        <v>125559</v>
-      </c>
-      <c r="C72" t="s">
-        <v>637</v>
-      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
       <c r="D72" t="n">
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>638</v>
+        <v>579</v>
       </c>
       <c r="G72" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H72" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I72" t="s">
-        <v>639</v>
+        <v>580</v>
       </c>
       <c r="J72" t="s">
-        <v>640</v>
+        <v>581</v>
       </c>
       <c r="K72" t="s">
-        <v>641</v>
+        <v>582</v>
       </c>
       <c r="L72" t="s">
-        <v>642</v>
+        <v>583</v>
       </c>
       <c r="M72" t="n">
-        <v>4</v>
-      </c>
-      <c r="N72" t="s"/>
-      <c r="O72" t="s"/>
-      <c r="P72" t="s"/>
-      <c r="Q72" t="s"/>
-      <c r="R72" t="s"/>
-      <c r="S72" t="s"/>
+        <v>2</v>
+      </c>
+      <c r="N72" t="s">
+        <v>584</v>
+      </c>
+      <c r="O72" t="s">
+        <v>78</v>
+      </c>
+      <c r="P72" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>2</v>
+      </c>
+      <c r="R72" t="n">
+        <v>4</v>
+      </c>
+      <c r="S72" t="n">
+        <v>2</v>
+      </c>
       <c r="T72" t="s"/>
-      <c r="U72" t="s"/>
+      <c r="U72" t="n">
+        <v>2</v>
+      </c>
       <c r="V72" t="n">
         <v>0</v>
       </c>
       <c r="W72" t="s"/>
       <c r="X72" t="s"/>
       <c r="Y72" t="s">
-        <v>643</v>
+        <v>585</v>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
         <v>41069</v>
       </c>
-      <c r="B73" t="n">
-        <v>125560</v>
-      </c>
-      <c r="C73" t="s">
-        <v>644</v>
-      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
       <c r="D73" t="n">
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>645</v>
+        <v>586</v>
       </c>
       <c r="G73" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H73" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I73" t="s">
-        <v>646</v>
+        <v>587</v>
       </c>
       <c r="J73" t="s">
-        <v>647</v>
+        <v>588</v>
       </c>
       <c r="K73" t="s">
-        <v>648</v>
+        <v>589</v>
       </c>
       <c r="L73" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
       <c r="M73" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N73" t="s">
-        <v>650</v>
+        <v>591</v>
       </c>
       <c r="O73" t="s">
-        <v>146</v>
-      </c>
-      <c r="P73" t="s"/>
-      <c r="Q73" t="s"/>
-      <c r="R73" t="s"/>
-      <c r="S73" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P73" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>4</v>
+      </c>
+      <c r="R73" t="n">
+        <v>5</v>
+      </c>
+      <c r="S73" t="n">
+        <v>5</v>
+      </c>
       <c r="T73" t="s"/>
-      <c r="U73" t="s"/>
+      <c r="U73" t="n">
+        <v>5</v>
+      </c>
       <c r="V73" t="n">
         <v>0</v>
       </c>
       <c r="W73" t="s"/>
       <c r="X73" t="s"/>
       <c r="Y73" t="s">
-        <v>649</v>
+        <v>590</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
         <v>41069</v>
       </c>
-      <c r="B74" t="n">
-        <v>125561</v>
-      </c>
-      <c r="C74" t="s">
-        <v>651</v>
-      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
       <c r="D74" t="n">
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>652</v>
+        <v>592</v>
       </c>
       <c r="G74" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H74" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I74" t="s">
-        <v>653</v>
+        <v>593</v>
       </c>
       <c r="J74" t="s">
-        <v>654</v>
+        <v>594</v>
       </c>
       <c r="K74" t="s">
-        <v>655</v>
+        <v>595</v>
       </c>
       <c r="L74" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
       <c r="M74" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N74" t="s">
-        <v>657</v>
+        <v>597</v>
       </c>
       <c r="O74" t="s">
-        <v>53</v>
-      </c>
-      <c r="P74" t="s"/>
-      <c r="Q74" t="s"/>
-      <c r="R74" t="s"/>
-      <c r="S74" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P74" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>3</v>
+      </c>
       <c r="T74" t="s"/>
-      <c r="U74" t="s"/>
+      <c r="U74" t="n">
+        <v>2</v>
+      </c>
       <c r="V74" t="n">
         <v>0</v>
       </c>
       <c r="W74" t="s"/>
       <c r="X74" t="s"/>
       <c r="Y74" t="s">
-        <v>656</v>
+        <v>596</v>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
         <v>41069</v>
       </c>
-      <c r="B75" t="n">
-        <v>125562</v>
-      </c>
-      <c r="C75" t="s">
-        <v>658</v>
-      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
       <c r="D75" t="n">
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>659</v>
+        <v>598</v>
       </c>
       <c r="G75" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H75" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I75" t="s">
-        <v>660</v>
+        <v>599</v>
       </c>
       <c r="J75" t="s">
-        <v>661</v>
+        <v>600</v>
       </c>
       <c r="K75" t="s">
-        <v>662</v>
+        <v>601</v>
       </c>
       <c r="L75" t="s">
-        <v>663</v>
+        <v>602</v>
       </c>
       <c r="M75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N75" t="s">
-        <v>664</v>
+        <v>603</v>
       </c>
       <c r="O75" t="s">
-        <v>53</v>
-      </c>
-      <c r="P75" t="s"/>
-      <c r="Q75" t="s"/>
-      <c r="R75" t="s"/>
+        <v>248</v>
+      </c>
+      <c r="P75" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>4</v>
+      </c>
+      <c r="R75" t="n">
+        <v>4</v>
+      </c>
       <c r="S75" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T75" t="s"/>
       <c r="U75" t="n">
@@ -7643,129 +7298,511 @@
       <c r="W75" t="s"/>
       <c r="X75" t="s"/>
       <c r="Y75" t="s">
-        <v>663</v>
+        <v>604</v>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
         <v>41069</v>
       </c>
-      <c r="B76" t="n">
-        <v>77162</v>
-      </c>
-      <c r="C76" t="s">
-        <v>665</v>
-      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
       <c r="D76" t="n">
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F76" t="s">
-        <v>666</v>
+        <v>605</v>
       </c>
       <c r="G76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I76" t="s">
-        <v>667</v>
+        <v>606</v>
       </c>
       <c r="J76" t="s">
-        <v>668</v>
+        <v>607</v>
       </c>
       <c r="K76" t="s">
-        <v>669</v>
+        <v>608</v>
       </c>
       <c r="L76" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
       <c r="M76" t="n">
         <v>4</v>
       </c>
       <c r="N76" t="s">
-        <v>664</v>
+        <v>610</v>
       </c>
       <c r="O76" t="s">
-        <v>61</v>
-      </c>
-      <c r="P76" t="s"/>
-      <c r="Q76" t="s"/>
-      <c r="R76" t="s"/>
-      <c r="S76" t="s"/>
+        <v>78</v>
+      </c>
+      <c r="P76" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>3</v>
+      </c>
+      <c r="R76" t="n">
+        <v>3</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3</v>
+      </c>
       <c r="T76" t="s"/>
-      <c r="U76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
       <c r="V76" t="n">
         <v>0</v>
       </c>
       <c r="W76" t="s"/>
       <c r="X76" t="s"/>
       <c r="Y76" t="s">
-        <v>670</v>
+        <v>609</v>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
         <v>41069</v>
       </c>
-      <c r="B77" t="n">
-        <v>125563</v>
-      </c>
-      <c r="C77" t="s">
-        <v>671</v>
-      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
       <c r="D77" t="n">
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F77" t="s">
-        <v>672</v>
+        <v>611</v>
       </c>
       <c r="G77" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="H77" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="I77" t="s">
-        <v>673</v>
+        <v>612</v>
       </c>
       <c r="J77" t="s">
-        <v>674</v>
+        <v>613</v>
       </c>
       <c r="K77" t="s">
-        <v>675</v>
+        <v>614</v>
       </c>
       <c r="L77" t="s">
-        <v>676</v>
+        <v>615</v>
       </c>
       <c r="M77" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N77" t="s">
-        <v>664</v>
+        <v>616</v>
       </c>
       <c r="O77" t="s">
-        <v>53</v>
-      </c>
-      <c r="P77" t="s"/>
-      <c r="Q77" t="s"/>
-      <c r="R77" t="s"/>
-      <c r="S77" t="s"/>
+        <v>52</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>5</v>
+      </c>
+      <c r="S77" t="n">
+        <v>5</v>
+      </c>
       <c r="T77" t="s"/>
-      <c r="U77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
       <c r="V77" t="n">
         <v>0</v>
       </c>
       <c r="W77" t="s"/>
       <c r="X77" t="s"/>
       <c r="Y77" t="s">
-        <v>677</v>
+        <v>617</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>43</v>
+      </c>
+      <c r="F78" t="s">
+        <v>618</v>
+      </c>
+      <c r="G78" t="s">
+        <v>45</v>
+      </c>
+      <c r="H78" t="s">
+        <v>46</v>
+      </c>
+      <c r="I78" t="s">
+        <v>619</v>
+      </c>
+      <c r="J78" t="s">
+        <v>620</v>
+      </c>
+      <c r="K78" t="s">
+        <v>621</v>
+      </c>
+      <c r="L78" t="s">
+        <v>622</v>
+      </c>
+      <c r="M78" t="n">
+        <v>1</v>
+      </c>
+      <c r="N78" t="s"/>
+      <c r="O78" t="s"/>
+      <c r="P78" t="s"/>
+      <c r="Q78" t="s"/>
+      <c r="R78" t="s"/>
+      <c r="S78" t="s"/>
+      <c r="T78" t="s"/>
+      <c r="U78" t="s"/>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s"/>
+      <c r="X78" t="s"/>
+      <c r="Y78" t="s">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>43</v>
+      </c>
+      <c r="F79" t="s">
+        <v>623</v>
+      </c>
+      <c r="G79" t="s">
+        <v>45</v>
+      </c>
+      <c r="H79" t="s">
+        <v>46</v>
+      </c>
+      <c r="I79" t="s">
+        <v>624</v>
+      </c>
+      <c r="J79" t="s">
+        <v>625</v>
+      </c>
+      <c r="K79" t="s">
+        <v>626</v>
+      </c>
+      <c r="L79" t="s">
+        <v>627</v>
+      </c>
+      <c r="M79" t="n">
+        <v>1</v>
+      </c>
+      <c r="N79" t="s">
+        <v>628</v>
+      </c>
+      <c r="O79" t="s">
+        <v>52</v>
+      </c>
+      <c r="P79" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>2</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="s"/>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s"/>
+      <c r="X79" t="s"/>
+      <c r="Y79" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>43</v>
+      </c>
+      <c r="F80" t="s">
+        <v>630</v>
+      </c>
+      <c r="G80" t="s">
+        <v>45</v>
+      </c>
+      <c r="H80" t="s">
+        <v>46</v>
+      </c>
+      <c r="I80" t="s">
+        <v>631</v>
+      </c>
+      <c r="J80" t="s">
+        <v>632</v>
+      </c>
+      <c r="K80" t="s">
+        <v>633</v>
+      </c>
+      <c r="L80" t="s">
+        <v>634</v>
+      </c>
+      <c r="M80" t="n">
+        <v>1</v>
+      </c>
+      <c r="N80" t="s">
+        <v>635</v>
+      </c>
+      <c r="O80" t="s">
+        <v>52</v>
+      </c>
+      <c r="P80" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q80" t="n">
+        <v>4</v>
+      </c>
+      <c r="R80" t="n">
+        <v>5</v>
+      </c>
+      <c r="S80" t="n">
+        <v>3</v>
+      </c>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>4</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s"/>
+      <c r="X80" t="s"/>
+      <c r="Y80" t="s">
+        <v>634</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>43</v>
+      </c>
+      <c r="F81" t="s">
+        <v>636</v>
+      </c>
+      <c r="G81" t="s">
+        <v>45</v>
+      </c>
+      <c r="H81" t="s">
+        <v>46</v>
+      </c>
+      <c r="I81" t="s">
+        <v>637</v>
+      </c>
+      <c r="J81" t="s">
+        <v>638</v>
+      </c>
+      <c r="K81" t="s">
+        <v>639</v>
+      </c>
+      <c r="L81" t="s">
+        <v>640</v>
+      </c>
+      <c r="M81" t="n">
+        <v>4</v>
+      </c>
+      <c r="N81" t="s">
+        <v>641</v>
+      </c>
+      <c r="O81" t="s">
+        <v>52</v>
+      </c>
+      <c r="P81" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>4</v>
+      </c>
+      <c r="R81" t="n">
+        <v>4</v>
+      </c>
+      <c r="S81" t="n">
+        <v>4</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>4</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s"/>
+      <c r="X81" t="s"/>
+      <c r="Y81" t="s">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>43</v>
+      </c>
+      <c r="F82" t="s">
+        <v>643</v>
+      </c>
+      <c r="G82" t="s">
+        <v>45</v>
+      </c>
+      <c r="H82" t="s">
+        <v>46</v>
+      </c>
+      <c r="I82" t="s">
+        <v>644</v>
+      </c>
+      <c r="J82" t="s">
+        <v>645</v>
+      </c>
+      <c r="K82" t="s">
+        <v>646</v>
+      </c>
+      <c r="L82" t="s">
+        <v>647</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>648</v>
+      </c>
+      <c r="O82" t="s">
+        <v>60</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>5</v>
+      </c>
+      <c r="R82" t="s"/>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s"/>
+      <c r="X82" t="s"/>
+      <c r="Y82" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>41069</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>43</v>
+      </c>
+      <c r="F83" t="s">
+        <v>649</v>
+      </c>
+      <c r="G83" t="s">
+        <v>45</v>
+      </c>
+      <c r="H83" t="s">
+        <v>46</v>
+      </c>
+      <c r="I83" t="s">
+        <v>650</v>
+      </c>
+      <c r="J83" t="s">
+        <v>651</v>
+      </c>
+      <c r="K83" t="s">
+        <v>652</v>
+      </c>
+      <c r="L83" t="s">
+        <v>653</v>
+      </c>
+      <c r="M83" t="n">
+        <v>4</v>
+      </c>
+      <c r="N83" t="s"/>
+      <c r="O83" t="s"/>
+      <c r="P83" t="s"/>
+      <c r="Q83" t="s"/>
+      <c r="R83" t="s"/>
+      <c r="S83" t="s"/>
+      <c r="T83" t="s"/>
+      <c r="U83" t="s"/>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s"/>
+      <c r="X83" t="s"/>
+      <c r="Y83" t="s">
+        <v>654</v>
       </c>
     </row>
   </sheetData>
